--- a/Suporte_Relatorio.xlsx
+++ b/Suporte_Relatorio.xlsx
@@ -4055,8 +4055,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010029DFE9A47EDBBA4C9642CECEC7AB5212" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8f2c6ae4a50a8b148bb7565151eccd01">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685e8f7b-ce85-439b-962f-3948db74e463" xmlns:ns3="9968dc3e-a1f3-41f5-b998-9e98f3d19f76" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="182854d0ea7c01653fabf173265a5b93" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010029DFE9A47EDBBA4C9642CECEC7AB5212" ma:contentTypeVersion="15" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="7328ff878a8f4dae18a74358abfdf779">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685e8f7b-ce85-439b-962f-3948db74e463" xmlns:ns3="9968dc3e-a1f3-41f5-b998-9e98f3d19f76" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d504a395b7aacda9b17f0d85dc998159" ns2:_="" ns3:_="">
     <xsd:import namespace="685e8f7b-ce85-439b-962f-3948db74e463"/>
     <xsd:import namespace="9968dc3e-a1f3-41f5-b998-9e98f3d19f76"/>
     <xsd:element name="properties">
@@ -4109,7 +4109,7 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d8ce33f6-733d-4e00-8801-5e8569691fea" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Marcações de imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d8ce33f6-733d-4e00-8801-5e8569691fea" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -4152,7 +4152,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9968dc3e-a1f3-41f5-b998-9e98f3d19f76" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Compartilhado com" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -4171,7 +4171,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Detalhes de Compartilhado Com" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -4199,8 +4199,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -4317,22 +4317,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BA1717C-B4B5-41B3-9092-3632DE0736F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="685e8f7b-ce85-439b-962f-3948db74e463"/>
-    <ds:schemaRef ds:uri="9968dc3e-a1f3-41f5-b998-9e98f3d19f76"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADBD3FE2-B07C-4FEE-BF76-FF710C6DD52A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Suporte_Relatorio.xlsx
+++ b/Suporte_Relatorio.xlsx
@@ -5,30 +5,31 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ekhofo-my.sharepoint.com/personal/rafael_astolfi_ekhofo_com/Documents/Desktop/relatorio_mensal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ekhofo.sharepoint.com/Shared Documents/Dados/Gestão/Benny/Relatório Mensal - Teste CD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1206" documentId="8_{99956F94-DCAB-454E-864B-055737CC37DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6833D00B-4694-4215-8826-E335A5D0A7BD}"/>
+  <xr:revisionPtr revIDLastSave="1243" documentId="8_{99956F94-DCAB-454E-864B-055737CC37DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{392E8FC1-D4B6-4B18-BA41-BB24E6177C4E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{D83840C6-8BB1-4146-989F-64A28F905889}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D83840C6-8BB1-4146-989F-64A28F905889}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
     <sheet name="carteira_ekho_onshore" sheetId="13" r:id="rId2"/>
     <sheet name="carteira_ekho_offshore" sheetId="14" r:id="rId3"/>
-    <sheet name="classes(backup)" sheetId="12" r:id="rId4"/>
+    <sheet name="instituicao_financeira" sheetId="23" r:id="rId4"/>
     <sheet name="clients_on_off" sheetId="19" r:id="rId5"/>
     <sheet name="clients_onshore" sheetId="20" r:id="rId6"/>
-    <sheet name="clients_on_off (2)" sheetId="21" r:id="rId7"/>
-    <sheet name="clients_onshore (2)" sheetId="22" r:id="rId8"/>
+    <sheet name="classes(backup)" sheetId="12" r:id="rId7"/>
+    <sheet name="clients_on_off (2)" sheetId="21" r:id="rId8"/>
+    <sheet name="clients_onshore (2)" sheetId="22" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">classes!$A$1:$E$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'classes(backup)'!$A$1:$E$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'classes(backup)'!$A$1:$E$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">clients_on_off!$A$1:$E$57</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'clients_on_off (2)'!$A$1:$D$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'clients_on_off (2)'!$A$1:$D$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">clients_onshore!$A$1:$E$40</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'clients_onshore (2)'!$A$1:$C$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'clients_onshore (2)'!$A$1:$C$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="205">
   <si>
     <t>Alternativos</t>
   </si>
@@ -540,6 +541,132 @@
   </si>
   <si>
     <t>ESPERANDO RELATORIO</t>
+  </si>
+  <si>
+    <t>instituicao_financeira</t>
+  </si>
+  <si>
+    <t>XP INVESTIMENTOS</t>
+  </si>
+  <si>
+    <t>BNY MELLON</t>
+  </si>
+  <si>
+    <t>BTG PACTUAL INVESTIMENTOS</t>
+  </si>
+  <si>
+    <t>BANCO ITAU</t>
+  </si>
+  <si>
+    <t>BTG Pactual</t>
+  </si>
+  <si>
+    <t>SAFRA</t>
+  </si>
+  <si>
+    <t>XP OFFSHORE</t>
+  </si>
+  <si>
+    <t>ENDEAVOR CATALYST</t>
+  </si>
+  <si>
+    <t>JP MORGAN</t>
+  </si>
+  <si>
+    <t>CLOUD9</t>
+  </si>
+  <si>
+    <t>MORGAN STANLEY</t>
+  </si>
+  <si>
+    <t>BTG PSF</t>
+  </si>
+  <si>
+    <t>CREDIT SUISSE</t>
+  </si>
+  <si>
+    <t>MG STOVER - GENESIS BLOCK FUND LTD.</t>
+  </si>
+  <si>
+    <t>WE CAPITAL</t>
+  </si>
+  <si>
+    <t>PROVENCE</t>
+  </si>
+  <si>
+    <t>KASZEK VENTURES</t>
+  </si>
+  <si>
+    <t>LEVE</t>
+  </si>
+  <si>
+    <t>JIVE ASSET MANAGEMENT</t>
+  </si>
+  <si>
+    <t>BRADESCO</t>
+  </si>
+  <si>
+    <t>MERCADO BITCOIN</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>BEWATER GROWTH FUND</t>
+  </si>
+  <si>
+    <t>BANCO DO BRASIL</t>
+  </si>
+  <si>
+    <t>apelido</t>
+  </si>
+  <si>
+    <t>XP</t>
+  </si>
+  <si>
+    <t>MELLON</t>
+  </si>
+  <si>
+    <t>BTG</t>
+  </si>
+  <si>
+    <t>ITAU</t>
+  </si>
+  <si>
+    <t>ENDEAVOR</t>
+  </si>
+  <si>
+    <t>JPM</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>MG STOVER</t>
+  </si>
+  <si>
+    <t>WE</t>
+  </si>
+  <si>
+    <t>KASZEK</t>
+  </si>
+  <si>
+    <t>JIVE</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>BEWATER</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>BRAD</t>
   </si>
 </sst>
 </file>
@@ -1333,10 +1460,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845CC027-4A4C-4EDE-AA09-FE36D39F1BE9}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,10 +1581,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523483BD-25DF-4083-A082-CC1F2D41378B}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1596,6 +1729,2504 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83118A2-C5F9-4B15-9215-B013E7BD434E}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492A2C00-84DF-4782-A4AE-C9B5D9D242D2}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:H1048574"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C18" sqref="C17:C18"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C17:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="7">
+        <v>45222</v>
+      </c>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="7">
+        <v>45275</v>
+      </c>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1001</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7">
+        <v>45222</v>
+      </c>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7">
+        <v>45275</v>
+      </c>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="7">
+        <v>45293</v>
+      </c>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4000</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7">
+        <v>45275</v>
+      </c>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1004</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="7">
+        <v>45239</v>
+      </c>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2004</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7">
+        <v>45218</v>
+      </c>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1007</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="7">
+        <v>45239</v>
+      </c>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2004</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="7">
+        <v>45218</v>
+      </c>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3001</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="7">
+        <v>45170</v>
+      </c>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4001</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="7">
+        <v>45170</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1120</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="7">
+        <v>45492</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="H14" s="22">
+        <v>249924.83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2032</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="7">
+        <v>45443</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="H15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1094</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="7">
+        <v>45296</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="H16" s="22">
+        <v>1167.87303738318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="7">
+        <v>45366</v>
+      </c>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1097</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="7">
+        <v>45036</v>
+      </c>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="7">
+        <v>45292</v>
+      </c>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2030</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="7">
+        <v>45292</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2030</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="7">
+        <v>45292</v>
+      </c>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1015</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="7">
+        <v>44895</v>
+      </c>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1028</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="7">
+        <v>45107</v>
+      </c>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="7">
+        <v>45107</v>
+      </c>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1008</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="7">
+        <v>44845</v>
+      </c>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2008</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="7">
+        <v>45036</v>
+      </c>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1009</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="7">
+        <v>44845</v>
+      </c>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2008</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="7">
+        <v>45036</v>
+      </c>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="3">
+        <v>3003</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="7">
+        <v>44845</v>
+      </c>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4004</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="7">
+        <v>45036</v>
+      </c>
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1105</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="7">
+        <v>45138</v>
+      </c>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2028</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="7">
+        <v>45015</v>
+      </c>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1019</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="7">
+        <v>45204</v>
+      </c>
+      <c r="F34" s="12"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="7">
+        <v>45236</v>
+      </c>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1016</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="7">
+        <v>45198</v>
+      </c>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2016</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="7">
+        <v>45383</v>
+      </c>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1017</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="7">
+        <v>45198</v>
+      </c>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="7">
+        <v>45323</v>
+      </c>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1103</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="7">
+        <v>45236</v>
+      </c>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2025</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="7">
+        <v>45275</v>
+      </c>
+      <c r="F41" s="12"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1035</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="7">
+        <v>45078</v>
+      </c>
+      <c r="F42" s="12"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2029</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="7">
+        <v>45231</v>
+      </c>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1022</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="7">
+        <v>44985</v>
+      </c>
+      <c r="F44" s="12"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="3">
+        <v>4003</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="7">
+        <v>44987</v>
+      </c>
+      <c r="F45" s="12"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1021</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="7">
+        <v>44985</v>
+      </c>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="3">
+        <v>4002</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="7">
+        <v>44987</v>
+      </c>
+      <c r="F47" s="12"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1023</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="7">
+        <v>45121</v>
+      </c>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="7">
+        <v>45036</v>
+      </c>
+      <c r="F49" s="12"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1011</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="7">
+        <v>45009</v>
+      </c>
+      <c r="F50" s="12"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="7">
+        <v>45069</v>
+      </c>
+      <c r="F51" s="12"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1012</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="7">
+        <v>45009</v>
+      </c>
+      <c r="F52" s="12"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="7">
+        <v>45069</v>
+      </c>
+      <c r="F53" s="12"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1003</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="7">
+        <v>45196</v>
+      </c>
+      <c r="F54" s="12"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="3">
+        <v>2003</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="7">
+        <v>45344</v>
+      </c>
+      <c r="F55" s="12"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="3">
+        <v>2031</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="7">
+        <v>45196</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="3">
+        <v>2031</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="7">
+        <v>45344</v>
+      </c>
+      <c r="F57" s="12"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1037</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="7">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" s="18"/>
+      <c r="D59" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" s="18">
+        <v>50100</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" s="18">
+        <v>50100</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="7"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="7"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="7"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="7"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="7"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="7"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="7"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="7"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="7"/>
+    </row>
+    <row r="1048574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048574" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E57" xr:uid="{492A2C00-84DF-4782-A4AE-C9B5D9D242D2}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEBEAB0-4E16-4581-8A08-39CF6708FA50}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:G1048575"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C18" sqref="C17:C18"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C17:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1001</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="11">
+        <v>45290</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="11">
+        <v>44743</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="3">
+        <v>40009</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="11">
+        <v>44956</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="3">
+        <v>21214</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="11">
+        <v>44562</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="3">
+        <v>40006</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="11">
+        <v>43069</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="3">
+        <v>21223</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="11">
+        <v>43069</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1034</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="11">
+        <v>45139</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="11">
+        <v>45373</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1040</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="11">
+        <v>45435</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1096</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="11">
+        <v>44942</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1095</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="11">
+        <v>44949</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="3">
+        <v>22365</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="11">
+        <v>45195</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1089</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="11">
+        <v>45202</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="3">
+        <v>30022</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="11">
+        <v>45392</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1091</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="11">
+        <v>45392</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="3">
+        <v>22368</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="11">
+        <v>45195</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1090</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="11">
+        <v>45443</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="3">
+        <v>22353</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="11">
+        <v>45195</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1095</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="11">
+        <v>45443</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="3">
+        <v>40010</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="11">
+        <v>43074</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="3">
+        <v>22801</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="11">
+        <v>45294</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="3">
+        <v>21223</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="11">
+        <v>43069</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="3">
+        <v>40006</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="11">
+        <v>43069</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="3">
+        <v>50007</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="11">
+        <v>45200</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="3">
+        <v>60002</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="11">
+        <v>45077</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="3">
+        <v>50042</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="11">
+        <v>45170</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1043</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="11">
+        <v>45436</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1013</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="11">
+        <v>45117</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="3">
+        <v>30002</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="11">
+        <v>45306</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1018</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="11">
+        <v>45202</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1020</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="11">
+        <v>45202</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="3">
+        <v>50034</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="11">
+        <v>45210</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="10">
+        <v>40005</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="11">
+        <v>42375</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="3">
+        <v>21220</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="11">
+        <v>42375</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1036</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="11">
+        <v>44712</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="3">
+        <v>21217</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="11">
+        <v>43840</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="3">
+        <v>40001</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="11">
+        <v>43840</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1006</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="11">
+        <v>45351</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="3">
+        <v>40011</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="11">
+        <v>42737</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="3">
+        <v>21226</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="11">
+        <v>42737</v>
+      </c>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="11">
+        <v>42954</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="3">
+        <v>40013</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="11">
+        <v>42954</v>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="3">
+        <v>21208</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="11">
+        <v>43007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1116</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="11">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1087</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="11">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1117</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="1048575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048575" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E40" xr:uid="{6EEBEAB0-4E16-4581-8A08-39CF6708FA50}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A0DD4C-F195-4C71-8353-E46AFFEBC95A}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -1912,2274 +4543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492A2C00-84DF-4782-A4AE-C9B5D9D242D2}">
-  <dimension ref="A1:H1048574"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="40.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="7">
-        <v>45222</v>
-      </c>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="7">
-        <v>45275</v>
-      </c>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1001</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="7">
-        <v>45222</v>
-      </c>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="7">
-        <v>45275</v>
-      </c>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3000</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="7">
-        <v>45293</v>
-      </c>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4000</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="7">
-        <v>45275</v>
-      </c>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1004</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="7">
-        <v>45239</v>
-      </c>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2004</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="7">
-        <v>45218</v>
-      </c>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1007</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="7">
-        <v>45239</v>
-      </c>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2004</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="7">
-        <v>45218</v>
-      </c>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="3">
-        <v>3001</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="7">
-        <v>45170</v>
-      </c>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="3">
-        <v>4001</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="7">
-        <v>45170</v>
-      </c>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1120</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="7">
-        <v>45492</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="H14" s="22">
-        <v>249924.83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2032</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="7">
-        <v>45443</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="H15">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1094</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="7">
-        <v>45296</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="H16" s="22">
-        <v>1167.87303738318</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="7">
-        <v>45366</v>
-      </c>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1097</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="7">
-        <v>45036</v>
-      </c>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2024</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="7">
-        <v>45292</v>
-      </c>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2030</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="7">
-        <v>45292</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2030</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="7">
-        <v>45292</v>
-      </c>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1015</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="7">
-        <v>44895</v>
-      </c>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2014</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1028</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="7">
-        <v>45107</v>
-      </c>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="7">
-        <v>45107</v>
-      </c>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1008</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="7">
-        <v>44845</v>
-      </c>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="3">
-        <v>2008</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="7">
-        <v>45036</v>
-      </c>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1009</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="7">
-        <v>44845</v>
-      </c>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="3">
-        <v>2008</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="7">
-        <v>45036</v>
-      </c>
-      <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="3">
-        <v>3003</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="7">
-        <v>44845</v>
-      </c>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="3">
-        <v>4004</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="7">
-        <v>45036</v>
-      </c>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1105</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="7">
-        <v>45138</v>
-      </c>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="3">
-        <v>2028</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="7">
-        <v>45015</v>
-      </c>
-      <c r="F33" s="12"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1019</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="7">
-        <v>45204</v>
-      </c>
-      <c r="F34" s="12"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="7">
-        <v>45236</v>
-      </c>
-      <c r="F35" s="12"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="3">
-        <v>1016</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="7">
-        <v>45198</v>
-      </c>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="3">
-        <v>2016</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="7">
-        <v>45383</v>
-      </c>
-      <c r="F37" s="12"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="3">
-        <v>1017</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="7">
-        <v>45198</v>
-      </c>
-      <c r="F38" s="12"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="3">
-        <v>2017</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="7">
-        <v>45323</v>
-      </c>
-      <c r="F39" s="12"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1103</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="7">
-        <v>45236</v>
-      </c>
-      <c r="F40" s="12"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="3">
-        <v>2025</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="7">
-        <v>45275</v>
-      </c>
-      <c r="F41" s="12"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1035</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="7">
-        <v>45078</v>
-      </c>
-      <c r="F42" s="12"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="3">
-        <v>2029</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="7">
-        <v>45231</v>
-      </c>
-      <c r="F43" s="12"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="3">
-        <v>1022</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="7">
-        <v>44985</v>
-      </c>
-      <c r="F44" s="12"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="3">
-        <v>4003</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="7">
-        <v>44987</v>
-      </c>
-      <c r="F45" s="12"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="3">
-        <v>1021</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="7">
-        <v>44985</v>
-      </c>
-      <c r="F46" s="12"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="3">
-        <v>4002</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="7">
-        <v>44987</v>
-      </c>
-      <c r="F47" s="12"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="3">
-        <v>1023</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="7">
-        <v>45121</v>
-      </c>
-      <c r="F48" s="12"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="3">
-        <v>2023</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" s="7">
-        <v>45036</v>
-      </c>
-      <c r="F49" s="12"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="3">
-        <v>1011</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" s="7">
-        <v>45009</v>
-      </c>
-      <c r="F50" s="12"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" s="3">
-        <v>2011</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" s="7">
-        <v>45069</v>
-      </c>
-      <c r="F51" s="12"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C52" s="3">
-        <v>1012</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E52" s="7">
-        <v>45009</v>
-      </c>
-      <c r="F52" s="12"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C53" s="3">
-        <v>2011</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E53" s="7">
-        <v>45069</v>
-      </c>
-      <c r="F53" s="12"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C54" s="3">
-        <v>1003</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E54" s="7">
-        <v>45196</v>
-      </c>
-      <c r="F54" s="12"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C55" s="3">
-        <v>2003</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E55" s="7">
-        <v>45344</v>
-      </c>
-      <c r="F55" s="12"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="3">
-        <v>2031</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E56" s="7">
-        <v>45196</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="3">
-        <v>2031</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" s="7">
-        <v>45344</v>
-      </c>
-      <c r="F57" s="12"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C58" s="3">
-        <v>1037</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E58" s="7">
-        <v>45082</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C59" s="18"/>
-      <c r="D59" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C60" s="18">
-        <v>50100</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C61" s="18">
-        <v>50100</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="7"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="7"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="7"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="7"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="7"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="7"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="7"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="7"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="7"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="7"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="7"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="7"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="7"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="7"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="7"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="7"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="7"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="7"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="7"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="7"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="7"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="7"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="7"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="7"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="7"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="7"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="7"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="7"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="7"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="7"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="7"/>
-    </row>
-    <row r="1048574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1048574" s="3"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E57" xr:uid="{492A2C00-84DF-4782-A4AE-C9B5D9D242D2}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEBEAB0-4E16-4581-8A08-39CF6708FA50}">
-  <dimension ref="A1:G1048575"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28:D28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1001</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="11">
-        <v>45290</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1111</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="11">
-        <v>44743</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="3">
-        <v>40009</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="11">
-        <v>44956</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="3">
-        <v>21214</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="11">
-        <v>44562</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="3">
-        <v>40006</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="11">
-        <v>43069</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="3">
-        <v>21223</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="11">
-        <v>43069</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1034</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="11">
-        <v>45139</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1010</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="11">
-        <v>45373</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1040</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="11">
-        <v>45435</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1096</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="11">
-        <v>44942</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1095</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="11">
-        <v>44949</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="3">
-        <v>22365</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="11">
-        <v>45195</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1089</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="11">
-        <v>45202</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="3">
-        <v>30022</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="11">
-        <v>45392</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1091</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="11">
-        <v>45392</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="3">
-        <v>22368</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="11">
-        <v>45195</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1090</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="11">
-        <v>45443</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="3">
-        <v>22353</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="11">
-        <v>45195</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1095</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="11">
-        <v>45443</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="3">
-        <v>40010</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="11">
-        <v>43074</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="3">
-        <v>22801</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="11">
-        <v>45294</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="3">
-        <v>21223</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="11">
-        <v>43069</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="3">
-        <v>40006</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="11">
-        <v>43069</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="3">
-        <v>50007</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="11">
-        <v>45200</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="3">
-        <v>60002</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="11">
-        <v>45077</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="3">
-        <v>50042</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="11">
-        <v>45170</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1043</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="11">
-        <v>45436</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1013</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="11">
-        <v>45117</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="3">
-        <v>30002</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="11">
-        <v>45306</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1018</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="11">
-        <v>45202</v>
-      </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1020</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="11">
-        <v>45202</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="3">
-        <v>50034</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="11">
-        <v>45210</v>
-      </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="10">
-        <v>40005</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="11">
-        <v>42375</v>
-      </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="3">
-        <v>21220</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="11">
-        <v>42375</v>
-      </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="3">
-        <v>1036</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="11">
-        <v>44712</v>
-      </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="3">
-        <v>21217</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="11">
-        <v>43840</v>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="3">
-        <v>40001</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="11">
-        <v>43840</v>
-      </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="3">
-        <v>1006</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="11">
-        <v>45351</v>
-      </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="3">
-        <v>40011</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="11">
-        <v>42737</v>
-      </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C41" s="3">
-        <v>21226</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="11">
-        <v>42737</v>
-      </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1110</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="11">
-        <v>42954</v>
-      </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C43" s="3">
-        <v>40013</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="11">
-        <v>42954</v>
-      </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C44" s="3">
-        <v>21208</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="11">
-        <v>43007</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1116</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="11">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="3">
-        <v>1087</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="11">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C47" s="3">
-        <v>1117</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="21" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="1048575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1048575" s="3"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E40" xr:uid="{6EEBEAB0-4E16-4581-8A08-39CF6708FA50}"/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CF0191-5EAE-4B06-B5C1-13D30342DEF8}">
   <dimension ref="A1:F61"/>
   <sheetViews>
@@ -5300,7 +5664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B548D8A-88F4-48BF-8DA9-473567F1EB6D}">
   <dimension ref="A1:F47"/>
   <sheetViews>
@@ -6115,6 +6479,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010029DFE9A47EDBBA4C9642CECEC7AB5212" ma:contentTypeVersion="15" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="7328ff878a8f4dae18a74358abfdf779">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685e8f7b-ce85-439b-962f-3948db74e463" xmlns:ns3="9968dc3e-a1f3-41f5-b998-9e98f3d19f76" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d504a395b7aacda9b17f0d85dc998159" ns2:_="" ns3:_="">
     <xsd:import namespace="685e8f7b-ce85-439b-962f-3948db74e463"/>
@@ -6349,15 +6722,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6378,13 +6742,28 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13BA50B4-2830-4093-B3A1-0E01A2125F8E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11E769B2-782A-4CC9-89C8-BE475949AFF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11E769B2-782A-4CC9-89C8-BE475949AFF9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13BA50B4-2830-4093-B3A1-0E01A2125F8E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="685e8f7b-ce85-439b-962f-3948db74e463"/>
+    <ds:schemaRef ds:uri="9968dc3e-a1f3-41f5-b998-9e98f3d19f76"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Suporte_Relatorio.xlsx
+++ b/Suporte_Relatorio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ekhofo.sharepoint.com/Shared Documents/Dados/Gestão/Benny/Relatório Mensal - Teste CD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ekhofo-my.sharepoint.com/personal/rafael_astolfi_ekhofo_com/Documents/Desktop/relatorio_mensal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1243" documentId="8_{99956F94-DCAB-454E-864B-055737CC37DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{392E8FC1-D4B6-4B18-BA41-BB24E6177C4E}"/>
+  <xr:revisionPtr revIDLastSave="1281" documentId="8_{99956F94-DCAB-454E-864B-055737CC37DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F01DAFAE-3768-4E68-872A-FC24D8376639}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D83840C6-8BB1-4146-989F-64A28F905889}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{D83840C6-8BB1-4146-989F-64A28F905889}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,15 @@
     <sheet name="instituicao_financeira" sheetId="23" r:id="rId4"/>
     <sheet name="clients_on_off" sheetId="19" r:id="rId5"/>
     <sheet name="clients_onshore" sheetId="20" r:id="rId6"/>
-    <sheet name="classes(backup)" sheetId="12" r:id="rId7"/>
-    <sheet name="clients_on_off (2)" sheetId="21" r:id="rId8"/>
-    <sheet name="clients_onshore (2)" sheetId="22" r:id="rId9"/>
+    <sheet name="clients_on_off (2)" sheetId="21" r:id="rId7"/>
+    <sheet name="clients_onshore (2)" sheetId="22" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">classes!$A$1:$E$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'classes(backup)'!$A$1:$E$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">clients_on_off!$A$1:$E$57</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'clients_on_off (2)'!$A$1:$D$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'clients_on_off (2)'!$A$1:$D$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">clients_onshore!$A$1:$E$40</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'clients_onshore (2)'!$A$1:$C$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'clients_onshore (2)'!$A$1:$C$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="200">
   <si>
     <t>Alternativos</t>
   </si>
@@ -117,9 +115,6 @@
     <t>Inflation-Linked Bonds</t>
   </si>
   <si>
-    <t>IFIX</t>
-  </si>
-  <si>
     <t>US_EFFR</t>
   </si>
   <si>
@@ -165,9 +160,6 @@
     <t>class</t>
   </si>
   <si>
-    <t>Bloomberg Global Aggregate Bond</t>
-  </si>
-  <si>
     <t>MSCI ACWI</t>
   </si>
   <si>
@@ -492,9 +484,6 @@
     <t>LIANA BARDINI ALVES</t>
   </si>
   <si>
-    <t>CRIAR</t>
-  </si>
-  <si>
     <t>fazer quando chegar</t>
   </si>
   <si>
@@ -535,12 +524,6 @@
   </si>
   <si>
     <t>THIAGO GOMES HILARIO DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>FAZER CARTEIRA</t>
-  </si>
-  <si>
-    <t>ESPERANDO RELATORIO</t>
   </si>
   <si>
     <t>instituicao_financeira</t>
@@ -721,7 +704,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -742,17 +725,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -781,31 +753,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1147,7 +1112,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,19 +1126,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,16 +1146,16 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1198,16 +1163,16 @@
         <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1215,16 +1180,16 @@
         <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1232,16 +1197,16 @@
         <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1249,16 +1214,16 @@
         <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1266,16 +1231,16 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1283,16 +1248,16 @@
         <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1300,16 +1265,16 @@
         <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1317,16 +1282,16 @@
         <v>0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1343,7 +1308,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1360,7 +1325,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1377,7 +1342,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1394,7 +1359,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1411,7 +1376,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1428,7 +1393,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1445,7 +1410,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1463,38 +1428,39 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>0.3</v>
       </c>
       <c r="C2" t="s">
@@ -1504,53 +1470,54 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>0.2</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>0.25</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>0.1</v>
       </c>
       <c r="C6" t="s">
@@ -1560,18 +1527,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>0.15</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1584,10 +1551,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="G2" sqref="G2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,130 +1564,131 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>96</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>0.3</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>0.2</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>0.1</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>0.25</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1733,10 +1701,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,204 +1713,205 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>173</v>
-      </c>
-      <c r="B11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>174</v>
-      </c>
-      <c r="B12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>176</v>
-      </c>
-      <c r="B14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>177</v>
-      </c>
-      <c r="B15" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>178</v>
-      </c>
-      <c r="B16" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B22" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B24" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B25" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -1955,12 +1924,12 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:H1048574"/>
+  <dimension ref="A1:I1048574"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C17:C18"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C17:C18"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1968,1335 +1937,789 @@
     <col min="2" max="2" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="40.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3">
         <v>1000</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="7">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6">
         <v>45222</v>
       </c>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3">
         <v>2000</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="7">
+        <v>24</v>
+      </c>
+      <c r="E3" s="6">
         <v>45275</v>
       </c>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="3">
         <v>1001</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="7">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6">
         <v>45222</v>
       </c>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" s="3">
         <v>2000</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="7">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6">
         <v>45275</v>
       </c>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C6" s="3">
         <v>3000</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="7">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6">
         <v>45293</v>
       </c>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C7" s="3">
         <v>4000</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="7">
+        <v>24</v>
+      </c>
+      <c r="E7" s="6">
         <v>45275</v>
       </c>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1004</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="7">
-        <v>45239</v>
-      </c>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2004</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="7">
-        <v>45218</v>
-      </c>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1007</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="7">
-        <v>45239</v>
-      </c>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2004</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="7">
-        <v>45218</v>
-      </c>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="3">
-        <v>3001</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="7">
-        <v>45170</v>
-      </c>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="3">
-        <v>4001</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="7">
-        <v>45170</v>
-      </c>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1120</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="7">
-        <v>45492</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="H14" s="22">
-        <v>249924.83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2032</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="7">
-        <v>45443</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="H15">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1094</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="7">
-        <v>45296</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="H16" s="22">
-        <v>1167.87303738318</v>
-      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="11"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="11"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="11"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="11"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="11"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="11"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="7">
-        <v>45366</v>
-      </c>
-      <c r="F17" s="12"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1097</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="7">
-        <v>45036</v>
-      </c>
-      <c r="F18" s="12"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2024</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="7">
-        <v>45292</v>
-      </c>
-      <c r="F19" s="12"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2030</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="7">
-        <v>45292</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>142</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2030</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="7">
-        <v>45292</v>
-      </c>
-      <c r="F21" s="12"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1015</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="7">
-        <v>44895</v>
-      </c>
-      <c r="F22" s="12"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2014</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F23" s="12"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1028</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="7">
-        <v>45107</v>
-      </c>
-      <c r="F24" s="12"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="7">
-        <v>45107</v>
-      </c>
-      <c r="F25" s="12"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1008</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="7">
-        <v>44845</v>
-      </c>
-      <c r="F26" s="12"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="3">
-        <v>2008</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="7">
-        <v>45036</v>
-      </c>
-      <c r="F27" s="12"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1009</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="7">
-        <v>44845</v>
-      </c>
-      <c r="F28" s="12"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="3">
-        <v>2008</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="7">
-        <v>45036</v>
-      </c>
-      <c r="F29" s="12"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="3">
-        <v>3003</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="7">
-        <v>44845</v>
-      </c>
-      <c r="F30" s="12"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="3">
-        <v>4004</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="7">
-        <v>45036</v>
-      </c>
-      <c r="F31" s="12"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1105</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="7">
-        <v>45138</v>
-      </c>
-      <c r="F32" s="12"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="3">
-        <v>2028</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="7">
-        <v>45015</v>
-      </c>
-      <c r="F33" s="12"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1019</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="7">
-        <v>45204</v>
-      </c>
-      <c r="F34" s="12"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="7">
-        <v>45236</v>
-      </c>
-      <c r="F35" s="12"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="3">
-        <v>1016</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="7">
-        <v>45198</v>
-      </c>
-      <c r="F36" s="12"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="3">
-        <v>2016</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="7">
-        <v>45383</v>
-      </c>
-      <c r="F37" s="12"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="3">
-        <v>1017</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="7">
-        <v>45198</v>
-      </c>
-      <c r="F38" s="12"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="11"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="3">
-        <v>2017</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="7">
-        <v>45323</v>
-      </c>
-      <c r="F39" s="12"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="11"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1103</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="7">
-        <v>45236</v>
-      </c>
-      <c r="F40" s="12"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="3">
-        <v>2025</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="7">
-        <v>45275</v>
-      </c>
-      <c r="F41" s="12"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1035</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="7">
-        <v>45078</v>
-      </c>
-      <c r="F42" s="12"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="11"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="3">
-        <v>2029</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="7">
-        <v>45231</v>
-      </c>
-      <c r="F43" s="12"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="3">
-        <v>1022</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="7">
-        <v>44985</v>
-      </c>
-      <c r="F44" s="12"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="3">
-        <v>4003</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="7">
-        <v>44987</v>
-      </c>
-      <c r="F45" s="12"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="3">
-        <v>1021</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="7">
-        <v>44985</v>
-      </c>
-      <c r="F46" s="12"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="11"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="3">
-        <v>4002</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="7">
-        <v>44987</v>
-      </c>
-      <c r="F47" s="12"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="11"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="3">
-        <v>1023</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="7">
-        <v>45121</v>
-      </c>
-      <c r="F48" s="12"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="11"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="3">
-        <v>2023</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" s="7">
-        <v>45036</v>
-      </c>
-      <c r="F49" s="12"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="11"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="3">
-        <v>1011</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" s="7">
-        <v>45009</v>
-      </c>
-      <c r="F50" s="12"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="11"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" s="3">
-        <v>2011</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" s="7">
-        <v>45069</v>
-      </c>
-      <c r="F51" s="12"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="11"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C52" s="3">
-        <v>1012</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E52" s="7">
-        <v>45009</v>
-      </c>
-      <c r="F52" s="12"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="11"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C53" s="3">
-        <v>2011</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E53" s="7">
-        <v>45069</v>
-      </c>
-      <c r="F53" s="12"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="11"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C54" s="3">
-        <v>1003</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E54" s="7">
-        <v>45196</v>
-      </c>
-      <c r="F54" s="12"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="11"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C55" s="3">
-        <v>2003</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E55" s="7">
-        <v>45344</v>
-      </c>
-      <c r="F55" s="12"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="11"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="3">
-        <v>2031</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E56" s="7">
-        <v>45196</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>142</v>
-      </c>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="14"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="3">
-        <v>2031</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" s="7">
-        <v>45344</v>
-      </c>
-      <c r="F57" s="12"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="11"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C58" s="3">
-        <v>1037</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E58" s="7">
-        <v>45082</v>
-      </c>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="6"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C59" s="18"/>
-      <c r="D59" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="1" t="s">
-        <v>162</v>
-      </c>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C60" s="18">
-        <v>50100</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="16" t="s">
-        <v>142</v>
-      </c>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="14"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C61" s="18">
-        <v>50100</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="1" t="s">
-        <v>162</v>
-      </c>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="7"/>
+      <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
-      <c r="E63" s="7"/>
+      <c r="E63" s="6"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="7"/>
+      <c r="E64" s="6"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
-      <c r="E65" s="7"/>
+      <c r="E65" s="6"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="7"/>
+      <c r="E66" s="6"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
-      <c r="E67" s="7"/>
+      <c r="E67" s="6"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="7"/>
+      <c r="E68" s="6"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
-      <c r="E69" s="7"/>
+      <c r="E69" s="6"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
-      <c r="E70" s="7"/>
+      <c r="E70" s="6"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
-      <c r="E71" s="7"/>
+      <c r="E71" s="6"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
-      <c r="E72" s="7"/>
+      <c r="E72" s="6"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
-      <c r="E73" s="7"/>
+      <c r="E73" s="6"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="7"/>
+      <c r="E74" s="6"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
-      <c r="E75" s="7"/>
+      <c r="E75" s="6"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
-      <c r="E76" s="7"/>
+      <c r="E76" s="6"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
-      <c r="E77" s="7"/>
+      <c r="E77" s="6"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="7"/>
+      <c r="E78" s="6"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="7"/>
+      <c r="E79" s="6"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
-      <c r="E80" s="7"/>
+      <c r="E80" s="6"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
-      <c r="E81" s="7"/>
+      <c r="E81" s="6"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
-      <c r="E82" s="7"/>
+      <c r="E82" s="6"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
-      <c r="E83" s="7"/>
+      <c r="E83" s="6"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="7"/>
+      <c r="E84" s="6"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
-      <c r="E85" s="7"/>
+      <c r="E85" s="6"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="7"/>
+      <c r="E86" s="6"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
-      <c r="E87" s="7"/>
+      <c r="E87" s="6"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
-      <c r="E88" s="7"/>
+      <c r="E88" s="6"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
-      <c r="E89" s="7"/>
+      <c r="E89" s="6"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="7"/>
+      <c r="E90" s="6"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
-      <c r="E91" s="7"/>
+      <c r="E91" s="6"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="7"/>
+      <c r="E92" s="6"/>
     </row>
     <row r="1048574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1048574" s="3"/>
@@ -3315,10 +2738,10 @@
   </sheetPr>
   <dimension ref="A1:G1048575"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C17:C18"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C17:C18"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3334,887 +2757,437 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="3">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="11">
+        <v>23</v>
+      </c>
+      <c r="E2" s="10">
         <v>45290</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1111</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="11">
-        <v>44743</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="3">
-        <v>40009</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="11">
-        <v>44956</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="3">
-        <v>21214</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="11">
-        <v>44562</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="3">
-        <v>40006</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="11">
-        <v>43069</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="3">
-        <v>21223</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="11">
-        <v>43069</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1034</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="11">
-        <v>45139</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1010</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="11">
-        <v>45373</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1040</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="11">
-        <v>45435</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1096</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="11">
-        <v>44942</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1095</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="11">
-        <v>44949</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="3">
-        <v>22365</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="11">
-        <v>45195</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1089</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="11">
-        <v>45202</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="3">
-        <v>30022</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="11">
-        <v>45392</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1091</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="11">
-        <v>45392</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="3">
-        <v>22368</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="11">
-        <v>45195</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1090</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="11">
-        <v>45443</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="3">
-        <v>22353</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="11">
-        <v>45195</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1095</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="11">
-        <v>45443</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="3">
-        <v>40010</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="11">
-        <v>43074</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="3">
-        <v>22801</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="11">
-        <v>45294</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="3">
-        <v>21223</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="11">
-        <v>43069</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="3">
-        <v>40006</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="11">
-        <v>43069</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="3">
-        <v>50007</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="11">
-        <v>45200</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="3">
-        <v>60002</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="11">
-        <v>45077</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="3">
-        <v>50042</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="11">
-        <v>45170</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1043</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="11">
-        <v>45436</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1013</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="11">
-        <v>45117</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="3">
-        <v>30002</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="11">
-        <v>45306</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1018</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="11">
-        <v>45202</v>
-      </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1020</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="11">
-        <v>45202</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="3">
-        <v>50034</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="11">
-        <v>45210</v>
-      </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="10">
-        <v>40005</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="11">
-        <v>42375</v>
-      </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="3">
-        <v>21220</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="11">
-        <v>42375</v>
-      </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="3">
-        <v>1036</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="11">
-        <v>44712</v>
-      </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="3">
-        <v>21217</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="11">
-        <v>43840</v>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="3">
-        <v>40001</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="11">
-        <v>43840</v>
-      </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="3">
-        <v>1006</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="11">
-        <v>45351</v>
-      </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="3">
-        <v>40011</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="11">
-        <v>42737</v>
-      </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C41" s="3">
-        <v>21226</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="11">
-        <v>42737</v>
-      </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1110</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="11">
-        <v>42954</v>
-      </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C43" s="3">
-        <v>40013</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="11">
-        <v>42954</v>
-      </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C44" s="3">
-        <v>21208</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="11">
-        <v>43007</v>
-      </c>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="10"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1116</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="11">
-        <v>45471</v>
-      </c>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="10"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="3">
-        <v>1087</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="11">
-        <v>45443</v>
-      </c>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="10"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C47" s="3">
-        <v>1117</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="21" t="s">
-        <v>161</v>
-      </c>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="16"/>
     </row>
     <row r="1048575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1048575" s="3"/>
@@ -4227,330 +3200,13 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A0DD4C-F195-4C71-8353-E46AFFEBC95A}">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E15" xr:uid="{EF530940-32DB-4B16-A614-0C6756861B75}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E17">
-      <sortCondition ref="E1:E15"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CF0191-5EAE-4B06-B5C1-13D30342DEF8}">
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4563,1099 +3219,1101 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>141</v>
+        <v>43</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3">
         <v>1000</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="7">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6">
         <v>45222</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3">
         <v>2000</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="7">
+        <v>24</v>
+      </c>
+      <c r="E3" s="6">
         <v>45275</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="3">
         <v>1001</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="7">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6">
         <v>45222</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" s="3">
         <v>2000</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="7">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6">
         <v>45275</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C6" s="3">
         <v>3000</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="7">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6">
         <v>45293</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C7" s="3">
         <v>4000</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="7">
+        <v>24</v>
+      </c>
+      <c r="E7" s="6">
         <v>45275</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3">
         <v>1004</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="7">
+        <v>23</v>
+      </c>
+      <c r="E8" s="6">
         <v>45239</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3">
         <v>2004</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="7">
+        <v>24</v>
+      </c>
+      <c r="E9" s="6">
         <v>45218</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10" s="3">
         <v>1007</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="7">
+        <v>23</v>
+      </c>
+      <c r="E10" s="6">
         <v>45239</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C11" s="3">
         <v>2004</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="7">
+        <v>24</v>
+      </c>
+      <c r="E11" s="6">
         <v>45218</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C12" s="3">
         <v>3001</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="7">
+        <v>23</v>
+      </c>
+      <c r="E12" s="6">
         <v>45170</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C13" s="3">
         <v>4001</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="7">
+        <v>24</v>
+      </c>
+      <c r="E13" s="6">
         <v>45170</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C14" s="3">
         <v>1120</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
+        <v>23</v>
+      </c>
+      <c r="E14" s="6">
+        <v>45492</v>
+      </c>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C15" s="3">
         <v>2032</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="7">
+        <v>24</v>
+      </c>
+      <c r="E15" s="6">
         <v>45443</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C16" s="3">
         <v>1094</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="7">
+        <v>23</v>
+      </c>
+      <c r="E16" s="6">
         <v>45296</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C17" s="3">
         <v>2022</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="7">
+        <v>24</v>
+      </c>
+      <c r="E17" s="6">
         <v>45366</v>
       </c>
-      <c r="F17" s="12"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="3">
         <v>1097</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="7">
+        <v>23</v>
+      </c>
+      <c r="E18" s="6">
         <v>45036</v>
       </c>
-      <c r="F18" s="12"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" s="3">
         <v>2024</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="7">
+        <v>24</v>
+      </c>
+      <c r="E19" s="6">
         <v>45292</v>
       </c>
-      <c r="F19" s="12"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C20" s="3">
         <v>2030</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="7">
+        <v>23</v>
+      </c>
+      <c r="E20" s="6">
         <v>45292</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>142</v>
+      <c r="F20" s="14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C21" s="3">
         <v>2030</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="7">
+        <v>24</v>
+      </c>
+      <c r="E21" s="6">
         <v>45292</v>
       </c>
-      <c r="F21" s="12"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" s="3">
         <v>1015</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="7">
+        <v>23</v>
+      </c>
+      <c r="E22" s="6">
         <v>44895</v>
       </c>
-      <c r="F22" s="12"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" s="3">
         <v>2014</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F23" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="3">
         <v>1028</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="7">
+        <v>23</v>
+      </c>
+      <c r="E24" s="6">
         <v>45107</v>
       </c>
-      <c r="F24" s="12"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="3">
         <v>2018</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="7">
+        <v>24</v>
+      </c>
+      <c r="E25" s="6">
         <v>45107</v>
       </c>
-      <c r="F25" s="12"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C26" s="3">
         <v>1008</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="7">
+        <v>23</v>
+      </c>
+      <c r="E26" s="6">
         <v>44845</v>
       </c>
-      <c r="F26" s="12"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27" s="3">
         <v>2008</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="7">
+        <v>24</v>
+      </c>
+      <c r="E27" s="6">
         <v>45036</v>
       </c>
-      <c r="F27" s="12"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C28" s="3">
         <v>1009</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="7">
+        <v>23</v>
+      </c>
+      <c r="E28" s="6">
         <v>44845</v>
       </c>
-      <c r="F28" s="12"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C29" s="3">
         <v>2008</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="7">
+        <v>24</v>
+      </c>
+      <c r="E29" s="6">
         <v>45036</v>
       </c>
-      <c r="F29" s="12"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C30" s="3">
         <v>3003</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="7">
+        <v>23</v>
+      </c>
+      <c r="E30" s="6">
         <v>44845</v>
       </c>
-      <c r="F30" s="12"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C31" s="3">
         <v>4004</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="7">
+        <v>24</v>
+      </c>
+      <c r="E31" s="6">
         <v>45036</v>
       </c>
-      <c r="F31" s="12"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32" s="3">
         <v>1105</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="7">
+        <v>23</v>
+      </c>
+      <c r="E32" s="6">
         <v>45138</v>
       </c>
-      <c r="F32" s="12"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C33" s="3">
         <v>2028</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="7">
+        <v>24</v>
+      </c>
+      <c r="E33" s="6">
         <v>45015</v>
       </c>
-      <c r="F33" s="12"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C34" s="3">
         <v>1019</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="7">
+        <v>23</v>
+      </c>
+      <c r="E34" s="6">
         <v>45204</v>
       </c>
-      <c r="F34" s="12"/>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C35" s="3">
         <v>2019</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="7">
+        <v>24</v>
+      </c>
+      <c r="E35" s="6">
         <v>45236</v>
       </c>
-      <c r="F35" s="12"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" s="3">
         <v>1016</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="7">
+        <v>23</v>
+      </c>
+      <c r="E36" s="6">
         <v>45198</v>
       </c>
-      <c r="F36" s="12"/>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" s="3">
         <v>2016</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="7">
+        <v>24</v>
+      </c>
+      <c r="E37" s="6">
         <v>45383</v>
       </c>
-      <c r="F37" s="12"/>
+      <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" s="3">
         <v>1017</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="7">
+        <v>23</v>
+      </c>
+      <c r="E38" s="6">
         <v>45198</v>
       </c>
-      <c r="F38" s="12"/>
+      <c r="F38" s="11"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" s="3">
         <v>2017</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="7">
+        <v>24</v>
+      </c>
+      <c r="E39" s="6">
         <v>45323</v>
       </c>
-      <c r="F39" s="12"/>
+      <c r="F39" s="11"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C40" s="3">
         <v>1103</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="7">
+        <v>23</v>
+      </c>
+      <c r="E40" s="6">
         <v>45236</v>
       </c>
-      <c r="F40" s="12"/>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C41" s="3">
         <v>2025</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="7">
+        <v>24</v>
+      </c>
+      <c r="E41" s="6">
         <v>45275</v>
       </c>
-      <c r="F41" s="12"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C42" s="3">
         <v>1035</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="7">
+        <v>23</v>
+      </c>
+      <c r="E42" s="6">
         <v>45078</v>
       </c>
-      <c r="F42" s="12"/>
+      <c r="F42" s="11"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C43" s="3">
         <v>2029</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="7">
+        <v>24</v>
+      </c>
+      <c r="E43" s="6">
         <v>45231</v>
       </c>
-      <c r="F43" s="12"/>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C44" s="3">
         <v>1022</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="7">
+        <v>23</v>
+      </c>
+      <c r="E44" s="6">
         <v>44985</v>
       </c>
-      <c r="F44" s="12"/>
+      <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C45" s="3">
         <v>4003</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="7">
+        <v>24</v>
+      </c>
+      <c r="E45" s="6">
         <v>44987</v>
       </c>
-      <c r="F45" s="12"/>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C46" s="3">
         <v>1021</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="7">
+        <v>23</v>
+      </c>
+      <c r="E46" s="6">
         <v>44985</v>
       </c>
-      <c r="F46" s="12"/>
+      <c r="F46" s="11"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C47" s="3">
         <v>4002</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="7">
+        <v>24</v>
+      </c>
+      <c r="E47" s="6">
         <v>44987</v>
       </c>
-      <c r="F47" s="12"/>
+      <c r="F47" s="11"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C48" s="3">
         <v>1023</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="7">
+        <v>23</v>
+      </c>
+      <c r="E48" s="6">
         <v>45121</v>
       </c>
-      <c r="F48" s="12"/>
+      <c r="F48" s="11"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C49" s="3">
         <v>2023</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" s="7">
+        <v>24</v>
+      </c>
+      <c r="E49" s="6">
         <v>45036</v>
       </c>
-      <c r="F49" s="12"/>
+      <c r="F49" s="11"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="3">
         <v>1011</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" s="7">
+        <v>23</v>
+      </c>
+      <c r="E50" s="6">
         <v>45009</v>
       </c>
-      <c r="F50" s="12"/>
+      <c r="F50" s="11"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="3">
         <v>2011</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" s="7">
+        <v>24</v>
+      </c>
+      <c r="E51" s="6">
         <v>45069</v>
       </c>
-      <c r="F51" s="12"/>
+      <c r="F51" s="11"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C52" s="3">
         <v>1012</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E52" s="7">
+        <v>23</v>
+      </c>
+      <c r="E52" s="6">
         <v>45009</v>
       </c>
-      <c r="F52" s="12"/>
+      <c r="F52" s="11"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C53" s="3">
         <v>2011</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E53" s="7">
+        <v>24</v>
+      </c>
+      <c r="E53" s="6">
         <v>45069</v>
       </c>
-      <c r="F53" s="12"/>
+      <c r="F53" s="11"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C54" s="3">
         <v>1003</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E54" s="7">
+        <v>23</v>
+      </c>
+      <c r="E54" s="6">
         <v>45196</v>
       </c>
-      <c r="F54" s="12"/>
+      <c r="F54" s="11"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C55" s="3">
         <v>2003</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E55" s="7">
+        <v>24</v>
+      </c>
+      <c r="E55" s="6">
         <v>45344</v>
       </c>
-      <c r="F55" s="12"/>
+      <c r="F55" s="11"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C56" s="3">
         <v>2031</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E56" s="7">
+        <v>23</v>
+      </c>
+      <c r="E56" s="6">
         <v>45196</v>
       </c>
-      <c r="F56" s="16" t="s">
-        <v>142</v>
+      <c r="F56" s="14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" s="3">
         <v>2031</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" s="7">
+        <v>24</v>
+      </c>
+      <c r="E57" s="6">
         <v>45344</v>
       </c>
-      <c r="F57" s="12"/>
+      <c r="F57" s="11"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1037</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="6">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" t="s">
         <v>144</v>
       </c>
-      <c r="B58" t="s">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C58">
-        <v>1037</v>
-      </c>
-      <c r="D58" s="3" t="s">
+      <c r="C60" s="15">
+        <v>50100</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="15">
+        <v>50100</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="14"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>144</v>
-      </c>
-      <c r="B59" t="s">
-        <v>145</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E59" s="14"/>
-      <c r="F59" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C60" s="17">
-        <v>50100</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E60" s="14"/>
-      <c r="F60" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C61" s="17">
-        <v>50100</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E61" s="14"/>
+      <c r="E61" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D45" xr:uid="{FDD9564B-AAE5-4B8B-854B-0D27C6086BCC}"/>
@@ -5664,813 +4322,823 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B548D8A-88F4-48BF-8DA9-473567F1EB6D}">
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft" sqref="A1:E47"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="3">
         <v>1001</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="11">
+        <v>23</v>
+      </c>
+      <c r="E2" s="10">
         <v>45290</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C3" s="3">
         <v>1111</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="11">
+        <v>23</v>
+      </c>
+      <c r="E3" s="10">
         <v>44743</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3">
         <v>40009</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="11">
+        <v>23</v>
+      </c>
+      <c r="E4" s="10">
         <v>44956</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C5" s="3">
         <v>21214</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="11">
+        <v>23</v>
+      </c>
+      <c r="E5" s="10">
         <v>44562</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" s="3">
         <v>40006</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="11">
+        <v>23</v>
+      </c>
+      <c r="E6" s="10">
         <v>43069</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="3">
         <v>21223</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="11">
+        <v>23</v>
+      </c>
+      <c r="E7" s="10">
         <v>43069</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3">
         <v>1034</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="11">
+        <v>23</v>
+      </c>
+      <c r="E8" s="10">
         <v>45139</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" s="3">
         <v>1010</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="11">
+        <v>23</v>
+      </c>
+      <c r="E9" s="10">
         <v>45373</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C10" s="3">
         <v>1040</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="11">
+        <v>23</v>
+      </c>
+      <c r="E10" s="10">
         <v>45435</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C11" s="3">
         <v>1096</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="11">
+        <v>23</v>
+      </c>
+      <c r="E11" s="10">
         <v>44942</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="3">
         <v>1095</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="11">
+        <v>23</v>
+      </c>
+      <c r="E12" s="10">
         <v>44949</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3">
         <v>22365</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="11">
+        <v>23</v>
+      </c>
+      <c r="E13" s="10">
         <v>45195</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="3">
         <v>1089</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="11">
+        <v>23</v>
+      </c>
+      <c r="E14" s="10">
         <v>45202</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C15" s="3">
         <v>30022</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="11">
+        <v>23</v>
+      </c>
+      <c r="E15" s="10">
         <v>45392</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16" s="3">
         <v>1091</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="11">
+        <v>23</v>
+      </c>
+      <c r="E16" s="10">
         <v>45392</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C17" s="3">
         <v>22368</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="11">
+        <v>23</v>
+      </c>
+      <c r="E17" s="10">
         <v>45195</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18" s="3">
         <v>1090</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="11">
+        <v>23</v>
+      </c>
+      <c r="E18" s="10">
         <v>45443</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C19" s="3">
         <v>22353</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="11">
+        <v>23</v>
+      </c>
+      <c r="E19" s="10">
         <v>45195</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C20" s="3">
         <v>1095</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="11">
+        <v>23</v>
+      </c>
+      <c r="E20" s="10">
         <v>45443</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C21" s="3">
         <v>40010</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="11">
+        <v>23</v>
+      </c>
+      <c r="E21" s="10">
         <v>43074</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C22" s="3">
         <v>22801</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="11">
+        <v>23</v>
+      </c>
+      <c r="E22" s="10">
         <v>45294</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C23" s="3">
         <v>21223</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="11">
+        <v>23</v>
+      </c>
+      <c r="E23" s="10">
         <v>43069</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C24" s="3">
         <v>40006</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="11">
+        <v>23</v>
+      </c>
+      <c r="E24" s="10">
         <v>43069</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25" s="3">
         <v>50007</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="11">
+        <v>23</v>
+      </c>
+      <c r="E25" s="10">
         <v>45200</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C26" s="3">
         <v>60002</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="11">
+        <v>23</v>
+      </c>
+      <c r="E26" s="10">
         <v>45077</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C27" s="3">
         <v>50042</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="11">
+        <v>23</v>
+      </c>
+      <c r="E27" s="10">
         <v>45170</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="18">
+      <c r="A28" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="3">
         <v>1043</v>
       </c>
-      <c r="D28" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="11">
-        <v>45444</v>
+      <c r="D28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="10">
+        <v>45436</v>
       </c>
       <c r="F28" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" s="3">
         <v>1013</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="11">
+        <v>23</v>
+      </c>
+      <c r="E29" s="10">
         <v>45117</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C30" s="3">
         <v>30002</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="11">
+        <v>23</v>
+      </c>
+      <c r="E30" s="10">
         <v>45306</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C31" s="3">
         <v>1018</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="11">
+        <v>23</v>
+      </c>
+      <c r="E31" s="10">
         <v>45202</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C32" s="3">
         <v>1020</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="11">
+        <v>23</v>
+      </c>
+      <c r="E32" s="10">
         <v>45202</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C33" s="3">
         <v>50034</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="11">
+        <v>23</v>
+      </c>
+      <c r="E33" s="10">
         <v>45210</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="10">
+        <v>52</v>
+      </c>
+      <c r="C34" s="9">
         <v>40005</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="11">
+        <v>23</v>
+      </c>
+      <c r="E34" s="10">
         <v>42375</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C35" s="3">
         <v>21220</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="11">
+        <v>23</v>
+      </c>
+      <c r="E35" s="10">
         <v>42375</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="3">
         <v>1036</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="11">
+        <v>23</v>
+      </c>
+      <c r="E36" s="10">
         <v>44712</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C37" s="3">
         <v>21217</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="11">
+        <v>23</v>
+      </c>
+      <c r="E37" s="10">
         <v>43840</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C38" s="3">
         <v>40001</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="11">
+        <v>23</v>
+      </c>
+      <c r="E38" s="10">
         <v>43840</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C39" s="3">
         <v>1006</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="11">
+        <v>23</v>
+      </c>
+      <c r="E39" s="10">
         <v>45351</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C40" s="3">
         <v>40011</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="11">
+        <v>23</v>
+      </c>
+      <c r="E40" s="10">
         <v>42737</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C41" s="3">
         <v>21226</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="11">
+        <v>23</v>
+      </c>
+      <c r="E41" s="10">
         <v>42737</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C42" s="3">
         <v>1110</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="E42" s="10">
+        <v>42954</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C43" s="3">
         <v>40013</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="E43" s="10">
+        <v>42954</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="C44" s="3">
         <v>21208</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="E44" s="10">
+        <v>43007</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1116</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="10">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1087</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="10">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C45">
-        <v>1116</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="17"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>114</v>
-      </c>
-      <c r="B46" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="20">
-        <v>1087</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="17"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>159</v>
-      </c>
-      <c r="B47" t="s">
-        <v>160</v>
-      </c>
-      <c r="C47">
+      <c r="C47" s="3">
         <v>1117</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="17"/>
+        <v>23</v>
+      </c>
+      <c r="E47" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C22" xr:uid="{A787322A-5B17-4E1F-B960-30BFFEBBD83A}"/>
@@ -6479,6 +5147,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9968dc3e-a1f3-41f5-b998-9e98f3d19f76" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="685e8f7b-ce85-439b-962f-3948db74e463">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="9968dc3e-a1f3-41f5-b998-9e98f3d19f76">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="685e8f7b-ce85-439b-962f-3948db74e463" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6487,7 +5174,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010029DFE9A47EDBBA4C9642CECEC7AB5212" ma:contentTypeVersion="15" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="7328ff878a8f4dae18a74358abfdf779">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685e8f7b-ce85-439b-962f-3948db74e463" xmlns:ns3="9968dc3e-a1f3-41f5-b998-9e98f3d19f76" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d504a395b7aacda9b17f0d85dc998159" ns2:_="" ns3:_="">
     <xsd:import namespace="685e8f7b-ce85-439b-962f-3948db74e463"/>
@@ -6722,26 +5409,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9968dc3e-a1f3-41f5-b998-9e98f3d19f76" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="685e8f7b-ce85-439b-962f-3948db74e463">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="9968dc3e-a1f3-41f5-b998-9e98f3d19f76">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="685e8f7b-ce85-439b-962f-3948db74e463" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{358F526D-C9BF-4800-8675-13EA5EBEF839}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9968dc3e-a1f3-41f5-b998-9e98f3d19f76"/>
+    <ds:schemaRef ds:uri="685e8f7b-ce85-439b-962f-3948db74e463"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11E769B2-782A-4CC9-89C8-BE475949AFF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -6749,7 +5434,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13BA50B4-2830-4093-B3A1-0E01A2125F8E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6766,21 +5451,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{358F526D-C9BF-4800-8675-13EA5EBEF839}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9968dc3e-a1f3-41f5-b998-9e98f3d19f76"/>
-    <ds:schemaRef ds:uri="685e8f7b-ce85-439b-962f-3948db74e463"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Suporte_Relatorio.xlsx
+++ b/Suporte_Relatorio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ekhofo-my.sharepoint.com/personal/rafael_astolfi_ekhofo_com/Documents/Desktop/relatorio_mensal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1281" documentId="8_{99956F94-DCAB-454E-864B-055737CC37DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F01DAFAE-3768-4E68-872A-FC24D8376639}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{AEEFCA22-BCB8-4731-AA45-9C8037D6F41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F61EC9BD-767C-4149-AFFD-2160B8904415}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{D83840C6-8BB1-4146-989F-64A28F905889}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{D83840C6-8BB1-4146-989F-64A28F905889}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">classes!$A$1:$E$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">clients_on_off!$A$1:$E$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">clients_on_off!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'clients_on_off (2)'!$A$1:$D$45</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">clients_onshore!$A$1:$E$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">clients_onshore!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'clients_onshore (2)'!$A$1:$C$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="200">
   <si>
     <t>Alternativos</t>
   </si>
@@ -704,7 +704,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -740,20 +740,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -770,8 +761,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1924,12 +1913,12 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:I1048574"/>
+  <dimension ref="A1:F1048508"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C17:C18"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1941,7 +1930,7 @@
     <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>109</v>
       </c>
@@ -1957,775 +1946,912 @@
       <c r="E1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F1" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="6">
-        <v>45222</v>
+        <v>45239</v>
       </c>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="6">
+        <v>45218</v>
+      </c>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1007</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6">
+        <v>45239</v>
+      </c>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2004</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6">
+        <v>45218</v>
+      </c>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3001</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6">
+        <v>45170</v>
+      </c>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4001</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="6">
+        <v>45170</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1120</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="6">
+        <v>45492</v>
+      </c>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2032</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="6">
+        <v>45443</v>
+      </c>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1094</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="6">
+        <v>45296</v>
+      </c>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="6">
+        <v>45366</v>
+      </c>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1097</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="6">
+        <v>45036</v>
+      </c>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="6">
+        <v>45292</v>
+      </c>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2030</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="6">
+        <v>45292</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2030</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="6">
+        <v>45292</v>
+      </c>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1015</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="6">
+        <v>44895</v>
+      </c>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1028</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="6">
+        <v>45107</v>
+      </c>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="6">
+        <v>45107</v>
+      </c>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1105</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="6">
+        <v>45138</v>
+      </c>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2028</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="6">
+        <v>45015</v>
+      </c>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1019</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="6">
+        <v>45204</v>
+      </c>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="6">
+        <v>45236</v>
+      </c>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1016</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="6">
+        <v>45198</v>
+      </c>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2016</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="6">
+        <v>45383</v>
+      </c>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1017</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="6">
+        <v>45198</v>
+      </c>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="6">
+        <v>45323</v>
+      </c>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1103</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="6">
+        <v>45236</v>
+      </c>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2025</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="6">
         <v>45275</v>
       </c>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1001</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="6">
-        <v>45222</v>
-      </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="6">
-        <v>45275</v>
-      </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3000</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="6">
-        <v>45293</v>
-      </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4000</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="6">
-        <v>45275</v>
-      </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="11"/>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="11"/>
-      <c r="I10" s="17"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="11"/>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="11"/>
-      <c r="I12" s="17"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="11"/>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="11"/>
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="6"/>
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="6"/>
+      <c r="A30" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1035</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="6">
+        <v>45078</v>
+      </c>
       <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="6"/>
+      <c r="A31" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2029</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="6">
+        <v>45231</v>
+      </c>
       <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="6"/>
+      <c r="A32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1022</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="6">
+        <v>44985</v>
+      </c>
       <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="6"/>
+      <c r="A33" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4003</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="6">
+        <v>44987</v>
+      </c>
       <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="6"/>
+      <c r="A34" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1021</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="6">
+        <v>44985</v>
+      </c>
       <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="6"/>
+      <c r="A35" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="3">
+        <v>4002</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="6">
+        <v>44987</v>
+      </c>
       <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="6"/>
+      <c r="A36" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1023</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="6">
+        <v>45121</v>
+      </c>
       <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="6"/>
+      <c r="A37" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="6">
+        <v>45036</v>
+      </c>
       <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="6"/>
+      <c r="A38" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1011</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="6">
+        <v>45009</v>
+      </c>
       <c r="F38" s="11"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="6"/>
+      <c r="A39" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="6">
+        <v>45069</v>
+      </c>
       <c r="F39" s="11"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="6"/>
+      <c r="A40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1012</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="6">
+        <v>45009</v>
+      </c>
       <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="6"/>
+      <c r="A41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="6">
+        <v>45069</v>
+      </c>
       <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="6"/>
+      <c r="A42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1003</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="6">
+        <v>45196</v>
+      </c>
       <c r="F42" s="11"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="6"/>
+      <c r="A43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2003</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="6">
+        <v>45344</v>
+      </c>
       <c r="F43" s="11"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="11"/>
+      <c r="A44" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2031</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="6">
+        <v>45196</v>
+      </c>
+      <c r="F44" s="14"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="6"/>
+      <c r="A45" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="3">
+        <v>2031</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="6">
+        <v>45344</v>
+      </c>
       <c r="F45" s="11"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="11"/>
+      <c r="A46" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1037</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="6">
+        <v>45082</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="11"/>
+      <c r="A47" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="3">
+        <v>2036</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="6">
+        <v>45471</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="11"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="11"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="11"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="11"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="11"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="11"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="11"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="11"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="14"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="11"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="6"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="14"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="6"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="6"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="6"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="6"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="6"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="6"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="6"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="6"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="6"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="6"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="6"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="6"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="6"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="6"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="6"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="6"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="6"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="6"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="6"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="6"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="6"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="6"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="6"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="6"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="6"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="6"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="6"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="6"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="6"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="6"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="6"/>
-    </row>
-    <row r="1048574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1048574" s="3"/>
+      <c r="A48" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="3">
+        <v>50100</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="6">
+        <v>45082</v>
+      </c>
+      <c r="F48" s="14"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="3">
+        <v>50100</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="6">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1040</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="6">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="3">
+        <v>2035</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="1048508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048508" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E57" xr:uid="{492A2C00-84DF-4782-A4AE-C9B5D9D242D2}"/>
+  <autoFilter ref="A1:E1" xr:uid="{492A2C00-84DF-4782-A4AE-C9B5D9D242D2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2736,12 +2862,12 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:G1048575"/>
+  <dimension ref="A1:E1048526"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C17:C18"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,7 +2881,7 @@
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -2772,428 +2898,742 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="C2" s="3">
-        <v>1002</v>
+        <v>1111</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="10">
-        <v>45290</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="10"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="10"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="16"/>
-    </row>
-    <row r="1048575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1048575" s="3"/>
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="3">
+        <v>40009</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="10">
+        <v>44956</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="3">
+        <v>21214</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="10">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="3">
+        <v>40006</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="10">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="3">
+        <v>21223</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="10">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1034</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="10">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1096</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="10">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1095</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="10">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="3">
+        <v>22365</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="10">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1089</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="10">
+        <v>45202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="3">
+        <v>30022</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="10">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1091</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="10">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="3">
+        <v>22368</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="10">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1090</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="10">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="3">
+        <v>22353</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="10">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1095</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="10">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="3">
+        <v>40010</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="10">
+        <v>43074</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="3">
+        <v>22801</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="10">
+        <v>45294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="3">
+        <v>21223</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="10">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="3">
+        <v>40006</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="10">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="3">
+        <v>50007</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="10">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="3">
+        <v>60002</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="10">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="3">
+        <v>50042</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="10">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1043</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="10">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1013</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="10">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="3">
+        <v>30002</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="10">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1018</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="10">
+        <v>45202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1020</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="10">
+        <v>45202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="3">
+        <v>50034</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="10">
+        <v>45210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="9">
+        <v>40005</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="10">
+        <v>42375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="3">
+        <v>21220</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="10">
+        <v>42375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1036</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="10">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="3">
+        <v>21217</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="10">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="3">
+        <v>40001</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="10">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1006</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="10">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="3">
+        <v>40011</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="10">
+        <v>42737</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="3">
+        <v>21226</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="10">
+        <v>42737</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="10">
+        <v>42954</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="3">
+        <v>40013</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="10">
+        <v>42954</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="3">
+        <v>21208</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="10">
+        <v>43007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1116</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="10">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1087</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="10">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1117</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="10">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="1048526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048526" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E40" xr:uid="{6EEBEAB0-4E16-4581-8A08-39CF6708FA50}"/>
+  <autoFilter ref="A1:E1" xr:uid="{6EEBEAB0-4E16-4581-8A08-39CF6708FA50}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3204,9 +3644,9 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A61"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4327,9 +4767,9 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A47"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5147,25 +5587,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9968dc3e-a1f3-41f5-b998-9e98f3d19f76" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="685e8f7b-ce85-439b-962f-3948db74e463">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="9968dc3e-a1f3-41f5-b998-9e98f3d19f76">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="685e8f7b-ce85-439b-962f-3948db74e463" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5174,7 +5595,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010029DFE9A47EDBBA4C9642CECEC7AB5212" ma:contentTypeVersion="15" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="7328ff878a8f4dae18a74358abfdf779">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685e8f7b-ce85-439b-962f-3948db74e463" xmlns:ns3="9968dc3e-a1f3-41f5-b998-9e98f3d19f76" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d504a395b7aacda9b17f0d85dc998159" ns2:_="" ns3:_="">
     <xsd:import namespace="685e8f7b-ce85-439b-962f-3948db74e463"/>
@@ -5409,24 +5830,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{358F526D-C9BF-4800-8675-13EA5EBEF839}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9968dc3e-a1f3-41f5-b998-9e98f3d19f76"/>
-    <ds:schemaRef ds:uri="685e8f7b-ce85-439b-962f-3948db74e463"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9968dc3e-a1f3-41f5-b998-9e98f3d19f76" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="685e8f7b-ce85-439b-962f-3948db74e463">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="9968dc3e-a1f3-41f5-b998-9e98f3d19f76">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="685e8f7b-ce85-439b-962f-3948db74e463" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11E769B2-782A-4CC9-89C8-BE475949AFF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -5434,7 +5857,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13BA50B4-2830-4093-B3A1-0E01A2125F8E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5451,4 +5874,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{358F526D-C9BF-4800-8675-13EA5EBEF839}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9968dc3e-a1f3-41f5-b998-9e98f3d19f76"/>
+    <ds:schemaRef ds:uri="685e8f7b-ce85-439b-962f-3948db74e463"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Suporte_Relatorio.xlsx
+++ b/Suporte_Relatorio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ekhofo-my.sharepoint.com/personal/rafael_astolfi_ekhofo_com/Documents/Desktop/relatorio_mensal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="366" documentId="8_{96E81CA7-990A-4452-BFD6-B12F48A36CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21078098-A8E9-43A6-8D97-BE998906A0BF}"/>
+  <xr:revisionPtr revIDLastSave="375" documentId="8_{96E81CA7-990A-4452-BFD6-B12F48A36CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B63BC5C-7595-46D1-A722-0A8546F2553F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="7" xr2:uid="{D83840C6-8BB1-4146-989F-64A28F905889}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{D83840C6-8BB1-4146-989F-64A28F905889}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="224">
   <si>
     <t>Alternativos</t>
   </si>
@@ -2004,9 +2004,9 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C17:C18"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E75"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3298,18 +3298,38 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="6"/>
+      <c r="A76" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="6">
+        <v>45373</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="6"/>
+      <c r="A77" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" s="3">
+        <v>2037</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="6">
+        <v>45509</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{492A2C00-84DF-4782-A4AE-C9B5D9D242D2}"/>
@@ -3323,12 +3343,12 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C17:C18"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E59"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3480,36 +3500,36 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C9" s="3">
-        <v>1010</v>
+        <v>1040</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="6">
-        <v>45373</v>
+        <v>45435</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="C10" s="3">
-        <v>1040</v>
+        <v>1096</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="6">
-        <v>45435</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3517,33 +3537,33 @@
         <v>125</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C11" s="3">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="6">
-        <v>44942</v>
+        <v>44949</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C12" s="3">
-        <v>1095</v>
+        <v>22365</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="6">
-        <v>44949</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3551,16 +3571,16 @@
         <v>115</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C13" s="3">
-        <v>22365</v>
+        <v>1089</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="6">
-        <v>45195</v>
+        <v>45202</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3568,16 +3588,16 @@
         <v>115</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C14" s="3">
-        <v>1089</v>
+        <v>30022</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="6">
-        <v>45202</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3585,10 +3605,10 @@
         <v>115</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C15" s="3">
-        <v>30022</v>
+        <v>1091</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>23</v>
@@ -3602,16 +3622,16 @@
         <v>115</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C16" s="3">
-        <v>1091</v>
+        <v>22368</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="6">
-        <v>45392</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3619,16 +3639,16 @@
         <v>115</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C17" s="3">
-        <v>22368</v>
+        <v>1090</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="6">
-        <v>45195</v>
+        <v>45443</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3636,16 +3656,16 @@
         <v>115</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>1090</v>
+        <v>22353</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="6">
-        <v>45443</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3653,16 +3673,16 @@
         <v>115</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C19" s="3">
-        <v>22353</v>
+        <v>40010</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="6">
-        <v>45195</v>
+        <v>43074</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3670,33 +3690,33 @@
         <v>115</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C20" s="3">
-        <v>40010</v>
+        <v>22801</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="6">
-        <v>43074</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C21" s="3">
-        <v>22801</v>
+        <v>21223</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="6">
-        <v>45294</v>
+        <v>43069</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3704,10 +3724,10 @@
         <v>135</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C22" s="3">
-        <v>21223</v>
+        <v>40006</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>23</v>
@@ -3718,36 +3738,36 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="C23" s="3">
-        <v>40006</v>
+        <v>50007</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="6">
-        <v>43069</v>
+        <v>45200</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="C24" s="3">
-        <v>50007</v>
+        <v>1031</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="6">
-        <v>45200</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3755,10 +3775,10 @@
         <v>129</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>99</v>
+        <v>210</v>
       </c>
       <c r="C25" s="3">
-        <v>1031</v>
+        <v>3006</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>23</v>
@@ -3769,87 +3789,87 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="C26" s="3">
-        <v>3006</v>
+        <v>50042</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="6">
-        <v>45077</v>
+        <v>45170</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="C27" s="3">
-        <v>50042</v>
+        <v>1043</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="6">
-        <v>45170</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="C28" s="3">
-        <v>1043</v>
+        <v>1013</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="6">
-        <v>45436</v>
+        <v>45117</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C29" s="3">
-        <v>1013</v>
+        <v>30002</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="6">
-        <v>45117</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C30" s="3">
-        <v>30002</v>
+        <v>1018</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="6">
-        <v>45306</v>
+        <v>45202</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3857,10 +3877,10 @@
         <v>126</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C31" s="3">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>23</v>
@@ -3871,36 +3891,36 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C32" s="3">
-        <v>1020</v>
+        <v>50034</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E32" s="6">
-        <v>45202</v>
+        <v>45210</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C33" s="3">
-        <v>50034</v>
+        <v>40005</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E33" s="6">
-        <v>45210</v>
+        <v>42375</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3908,10 +3928,10 @@
         <v>52</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="C34" s="3">
-        <v>40005</v>
+        <v>21220</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>23</v>
@@ -3922,36 +3942,36 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="C35" s="3">
-        <v>21220</v>
+        <v>1036</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="6">
-        <v>42375</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C36" s="3">
-        <v>1036</v>
+        <v>21217</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="6">
-        <v>44712</v>
+        <v>43840</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3959,10 +3979,10 @@
         <v>134</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="C37" s="3">
-        <v>21217</v>
+        <v>40001</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>23</v>
@@ -3973,36 +3993,36 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="C38" s="3">
-        <v>40001</v>
+        <v>1006</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="6">
-        <v>43840</v>
+        <v>45351</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C39" s="3">
-        <v>1006</v>
+        <v>40011</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E39" s="6">
-        <v>45351</v>
+        <v>42737</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -4010,10 +4030,10 @@
         <v>118</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="C40" s="3">
-        <v>40011</v>
+        <v>21226</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>23</v>
@@ -4024,19 +4044,19 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C41" s="3">
-        <v>21226</v>
+        <v>1110</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E41" s="6">
-        <v>42737</v>
+        <v>42954</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4044,10 +4064,10 @@
         <v>146</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C42" s="3">
-        <v>1110</v>
+        <v>40013</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>23</v>
@@ -4061,84 +4081,84 @@
         <v>146</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C43" s="3">
-        <v>40013</v>
+        <v>21208</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E43" s="6">
-        <v>42954</v>
+        <v>43007</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C44" s="3">
-        <v>21208</v>
+        <v>1116</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E44" s="6">
-        <v>43007</v>
+        <v>45471</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C45" s="3">
-        <v>1116</v>
+        <v>1087</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E45" s="6">
-        <v>45471</v>
+        <v>45443</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C46" s="3">
-        <v>1087</v>
+        <v>1117</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E46" s="6">
-        <v>45443</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="C47" s="3">
-        <v>1117</v>
+        <v>22582</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E47" s="6">
-        <v>45474</v>
+        <v>45383</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4146,7 +4166,7 @@
         <v>111</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48" s="3">
         <v>22582</v>
@@ -4160,19 +4180,19 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>111</v>
+        <v>200</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="C49" s="3">
-        <v>22582</v>
+        <v>1125</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E49" s="6">
-        <v>45383</v>
+        <v>45471</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -4180,10 +4200,10 @@
         <v>200</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C50" s="3">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>23</v>
@@ -4197,10 +4217,10 @@
         <v>200</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C51" s="3">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>23</v>
@@ -4214,10 +4234,10 @@
         <v>200</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C52" s="3">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>23</v>
@@ -4231,10 +4251,10 @@
         <v>200</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C53" s="3">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>23</v>
@@ -4248,10 +4268,10 @@
         <v>200</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C54" s="3">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>23</v>
@@ -4265,10 +4285,10 @@
         <v>200</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C55" s="3">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>23</v>
@@ -4282,10 +4302,10 @@
         <v>200</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C56" s="3">
-        <v>1114</v>
+        <v>1119</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>23</v>
@@ -4296,19 +4316,19 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>219</v>
       </c>
       <c r="C57" s="3">
-        <v>1119</v>
+        <v>1046</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E57" s="6">
-        <v>45471</v>
+        <v>44837</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -4316,10 +4336,10 @@
         <v>217</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C58" s="3">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>23</v>
@@ -4329,24 +4349,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C59" s="3">
-        <v>1045</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E59" s="6">
-        <v>44837</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E60" s="6"/>
+      <c r="E59" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{6EEBEAB0-4E16-4581-8A08-39CF6708FA50}"/>
@@ -4358,12 +4361,12 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CF0191-5EAE-4B06-B5C1-13D30342DEF8}">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5722,6 +5725,40 @@
         <v>44837</v>
       </c>
     </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="6">
+        <v>45373</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" s="3">
+        <v>2037</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="6">
+        <v>45509</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D49" xr:uid="{FDD9564B-AAE5-4B8B-854B-0D27C6086BCC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5731,12 +5768,12 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B548D8A-88F4-48BF-8DA9-473567F1EB6D}">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5886,36 +5923,36 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C9" s="3">
-        <v>1010</v>
+        <v>1040</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="6">
-        <v>45373</v>
+        <v>45435</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="C10" s="3">
-        <v>1040</v>
+        <v>1096</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="6">
-        <v>45435</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -5923,33 +5960,33 @@
         <v>125</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C11" s="3">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="6">
-        <v>44942</v>
+        <v>44949</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C12" s="3">
-        <v>1095</v>
+        <v>22365</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="6">
-        <v>44949</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -5957,16 +5994,16 @@
         <v>115</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C13" s="3">
-        <v>22365</v>
+        <v>1089</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="6">
-        <v>45195</v>
+        <v>45202</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -5974,16 +6011,16 @@
         <v>115</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C14" s="3">
-        <v>1089</v>
+        <v>30022</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="6">
-        <v>45202</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -5991,10 +6028,10 @@
         <v>115</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C15" s="3">
-        <v>30022</v>
+        <v>1091</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>23</v>
@@ -6008,16 +6045,16 @@
         <v>115</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C16" s="3">
-        <v>1091</v>
+        <v>22368</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="6">
-        <v>45392</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -6025,16 +6062,16 @@
         <v>115</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C17" s="3">
-        <v>22368</v>
+        <v>1090</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="6">
-        <v>45195</v>
+        <v>45443</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -6042,16 +6079,16 @@
         <v>115</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>1090</v>
+        <v>22353</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="6">
-        <v>45443</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -6059,16 +6096,16 @@
         <v>115</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C19" s="3">
-        <v>22353</v>
+        <v>40010</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="6">
-        <v>45195</v>
+        <v>43074</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -6076,33 +6113,33 @@
         <v>115</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C20" s="3">
-        <v>40010</v>
+        <v>22801</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="6">
-        <v>43074</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C21" s="3">
-        <v>22801</v>
+        <v>21223</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="6">
-        <v>45294</v>
+        <v>43069</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -6110,10 +6147,10 @@
         <v>135</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C22" s="3">
-        <v>21223</v>
+        <v>40006</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>23</v>
@@ -6124,36 +6161,36 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="C23" s="3">
-        <v>40006</v>
+        <v>50007</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="6">
-        <v>43069</v>
+        <v>45200</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="C24" s="3">
-        <v>50007</v>
+        <v>1031</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="6">
-        <v>45200</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -6161,10 +6198,10 @@
         <v>129</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>99</v>
+        <v>210</v>
       </c>
       <c r="C25" s="3">
-        <v>1031</v>
+        <v>3006</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>23</v>
@@ -6175,87 +6212,87 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="C26" s="3">
-        <v>3006</v>
+        <v>50042</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="6">
-        <v>45077</v>
+        <v>45170</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="C27" s="3">
-        <v>50042</v>
+        <v>1043</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="6">
-        <v>45170</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="C28" s="3">
-        <v>1043</v>
+        <v>1013</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="6">
-        <v>45436</v>
+        <v>45117</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C29" s="3">
-        <v>1013</v>
+        <v>30002</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="6">
-        <v>45117</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C30" s="3">
-        <v>30002</v>
+        <v>1018</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="6">
-        <v>45306</v>
+        <v>45202</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -6263,10 +6300,10 @@
         <v>126</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C31" s="3">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>23</v>
@@ -6277,36 +6314,36 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C32" s="3">
-        <v>1020</v>
+        <v>50034</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E32" s="6">
-        <v>45202</v>
+        <v>45210</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C33" s="3">
-        <v>50034</v>
+        <v>40005</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E33" s="6">
-        <v>45210</v>
+        <v>42375</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -6314,10 +6351,10 @@
         <v>52</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="C34" s="3">
-        <v>40005</v>
+        <v>21220</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>23</v>
@@ -6328,36 +6365,36 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="C35" s="3">
-        <v>21220</v>
+        <v>1036</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="6">
-        <v>42375</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C36" s="3">
-        <v>1036</v>
+        <v>21217</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="6">
-        <v>44712</v>
+        <v>43840</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -6365,10 +6402,10 @@
         <v>134</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="C37" s="3">
-        <v>21217</v>
+        <v>40001</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>23</v>
@@ -6379,36 +6416,36 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="C38" s="3">
-        <v>40001</v>
+        <v>1006</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="6">
-        <v>43840</v>
+        <v>45351</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C39" s="3">
-        <v>1006</v>
+        <v>40011</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E39" s="6">
-        <v>45351</v>
+        <v>42737</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -6416,10 +6453,10 @@
         <v>118</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="C40" s="3">
-        <v>40011</v>
+        <v>21226</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>23</v>
@@ -6430,19 +6467,19 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C41" s="3">
-        <v>21226</v>
+        <v>1110</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E41" s="6">
-        <v>42737</v>
+        <v>42954</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -6450,10 +6487,10 @@
         <v>146</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C42" s="3">
-        <v>1110</v>
+        <v>40013</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>23</v>
@@ -6467,84 +6504,84 @@
         <v>146</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C43" s="3">
-        <v>40013</v>
+        <v>21208</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E43" s="6">
-        <v>42954</v>
+        <v>43007</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C44" s="3">
-        <v>21208</v>
+        <v>1116</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E44" s="6">
-        <v>43007</v>
+        <v>45471</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C45" s="3">
-        <v>1116</v>
+        <v>1087</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E45" s="6">
-        <v>45471</v>
+        <v>45443</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C46" s="3">
-        <v>1087</v>
+        <v>1117</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E46" s="6">
-        <v>45443</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="C47" s="3">
-        <v>1117</v>
+        <v>22582</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E47" s="6">
-        <v>45474</v>
+        <v>45383</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -6552,7 +6589,7 @@
         <v>111</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48" s="3">
         <v>22582</v>
@@ -6566,19 +6603,19 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>111</v>
+        <v>200</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="C49" s="3">
-        <v>22582</v>
+        <v>1125</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E49" s="6">
-        <v>45383</v>
+        <v>45471</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -6586,10 +6623,10 @@
         <v>200</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C50" s="3">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>23</v>
@@ -6603,10 +6640,10 @@
         <v>200</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C51" s="3">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>23</v>
@@ -6620,10 +6657,10 @@
         <v>200</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C52" s="3">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>23</v>
@@ -6637,10 +6674,10 @@
         <v>200</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C53" s="3">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>23</v>
@@ -6654,10 +6691,10 @@
         <v>200</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C54" s="3">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>23</v>
@@ -6671,10 +6708,10 @@
         <v>200</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C55" s="3">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>23</v>
@@ -6688,10 +6725,10 @@
         <v>200</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C56" s="3">
-        <v>1114</v>
+        <v>1119</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>23</v>
@@ -6702,19 +6739,19 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>219</v>
       </c>
       <c r="C57" s="3">
-        <v>1119</v>
+        <v>1046</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E57" s="6">
-        <v>45471</v>
+        <v>44837</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -6722,10 +6759,10 @@
         <v>217</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C58" s="3">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>23</v>
@@ -6735,21 +6772,9 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C59" s="3">
-        <v>1045</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E59" s="6">
-        <v>44837</v>
-      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="6"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C60" s="3"/>
@@ -7205,11 +7230,6 @@
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="6"/>
-    </row>
-    <row r="151" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C56" xr:uid="{A787322A-5B17-4E1F-B960-30BFFEBBD83A}"/>

--- a/Suporte_Relatorio.xlsx
+++ b/Suporte_Relatorio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ekhofo-my.sharepoint.com/personal/rafael_astolfi_ekhofo_com/Documents/Desktop/relatorio_mensal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="375" documentId="8_{96E81CA7-990A-4452-BFD6-B12F48A36CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B63BC5C-7595-46D1-A722-0A8546F2553F}"/>
+  <xr:revisionPtr revIDLastSave="650" documentId="8_{96E81CA7-990A-4452-BFD6-B12F48A36CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8E2413D-3FE8-48F5-A9DF-1640906014EF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{D83840C6-8BB1-4146-989F-64A28F905889}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="7" xr2:uid="{D83840C6-8BB1-4146-989F-64A28F905889}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="230">
   <si>
     <t>Alternativos</t>
   </si>
@@ -289,9 +289,6 @@
     <t>DEFINITA FIC FIM IE</t>
   </si>
   <si>
-    <t>ARAUCÁRIA FIC FIM IE</t>
-  </si>
-  <si>
     <t>FLORESTA FIC FIM CP IE</t>
   </si>
   <si>
@@ -304,9 +301,6 @@
     <t>ANBIMA_IHFA</t>
   </si>
   <si>
-    <t>ARAUCÁRIA FIC FIM IE_explodido</t>
-  </si>
-  <si>
     <t>FAMÍLIA DE ARRUDA_explodido</t>
   </si>
   <si>
@@ -722,6 +716,30 @@
   </si>
   <si>
     <t>FLAVIO POTENZA TERNI</t>
+  </si>
+  <si>
+    <t>CHRISTIANE DORES POLLASTRINI_MB</t>
+  </si>
+  <si>
+    <t>CYNTHIA PATRICIA DORES_MB</t>
+  </si>
+  <si>
+    <t>CHRISTIANE DORES POLLASTRINI_JIVE</t>
+  </si>
+  <si>
+    <t>CYNTHIA PATRICIA DORES_JIVE</t>
+  </si>
+  <si>
+    <t>ALEXANDRE MARCOS KISS</t>
+  </si>
+  <si>
+    <t>ANA HERCILIA SALES GUIMARAES KISS</t>
+  </si>
+  <si>
+    <t>ATIVORE</t>
+  </si>
+  <si>
+    <t>DIOGO LOPES VILELA BERBEL_Especial</t>
   </si>
 </sst>
 </file>
@@ -732,7 +750,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -750,6 +768,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -790,7 +815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -803,6 +828,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1248,7 +1275,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
@@ -1475,13 +1502,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -1526,7 +1553,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1537,10 +1564,10 @@
         <v>0.25</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1596,13 +1623,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>93</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -1619,7 +1646,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1633,7 +1660,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1647,7 +1674,7 @@
         <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1661,7 +1688,7 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1675,7 +1702,7 @@
         <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1689,7 +1716,7 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1717,7 +1744,7 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1730,10 +1757,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A32" sqref="A32:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,250 +1772,258 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B29" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B30" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B31" t="s">
-        <v>214</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2001,12 +2036,12 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C17:C18"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E77"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,7 +2056,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>40</v>
@@ -2036,1299 +2071,75 @@
         <v>43</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="C2" s="3">
-        <v>1000</v>
+        <v>1040</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="6">
-        <v>45222</v>
+        <v>45443</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="C3" s="3">
-        <v>2000</v>
+        <v>2035</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="6">
-        <v>45275</v>
+        <v>45471</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c r="C4" s="3">
-        <v>1001</v>
+        <v>3007</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="6">
-        <v>45222</v>
+        <v>45443</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c r="C5" s="3">
-        <v>2000</v>
+        <v>4007</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="6">
-        <v>45275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3000</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="6">
-        <v>45293</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4000</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="6">
-        <v>45275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1004</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="6">
-        <v>45239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2004</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="6">
-        <v>45218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1007</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="6">
-        <v>45239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2004</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="6">
-        <v>45218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="3">
-        <v>3001</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="6">
-        <v>45170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="3">
-        <v>4001</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="6">
-        <v>45170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1120</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="6">
-        <v>45492</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2032</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="6">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1094</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="6">
-        <v>45337</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="6">
-        <v>45379</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1097</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="6">
-        <v>45036</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2024</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="6">
-        <v>45293</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2030</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="6">
-        <v>45293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2030</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="6">
-        <v>45292</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1015</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="6">
-        <v>44895</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2014</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C24" s="3">
-        <v>3004</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="6">
-        <v>45110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C25" s="3">
-        <v>4005</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="6">
-        <v>45092</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1028</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="6">
-        <v>45107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="6">
-        <v>45107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C28" s="3">
-        <v>3005</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="6">
-        <v>45112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C29" s="3">
-        <v>4006</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="6">
-        <v>45110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1008</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="6">
-        <v>44845</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="3">
-        <v>2008</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="6">
-        <v>45036</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1009</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="6">
-        <v>44845</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="3">
-        <v>2008</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="6">
-        <v>45036</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="3">
-        <v>3003</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="6">
-        <v>44845</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="3">
-        <v>4004</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="6">
-        <v>45036</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="3">
-        <v>1105</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="6">
-        <v>45138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="3">
-        <v>2028</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="6">
-        <v>45015</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="3">
-        <v>1019</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="6">
-        <v>45204</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="6">
-        <v>45236</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1016</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="6">
-        <v>45198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="3">
-        <v>2016</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="6">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1017</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="6">
-        <v>45198</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="3">
-        <v>2017</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="6">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="3">
-        <v>1103</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="6">
-        <v>45236</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="3">
-        <v>2025</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="6">
-        <v>45275</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="3">
-        <v>1035</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="6">
-        <v>45078</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="3">
-        <v>2029</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="6">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="3">
-        <v>1022</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="6">
-        <v>44985</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="3">
-        <v>4003</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E49" s="6">
-        <v>44987</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="3">
-        <v>1021</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="6">
-        <v>44985</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="3">
-        <v>4002</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E51" s="6">
-        <v>44987</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="3">
-        <v>1023</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" s="6">
-        <v>45121</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="3">
-        <v>2023</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E53" s="6">
-        <v>45240</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" s="3">
-        <v>1011</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E54" s="6">
-        <v>45009</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" s="3">
-        <v>2011</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E55" s="6">
-        <v>45069</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C56" s="3">
-        <v>3002</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E56" s="6">
-        <v>45173</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C57" s="3">
-        <v>2011</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57" s="6">
-        <v>45069</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C58" s="3">
-        <v>1003</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E58" s="6">
-        <v>45196</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" s="3">
-        <v>2003</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E59" s="6">
-        <v>45344</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="3">
-        <v>2031</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E60" s="6">
-        <v>45385</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C61" s="3">
-        <v>2031</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E61" s="6">
-        <v>45385</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C62" s="3">
-        <v>1037</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E62" s="6">
-        <v>45082</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C63" s="3">
-        <v>2036</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E63" s="6">
         <v>45471</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="3">
-        <v>50100</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E64" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C65" s="3">
-        <v>50100</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E65" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C66" s="3">
-        <v>1040</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E66" s="6">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C67" s="3">
-        <v>2035</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E67" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C68" s="3">
-        <v>1026</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E68" s="6">
-        <v>44837</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C69" s="3">
-        <v>2034</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E69" s="6">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C70" s="3">
-        <v>1027</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E70" s="6">
-        <v>44837</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C71" s="3">
-        <v>2033</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E71" s="6">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C72" s="3">
-        <v>1032</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E72" s="6">
-        <v>44837</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C73" s="3">
-        <v>2020</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E73" s="6">
-        <v>44895</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C74" s="3">
-        <v>1030</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E74" s="6">
-        <v>44837</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C75" s="3">
-        <v>2001</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E75" s="6">
-        <v>44837</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C76" s="3">
-        <v>1010</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E76" s="6">
-        <v>45373</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C77" s="3">
-        <v>2037</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E77" s="6">
-        <v>45509</v>
       </c>
     </row>
   </sheetData>
@@ -3343,12 +2154,12 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C17:C18"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E58"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3364,7 +2175,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
         <v>40</v>
@@ -3381,975 +2192,20 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="3">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="6">
-        <v>45290</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1111</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="6">
-        <v>44743</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="3">
-        <v>40009</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="6">
-        <v>44928</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="3">
-        <v>21214</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="6">
-        <v>44928</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="3">
-        <v>40006</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="6">
-        <v>43069</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="3">
-        <v>21223</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="6">
-        <v>43069</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1034</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="6">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1040</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6">
-        <v>45435</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1096</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="6">
-        <v>44942</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1095</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="6">
-        <v>44949</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="3">
-        <v>22365</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="6">
-        <v>45195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1089</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="6">
-        <v>45202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="3">
-        <v>30022</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="6">
-        <v>45392</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1091</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="6">
-        <v>45392</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="3">
-        <v>22368</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="6">
-        <v>45195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1090</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="6">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="3">
-        <v>22353</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="6">
-        <v>45195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="3">
-        <v>40010</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="6">
-        <v>43074</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="3">
-        <v>22801</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="6">
-        <v>45294</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="3">
-        <v>21223</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="6">
-        <v>43069</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="3">
-        <v>40006</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="6">
-        <v>43069</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="3">
-        <v>50007</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="6">
-        <v>45200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1031</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="6">
-        <v>45077</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C25" s="3">
-        <v>3006</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="6">
-        <v>45077</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="3">
-        <v>50042</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="6">
-        <v>45170</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1043</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="6">
-        <v>45436</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1013</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="6">
-        <v>45117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="3">
-        <v>30002</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="6">
-        <v>45306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1018</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="6">
-        <v>45202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1020</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="6">
-        <v>45202</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="3">
-        <v>50034</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="6">
-        <v>45210</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="3">
-        <v>40005</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="6">
-        <v>42375</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="3">
-        <v>21220</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="6">
-        <v>42375</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1036</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="6">
-        <v>44712</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="3">
-        <v>21217</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="6">
-        <v>43840</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="3">
-        <v>40001</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="6">
-        <v>43840</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="3">
-        <v>1006</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="6">
-        <v>45351</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="3">
-        <v>40011</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="6">
-        <v>42737</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" s="3">
-        <v>21226</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="6">
-        <v>42737</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1110</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="6">
-        <v>42954</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" s="3">
-        <v>40013</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="6">
-        <v>42954</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C43" s="3">
-        <v>21208</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="6">
-        <v>43007</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" s="3">
-        <v>1116</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1087</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="6">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C46" s="3">
-        <v>1117</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="6">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="3">
-        <v>22582</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="6">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="3">
-        <v>22582</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="6">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C49" s="3">
-        <v>1125</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C50" s="3">
-        <v>1126</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C51" s="3">
-        <v>1118</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C52" s="3">
-        <v>1112</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C53" s="3">
-        <v>1113</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C54" s="3">
-        <v>1115</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E54" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C55" s="3">
-        <v>1114</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E55" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C56" s="3">
-        <v>1119</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E56" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C57" s="3">
-        <v>1046</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" s="6">
-        <v>44837</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C58" s="3">
-        <v>1045</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E58" s="6">
-        <v>44837</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E59" s="6"/>
+        <v>45293</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{6EEBEAB0-4E16-4581-8A08-39CF6708FA50}"/>
@@ -4361,12 +2217,12 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CF0191-5EAE-4B06-B5C1-13D30342DEF8}">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E77"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4379,7 +2235,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>40</v>
@@ -4394,12 +2250,12 @@
         <v>43</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>25</v>
@@ -4417,7 +2273,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>25</v>
@@ -4435,10 +2291,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" s="3">
         <v>1001</v>
@@ -4453,10 +2309,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" s="3">
         <v>2000</v>
@@ -4471,10 +2327,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6" s="3">
         <v>3000</v>
@@ -4489,10 +2345,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C7" s="3">
         <v>4000</v>
@@ -4507,7 +2363,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>22</v>
@@ -4525,7 +2381,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>22</v>
@@ -4543,10 +2399,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" s="3">
         <v>1007</v>
@@ -4561,10 +2417,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11" s="3">
         <v>2004</v>
@@ -4579,10 +2435,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C12" s="3">
         <v>3001</v>
@@ -4597,10 +2453,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C13" s="3">
         <v>4001</v>
@@ -4615,10 +2471,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C14" s="3">
         <v>1120</v>
@@ -4633,10 +2489,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C15" s="3">
         <v>2032</v>
@@ -4651,7 +2507,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>74</v>
@@ -4669,7 +2525,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>74</v>
@@ -4687,7 +2543,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>47</v>
@@ -4705,7 +2561,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>47</v>
@@ -4723,10 +2579,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C20" s="3">
         <v>2030</v>
@@ -4738,15 +2594,15 @@
         <v>45293</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C21" s="3">
         <v>2030</v>
@@ -4761,7 +2617,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>54</v>
@@ -4779,7 +2635,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>54</v>
@@ -4791,16 +2647,16 @@
         <v>24</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C24" s="3">
         <v>3004</v>
@@ -4815,10 +2671,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C25" s="3">
         <v>4005</v>
@@ -4833,7 +2689,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>28</v>
@@ -4851,7 +2707,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>28</v>
@@ -4869,10 +2725,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C28" s="3">
         <v>3005</v>
@@ -4887,10 +2743,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C29" s="3">
         <v>4006</v>
@@ -4905,7 +2761,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>64</v>
@@ -4923,7 +2779,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>64</v>
@@ -4941,10 +2797,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C32" s="3">
         <v>1009</v>
@@ -4959,10 +2815,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C33" s="3">
         <v>2008</v>
@@ -4977,10 +2833,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C34" s="3">
         <v>3003</v>
@@ -4995,10 +2851,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C35" s="3">
         <v>4004</v>
@@ -5049,7 +2905,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>55</v>
@@ -5067,7 +2923,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>55</v>
@@ -5085,7 +2941,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>26</v>
@@ -5103,7 +2959,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>26</v>
@@ -5121,7 +2977,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>27</v>
@@ -5139,7 +2995,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>27</v>
@@ -5157,7 +3013,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>59</v>
@@ -5175,7 +3031,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>59</v>
@@ -5193,7 +3049,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>63</v>
@@ -5211,7 +3067,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>63</v>
@@ -5229,7 +3085,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>50</v>
@@ -5247,7 +3103,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>50</v>
@@ -5265,7 +3121,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>49</v>
@@ -5283,7 +3139,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>49</v>
@@ -5301,7 +3157,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>58</v>
@@ -5319,7 +3175,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>58</v>
@@ -5337,7 +3193,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>51</v>
@@ -5355,7 +3211,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>51</v>
@@ -5376,7 +3232,7 @@
         <v>51</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C56" s="3">
         <v>3002</v>
@@ -5394,7 +3250,7 @@
         <v>51</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C57" s="3">
         <v>2011</v>
@@ -5445,7 +3301,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>68</v>
@@ -5460,12 +3316,12 @@
         <v>45385</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>68</v>
@@ -5483,10 +3339,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C62" s="3">
         <v>1037</v>
@@ -5500,10 +3356,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C63" s="3">
         <v>2036</v>
@@ -5517,10 +3373,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C64" s="3">
         <v>50100</v>
@@ -5532,15 +3388,15 @@
         <v>45471</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C65" s="3">
         <v>50100</v>
@@ -5552,15 +3408,15 @@
         <v>45471</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C66" s="3">
         <v>1040</v>
@@ -5574,10 +3430,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C67" s="3">
         <v>2035</v>
@@ -5591,47 +3447,47 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>217</v>
+        <v>125</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C68" s="3">
-        <v>1026</v>
+        <v>3007</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E68" s="6">
-        <v>44837</v>
+        <v>45443</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>217</v>
+        <v>125</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C69" s="3">
-        <v>2034</v>
+        <v>4007</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E69" s="6">
-        <v>44986</v>
+        <v>45471</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C70" s="3">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>23</v>
@@ -5642,30 +3498,30 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C71" s="3">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E71" s="6">
-        <v>44896</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C72" s="3">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>23</v>
@@ -5676,30 +3532,30 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C73" s="3">
-        <v>2020</v>
+        <v>2033</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E73" s="6">
-        <v>44895</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C74" s="3">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>23</v>
@@ -5710,52 +3566,86 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C75" s="3">
-        <v>2001</v>
+        <v>2020</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E75" s="6">
-        <v>44837</v>
+        <v>44895</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="C76" s="3">
-        <v>1010</v>
+        <v>1030</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E76" s="6">
-        <v>45373</v>
+        <v>44837</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="C77" s="3">
-        <v>2037</v>
+        <v>2001</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E77" s="6">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="6">
+        <v>45373</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C79" s="3">
+        <v>2037</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="6">
         <v>45509</v>
       </c>
     </row>
@@ -5768,12 +3658,12 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B548D8A-88F4-48BF-8DA9-473567F1EB6D}">
-  <dimension ref="A1:E150"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5787,7 +3677,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
         <v>40</v>
@@ -5804,27 +3694,27 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="3">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="6">
-        <v>45290</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C3" s="3">
         <v>1111</v>
@@ -5858,7 +3748,7 @@
         <v>60</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" s="3">
         <v>21214</v>
@@ -5872,183 +3762,183 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3">
-        <v>40006</v>
+        <v>1034</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="6">
-        <v>43069</v>
+        <v>45139</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C7" s="3">
-        <v>21223</v>
+        <v>1040</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="6">
-        <v>43069</v>
+        <v>45435</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="C8" s="3">
-        <v>1034</v>
+        <v>1096</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="6">
-        <v>45139</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="C9" s="3">
-        <v>1040</v>
+        <v>1095</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="6">
-        <v>45435</v>
+        <v>44949</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3">
-        <v>1096</v>
+        <v>22365</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="6">
-        <v>44942</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C11" s="3">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="6">
-        <v>44949</v>
+        <v>45202</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" s="3">
-        <v>22365</v>
+        <v>30022</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="6">
-        <v>45195</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C13" s="3">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="6">
-        <v>45202</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C14" s="3">
-        <v>30022</v>
+        <v>22368</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="6">
-        <v>45392</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="6">
-        <v>45392</v>
+        <v>45443</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="3">
-        <v>22368</v>
+        <v>22353</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>23</v>
@@ -6059,206 +3949,206 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C17" s="3">
-        <v>1090</v>
+        <v>40010</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="6">
-        <v>45443</v>
+        <v>43074</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C18" s="3">
-        <v>22353</v>
+        <v>22801</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="6">
-        <v>45195</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C19" s="3">
-        <v>40010</v>
+        <v>21223</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="6">
-        <v>43074</v>
+        <v>43069</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="C20" s="3">
-        <v>22801</v>
+        <v>40006</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="6">
-        <v>45294</v>
+        <v>43069</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="C21" s="3">
-        <v>21223</v>
+        <v>50007</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="6">
-        <v>43069</v>
+        <v>45200</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C22" s="3">
-        <v>40006</v>
+        <v>1031</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="6">
-        <v>43069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>48</v>
+        <v>208</v>
       </c>
       <c r="C23" s="3">
-        <v>50007</v>
+        <v>3006</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="6">
-        <v>45200</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="C24" s="3">
-        <v>1031</v>
+        <v>50042</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="6">
-        <v>45077</v>
+        <v>45170</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>210</v>
+        <v>142</v>
       </c>
       <c r="C25" s="3">
-        <v>3006</v>
+        <v>1043</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="6">
-        <v>45077</v>
+        <v>45443</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C26" s="3">
-        <v>50042</v>
+        <v>1013</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="6">
-        <v>45170</v>
+        <v>45117</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="C27" s="3">
-        <v>1043</v>
+        <v>30002</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="6">
-        <v>45436</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C28" s="3">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="6">
-        <v>45117</v>
+        <v>45202</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -6266,101 +4156,101 @@
         <v>124</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C29" s="3">
-        <v>30002</v>
+        <v>1020</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="6">
-        <v>45306</v>
+        <v>45202</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C30" s="3">
-        <v>1018</v>
+        <v>1086</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="6">
-        <v>45202</v>
+        <v>45210</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C31" s="3">
-        <v>1020</v>
+        <v>40005</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E31" s="6">
-        <v>45202</v>
+        <v>42375</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="C32" s="3">
-        <v>50034</v>
+        <v>21220</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E32" s="6">
-        <v>45210</v>
+        <v>42375</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C33" s="3">
-        <v>40005</v>
+        <v>1036</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E33" s="6">
-        <v>42375</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="C34" s="3">
-        <v>21220</v>
+        <v>21217</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E34" s="6">
-        <v>42375</v>
+        <v>43840</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -6368,163 +4258,163 @@
         <v>132</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="C35" s="3">
-        <v>1036</v>
+        <v>40001</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="6">
-        <v>44712</v>
+        <v>43840</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C36" s="3">
-        <v>21217</v>
+        <v>1006</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="6">
-        <v>43840</v>
+        <v>45351</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C37" s="3">
-        <v>40001</v>
+        <v>40011</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="6">
-        <v>43840</v>
+        <v>42737</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="C38" s="3">
-        <v>1006</v>
+        <v>21226</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="6">
-        <v>45351</v>
+        <v>42737</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="C39" s="3">
-        <v>40011</v>
+        <v>1110</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E39" s="6">
-        <v>42737</v>
+        <v>42954</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C40" s="3">
-        <v>21226</v>
+        <v>40013</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E40" s="6">
-        <v>42737</v>
+        <v>42954</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>147</v>
       </c>
       <c r="C41" s="3">
-        <v>1110</v>
+        <v>21208</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E41" s="6">
-        <v>42954</v>
+        <v>43007</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C42" s="3">
-        <v>40013</v>
+        <v>1116</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E42" s="6">
-        <v>42954</v>
+        <v>45471</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C43" s="3">
-        <v>21208</v>
+        <v>1087</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E43" s="6">
-        <v>43007</v>
+        <v>45443</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C44" s="3">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>23</v>
@@ -6535,78 +4425,78 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="C45" s="3">
-        <v>1087</v>
+        <v>22582</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E45" s="6">
-        <v>45443</v>
+        <v>45383</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>154</v>
+        <v>223</v>
       </c>
       <c r="C46" s="3">
-        <v>1117</v>
+        <v>22582</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E46" s="6">
-        <v>45474</v>
+        <v>45383</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>50</v>
+        <v>224</v>
       </c>
       <c r="C47" s="3">
-        <v>22582</v>
+        <v>30001</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E47" s="6">
-        <v>45383</v>
+        <v>45471</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>49</v>
+        <v>225</v>
       </c>
       <c r="C48" s="3">
-        <v>22582</v>
+        <v>30001</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E48" s="6">
-        <v>45383</v>
+        <v>45471</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C49" s="3">
         <v>1125</v>
@@ -6620,10 +4510,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C50" s="3">
         <v>1126</v>
@@ -6637,10 +4527,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="C51" s="3">
         <v>1118</v>
@@ -6654,10 +4544,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C52" s="3">
         <v>1112</v>
@@ -6671,10 +4561,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C53" s="3">
         <v>1113</v>
@@ -6688,10 +4578,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C54" s="3">
         <v>1115</v>
@@ -6705,10 +4595,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C55" s="3">
         <v>1114</v>
@@ -6722,10 +4612,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C56" s="3">
         <v>1119</v>
@@ -6739,10 +4629,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="C57" s="3">
         <v>1046</v>
@@ -6756,10 +4646,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C58" s="3">
         <v>1045</v>
@@ -6772,24 +4662,72 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="6"/>
+      <c r="A59" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1046</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="6">
+        <v>44837</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="6"/>
+      <c r="A60" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1045</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="6">
+        <v>44837</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="6"/>
+      <c r="A61" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1133</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="13">
+        <v>45477</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="6"/>
+      <c r="A62" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1132</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="6">
+        <v>45471</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C63" s="3"/>
@@ -7231,9 +5169,20 @@
       <c r="D150" s="3"/>
       <c r="E150" s="6"/>
     </row>
+    <row r="151" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="6"/>
+    </row>
+    <row r="152" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C56" xr:uid="{A787322A-5B17-4E1F-B960-30BFFEBBD83A}"/>
+  <autoFilter ref="A1:C58" xr:uid="{A787322A-5B17-4E1F-B960-30BFFEBBD83A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7257,6 +5206,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010029DFE9A47EDBBA4C9642CECEC7AB5212" ma:contentTypeVersion="15" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="7328ff878a8f4dae18a74358abfdf779">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685e8f7b-ce85-439b-962f-3948db74e463" xmlns:ns3="9968dc3e-a1f3-41f5-b998-9e98f3d19f76" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d504a395b7aacda9b17f0d85dc998159" ns2:_="" ns3:_="">
     <xsd:import namespace="685e8f7b-ce85-439b-962f-3948db74e463"/>
@@ -7491,15 +5449,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{358F526D-C9BF-4800-8675-13EA5EBEF839}">
   <ds:schemaRefs>
@@ -7518,6 +5467,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11E769B2-782A-4CC9-89C8-BE475949AFF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13BA50B4-2830-4093-B3A1-0E01A2125F8E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7534,12 +5491,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11E769B2-782A-4CC9-89C8-BE475949AFF9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Suporte_Relatorio.xlsx
+++ b/Suporte_Relatorio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ekhofo-my.sharepoint.com/personal/rafael_astolfi_ekhofo_com/Documents/Desktop/relatorio_mensal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="650" documentId="8_{96E81CA7-990A-4452-BFD6-B12F48A36CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8E2413D-3FE8-48F5-A9DF-1640906014EF}"/>
+  <xr:revisionPtr revIDLastSave="830" documentId="8_{96E81CA7-990A-4452-BFD6-B12F48A36CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{784BD1C4-CA98-485F-A481-E5BF40A47ABE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="7" xr2:uid="{D83840C6-8BB1-4146-989F-64A28F905889}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{D83840C6-8BB1-4146-989F-64A28F905889}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="231">
   <si>
     <t>Alternativos</t>
   </si>
@@ -740,6 +740,9 @@
   </si>
   <si>
     <t>DIOGO LOPES VILELA BERBEL_Especial</t>
+  </si>
+  <si>
+    <t>BLUE FIT</t>
   </si>
 </sst>
 </file>
@@ -1757,10 +1760,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B32"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2026,6 +2029,14 @@
         <v>228</v>
       </c>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>230</v>
+      </c>
+      <c r="B33" t="s">
+        <v>230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2038,7 +2049,7 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C17:C18"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
@@ -3660,7 +3671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B548D8A-88F4-48BF-8DA9-473567F1EB6D}">
   <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B12" sqref="B12"/>
       <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
@@ -5187,34 +5198,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9968dc3e-a1f3-41f5-b998-9e98f3d19f76" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="685e8f7b-ce85-439b-962f-3948db74e463">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="9968dc3e-a1f3-41f5-b998-9e98f3d19f76">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="685e8f7b-ce85-439b-962f-3948db74e463" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010029DFE9A47EDBBA4C9642CECEC7AB5212" ma:contentTypeVersion="15" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="7328ff878a8f4dae18a74358abfdf779">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685e8f7b-ce85-439b-962f-3948db74e463" xmlns:ns3="9968dc3e-a1f3-41f5-b998-9e98f3d19f76" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d504a395b7aacda9b17f0d85dc998159" ns2:_="" ns3:_="">
     <xsd:import namespace="685e8f7b-ce85-439b-962f-3948db74e463"/>
@@ -5449,32 +5432,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{358F526D-C9BF-4800-8675-13EA5EBEF839}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9968dc3e-a1f3-41f5-b998-9e98f3d19f76"/>
-    <ds:schemaRef ds:uri="685e8f7b-ce85-439b-962f-3948db74e463"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11E769B2-782A-4CC9-89C8-BE475949AFF9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9968dc3e-a1f3-41f5-b998-9e98f3d19f76" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="685e8f7b-ce85-439b-962f-3948db74e463">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="9968dc3e-a1f3-41f5-b998-9e98f3d19f76">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="685e8f7b-ce85-439b-962f-3948db74e463" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13BA50B4-2830-4093-B3A1-0E01A2125F8E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5491,4 +5477,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11E769B2-782A-4CC9-89C8-BE475949AFF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{358F526D-C9BF-4800-8675-13EA5EBEF839}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9968dc3e-a1f3-41f5-b998-9e98f3d19f76"/>
+    <ds:schemaRef ds:uri="685e8f7b-ce85-439b-962f-3948db74e463"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Suporte_Relatorio.xlsx
+++ b/Suporte_Relatorio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ekhofo-my.sharepoint.com/personal/rafael_astolfi_ekhofo_com/Documents/Desktop/relatorio_mensal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="830" documentId="8_{96E81CA7-990A-4452-BFD6-B12F48A36CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{784BD1C4-CA98-485F-A481-E5BF40A47ABE}"/>
+  <xr:revisionPtr revIDLastSave="868" documentId="8_{96E81CA7-990A-4452-BFD6-B12F48A36CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20D2139E-AD29-4ECB-BD0F-853BB8C0BD65}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{D83840C6-8BB1-4146-989F-64A28F905889}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="7" xr2:uid="{D83840C6-8BB1-4146-989F-64A28F905889}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="232">
   <si>
     <t>Alternativos</t>
   </si>
@@ -634,9 +634,6 @@
     <t>NÃO TEM CARTEIRA</t>
   </si>
   <si>
-    <t>MAURICIO DORNELLAS TABBAL CHAMATI_Especial</t>
-  </si>
-  <si>
     <t>GUSTAVO DORNELLAS TABBAL CHAMATI_Especial</t>
   </si>
   <si>
@@ -676,9 +673,6 @@
     <t>ICATU</t>
   </si>
   <si>
-    <t>JOAO ARAUJO E NATASHA ARAUJO_ESPECIAL</t>
-  </si>
-  <si>
     <t>CANARY IV</t>
   </si>
   <si>
@@ -743,6 +737,15 @@
   </si>
   <si>
     <t>BLUE FIT</t>
+  </si>
+  <si>
+    <t>JOAO PAULO DE ALMEIDA CUNHA S/GRUPO_</t>
+  </si>
+  <si>
+    <t>JOAO PAULO DE ALMEIDA CUNHA</t>
+  </si>
+  <si>
+    <t>LUIZ OTAVIO CABRAL PEREIRA CUNHA_GestaoEkho</t>
   </si>
 </sst>
 </file>
@@ -753,7 +756,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1176,16 +1179,16 @@
       <selection pane="bottomLeft" activeCell="C12" sqref="C12:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -1202,7 +1205,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1219,7 +1222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1236,7 +1239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1253,7 +1256,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1270,7 +1273,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1287,7 +1290,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1304,7 +1307,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1321,7 +1324,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1338,7 +1341,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -1355,7 +1358,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -1372,7 +1375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -1389,7 +1392,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1406,7 +1409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
@@ -1423,7 +1426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1440,7 +1443,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -1457,7 +1460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -1495,15 +1498,15 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -1517,7 +1520,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1531,7 +1534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1545,7 +1548,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1559,7 +1562,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1573,7 +1576,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1587,7 +1590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1617,14 +1620,14 @@
       <selection activeCell="G2" sqref="G2:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -1638,7 +1641,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1652,7 +1655,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1666,7 +1669,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1680,7 +1683,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1694,7 +1697,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1708,7 +1711,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1722,7 +1725,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1736,7 +1739,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1763,17 +1766,17 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A33" sqref="A33:B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" s="1" t="s">
         <v>153</v>
       </c>
@@ -1781,7 +1784,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>154</v>
       </c>
@@ -1789,7 +1792,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>155</v>
       </c>
@@ -1797,7 +1800,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>156</v>
       </c>
@@ -1805,7 +1808,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>157</v>
       </c>
@@ -1813,7 +1816,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>158</v>
       </c>
@@ -1821,7 +1824,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>159</v>
       </c>
@@ -1829,7 +1832,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>160</v>
       </c>
@@ -1837,7 +1840,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -1845,15 +1848,15 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>162</v>
       </c>
       <c r="B10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>163</v>
       </c>
@@ -1861,7 +1864,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>164</v>
       </c>
@@ -1869,7 +1872,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>165</v>
       </c>
@@ -1877,7 +1880,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>166</v>
       </c>
@@ -1885,7 +1888,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>167</v>
       </c>
@@ -1893,7 +1896,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>168</v>
       </c>
@@ -1901,7 +1904,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>169</v>
       </c>
@@ -1909,7 +1912,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>170</v>
       </c>
@@ -1917,7 +1920,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>171</v>
       </c>
@@ -1925,7 +1928,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>172</v>
       </c>
@@ -1933,7 +1936,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -1941,7 +1944,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>174</v>
       </c>
@@ -1949,7 +1952,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>175</v>
       </c>
@@ -1957,7 +1960,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>176</v>
       </c>
@@ -1965,7 +1968,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>177</v>
       </c>
@@ -1973,68 +1976,68 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>204</v>
+      </c>
+      <c r="B26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>205</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>206</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>207</v>
       </c>
-      <c r="B28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
         <v>209</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>211</v>
-      </c>
-      <c r="B30" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>212</v>
-      </c>
       <c r="B31" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>228</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B33" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>230</v>
-      </c>
-      <c r="B33" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2047,25 +2050,25 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C17:C18"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="40.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="40.75" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="2" t="s">
         <v>106</v>
       </c>
@@ -2083,74 +2086,6 @@
       </c>
       <c r="F1" s="10" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1040</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="6">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2035</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3007</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="6">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4007</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="6">
-        <v>45471</v>
       </c>
     </row>
   </sheetData>
@@ -2173,18 +2108,18 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>106</v>
       </c>
@@ -2201,25 +2136,25 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>108</v>
+        <v>229</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>230</v>
       </c>
       <c r="C2" s="3">
-        <v>1002</v>
+        <v>1130</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="6">
-        <v>45293</v>
+        <v>45504</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{6EEBEAB0-4E16-4581-8A08-39CF6708FA50}"/>
+  <autoFilter ref="A1:E2" xr:uid="{6EEBEAB0-4E16-4581-8A08-39CF6708FA50}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2231,20 +2166,20 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft" activeCell="B65" sqref="A1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="40.75" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="2" t="s">
         <v>106</v>
       </c>
@@ -2264,7 +2199,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>108</v>
       </c>
@@ -2282,7 +2217,7 @@
       </c>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>108</v>
       </c>
@@ -2300,7 +2235,7 @@
       </c>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>108</v>
       </c>
@@ -2318,7 +2253,7 @@
       </c>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>108</v>
       </c>
@@ -2336,7 +2271,7 @@
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>108</v>
       </c>
@@ -2354,7 +2289,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>108</v>
       </c>
@@ -2372,7 +2307,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>111</v>
       </c>
@@ -2390,7 +2325,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>111</v>
       </c>
@@ -2404,11 +2339,11 @@
         <v>24</v>
       </c>
       <c r="E9" s="6">
-        <v>45218</v>
+        <v>45264</v>
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>111</v>
       </c>
@@ -2426,7 +2361,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>111</v>
       </c>
@@ -2440,11 +2375,11 @@
         <v>24</v>
       </c>
       <c r="E11" s="6">
-        <v>45218</v>
+        <v>45264</v>
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>111</v>
       </c>
@@ -2462,7 +2397,7 @@
       </c>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
         <v>111</v>
       </c>
@@ -2476,11 +2411,11 @@
         <v>24</v>
       </c>
       <c r="E13" s="6">
-        <v>45170</v>
+        <v>45264</v>
       </c>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
         <v>116</v>
       </c>
@@ -2498,7 +2433,7 @@
       </c>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
         <v>116</v>
       </c>
@@ -2516,7 +2451,7 @@
       </c>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>113</v>
       </c>
@@ -2534,7 +2469,7 @@
       </c>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>113</v>
       </c>
@@ -2552,7 +2487,7 @@
       </c>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>117</v>
       </c>
@@ -2570,7 +2505,7 @@
       </c>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>117</v>
       </c>
@@ -2588,7 +2523,7 @@
       </c>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15">
       <c r="A20" s="3" t="s">
         <v>119</v>
       </c>
@@ -2608,7 +2543,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>119</v>
       </c>
@@ -2626,7 +2561,7 @@
       </c>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
         <v>110</v>
       </c>
@@ -2644,7 +2579,7 @@
       </c>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
         <v>110</v>
       </c>
@@ -2662,12 +2597,12 @@
       </c>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C24" s="3">
         <v>3004</v>
@@ -2680,12 +2615,12 @@
       </c>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C25" s="3">
         <v>4005</v>
@@ -2698,7 +2633,7 @@
       </c>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>110</v>
       </c>
@@ -2716,7 +2651,7 @@
       </c>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
         <v>110</v>
       </c>
@@ -2734,51 +2669,51 @@
       </c>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>194</v>
+        <v>64</v>
       </c>
       <c r="C28" s="3">
-        <v>3005</v>
+        <v>1008</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="6">
-        <v>45112</v>
+        <v>44845</v>
       </c>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>194</v>
+        <v>64</v>
       </c>
       <c r="C29" s="3">
-        <v>4006</v>
+        <v>2008</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="6">
-        <v>45110</v>
+        <v>45036</v>
       </c>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C30" s="3">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>23</v>
@@ -2788,12 +2723,12 @@
       </c>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C31" s="3">
         <v>2008</v>
@@ -2806,33 +2741,33 @@
       </c>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C32" s="3">
-        <v>1009</v>
+        <v>3003</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E32" s="6">
-        <v>44845</v>
+        <v>45169</v>
       </c>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C33" s="3">
-        <v>2008</v>
+        <v>4004</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>24</v>
@@ -2842,123 +2777,123 @@
       </c>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C34" s="3">
-        <v>3003</v>
+        <v>1105</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E34" s="6">
-        <v>44845</v>
+        <v>45138</v>
       </c>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C35" s="3">
-        <v>4004</v>
+        <v>2028</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="6">
-        <v>45036</v>
+        <v>45015</v>
       </c>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C36" s="3">
-        <v>1105</v>
+        <v>1019</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="6">
-        <v>45138</v>
+        <v>45204</v>
       </c>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C37" s="3">
-        <v>2028</v>
+        <v>2019</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E37" s="6">
-        <v>45015</v>
+        <v>45236</v>
       </c>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C38" s="3">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="6">
-        <v>45204</v>
+        <v>45198</v>
       </c>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C39" s="3">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="6">
-        <v>45236</v>
+        <v>45383</v>
       </c>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C40" s="3">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>23</v>
@@ -2968,141 +2903,141 @@
       </c>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C41" s="3">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E41" s="6">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C42" s="3">
-        <v>1017</v>
+        <v>1103</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E42" s="6">
-        <v>45198</v>
+        <v>45236</v>
       </c>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C43" s="3">
-        <v>2017</v>
+        <v>2025</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E43" s="6">
-        <v>45323</v>
+        <v>45275</v>
       </c>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C44" s="3">
-        <v>1103</v>
+        <v>1035</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E44" s="6">
-        <v>45236</v>
+        <v>45078</v>
       </c>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C45" s="3">
-        <v>2025</v>
+        <v>2029</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E45" s="6">
-        <v>45275</v>
+        <v>45231</v>
       </c>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C46" s="3">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E46" s="6">
-        <v>45078</v>
+        <v>44985</v>
       </c>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C47" s="3">
-        <v>2029</v>
+        <v>4003</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E47" s="6">
-        <v>45231</v>
+        <v>44987</v>
       </c>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48" s="3">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>23</v>
@@ -3112,15 +3047,15 @@
       </c>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49" s="3">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>24</v>
@@ -3130,102 +3065,102 @@
       </c>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C50" s="3">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E50" s="6">
-        <v>44985</v>
+        <v>45121</v>
       </c>
       <c r="F50" s="9"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C51" s="3">
-        <v>4002</v>
+        <v>2023</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E51" s="6">
-        <v>44987</v>
+        <v>45240</v>
       </c>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C52" s="3">
-        <v>1023</v>
+        <v>1011</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E52" s="6">
-        <v>45121</v>
+        <v>45009</v>
       </c>
       <c r="F52" s="9"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C53" s="3">
-        <v>2023</v>
+        <v>2011</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E53" s="6">
-        <v>45240</v>
+        <v>45069</v>
       </c>
       <c r="F53" s="9"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" s="3">
+        <v>3002</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="6">
+        <v>45173</v>
+      </c>
+      <c r="F54" s="9"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="3">
-        <v>1011</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E54" s="6">
-        <v>45009</v>
-      </c>
-      <c r="F54" s="9"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="B55" s="3" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="C55" s="3">
         <v>2011</v>
@@ -3238,142 +3173,142 @@
       </c>
       <c r="F55" s="9"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>196</v>
+        <v>44</v>
       </c>
       <c r="C56" s="3">
-        <v>3002</v>
+        <v>1003</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E56" s="6">
-        <v>45173</v>
+        <v>45196</v>
       </c>
       <c r="F56" s="9"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>196</v>
+        <v>44</v>
       </c>
       <c r="C57" s="3">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E57" s="6">
-        <v>45069</v>
+        <v>45344</v>
       </c>
       <c r="F57" s="9"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C58" s="3">
-        <v>1003</v>
+        <v>2031</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E58" s="6">
-        <v>45196</v>
+        <v>45385</v>
       </c>
       <c r="F58" s="9"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="3" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C59" s="3">
-        <v>2003</v>
+        <v>2031</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E59" s="6">
-        <v>45344</v>
+        <v>45385</v>
       </c>
       <c r="F59" s="9"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15">
       <c r="A60" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="C60" s="3">
-        <v>2031</v>
+        <v>1037</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E60" s="6">
-        <v>45385</v>
+        <v>45082</v>
       </c>
       <c r="F60" s="11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="C61" s="3">
-        <v>2031</v>
+        <v>2036</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E61" s="6">
-        <v>45385</v>
+        <v>45471</v>
       </c>
       <c r="F61" s="9"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="3" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C62" s="3">
-        <v>1037</v>
+        <v>50100</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E62" s="6">
-        <v>45082</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C63" s="3">
-        <v>2036</v>
+        <v>50100</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>24</v>
@@ -3382,35 +3317,35 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15">
       <c r="A64" s="3" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="C64" s="3">
-        <v>50100</v>
+        <v>1040</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E64" s="6">
-        <v>45471</v>
+        <v>45443</v>
       </c>
       <c r="F64" s="11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15">
       <c r="A65" s="3" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="C65" s="3">
-        <v>50100</v>
+        <v>2035</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>24</v>
@@ -3422,15 +3357,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="C66" s="3">
-        <v>1040</v>
+        <v>3007</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>23</v>
@@ -3439,15 +3374,15 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="C67" s="3">
-        <v>2035</v>
+        <v>4007</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>24</v>
@@ -3456,49 +3391,49 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68" s="3" t="s">
-        <v>125</v>
+        <v>213</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C68" s="3">
-        <v>3007</v>
+        <v>1026</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E68" s="6">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="3" t="s">
-        <v>125</v>
+        <v>213</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C69" s="3">
-        <v>4007</v>
+        <v>2034</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E69" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C70" s="3">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>23</v>
@@ -3507,32 +3442,32 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C71" s="3">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E71" s="6">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C72" s="3">
-        <v>1027</v>
+        <v>1032</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>23</v>
@@ -3541,32 +3476,32 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C73" s="3">
-        <v>2033</v>
+        <v>2020</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E73" s="6">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C74" s="3">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>23</v>
@@ -3575,58 +3510,58 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C75" s="3">
-        <v>2020</v>
+        <v>2001</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E75" s="6">
-        <v>44895</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="3" t="s">
-        <v>215</v>
+        <v>121</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="C76" s="3">
-        <v>1030</v>
+        <v>1010</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E76" s="6">
-        <v>44837</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45373</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="3" t="s">
-        <v>215</v>
+        <v>121</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="C77" s="3">
-        <v>2001</v>
+        <v>2037</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E77" s="6">
-        <v>44837</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45509</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="3" t="s">
         <v>121</v>
       </c>
@@ -3643,7 +3578,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" s="3" t="s">
         <v>121</v>
       </c>
@@ -3671,22 +3606,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B548D8A-88F4-48BF-8DA9-473567F1EB6D}">
   <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>106</v>
       </c>
@@ -3703,7 +3638,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>108</v>
       </c>
@@ -3720,7 +3655,7 @@
         <v>45293</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>116</v>
       </c>
@@ -3737,7 +3672,7 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>60</v>
       </c>
@@ -3754,7 +3689,7 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>60</v>
       </c>
@@ -3771,7 +3706,7 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
@@ -3788,7 +3723,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>125</v>
       </c>
@@ -3805,7 +3740,7 @@
         <v>45435</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>123</v>
       </c>
@@ -3822,7 +3757,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>123</v>
       </c>
@@ -3839,7 +3774,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>113</v>
       </c>
@@ -3856,7 +3791,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>113</v>
       </c>
@@ -3873,7 +3808,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>113</v>
       </c>
@@ -3890,7 +3825,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>113</v>
       </c>
@@ -3907,7 +3842,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>113</v>
       </c>
@@ -3924,7 +3859,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
         <v>113</v>
       </c>
@@ -3941,7 +3876,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>113</v>
       </c>
@@ -3958,7 +3893,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
         <v>113</v>
       </c>
@@ -3975,7 +3910,7 @@
         <v>43074</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
         <v>113</v>
       </c>
@@ -3992,7 +3927,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
         <v>133</v>
       </c>
@@ -4000,7 +3935,7 @@
         <v>104</v>
       </c>
       <c r="C19" s="3">
-        <v>21223</v>
+        <v>40006</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>23</v>
@@ -4009,7 +3944,7 @@
         <v>43069</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>133</v>
       </c>
@@ -4017,7 +3952,7 @@
         <v>105</v>
       </c>
       <c r="C20" s="3">
-        <v>40006</v>
+        <v>21223</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>23</v>
@@ -4026,7 +3961,7 @@
         <v>43069</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>126</v>
       </c>
@@ -4043,7 +3978,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
         <v>127</v>
       </c>
@@ -4051,7 +3986,7 @@
         <v>97</v>
       </c>
       <c r="C22" s="3">
-        <v>1031</v>
+        <v>3006</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>23</v>
@@ -4060,100 +3995,100 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>208</v>
+        <v>70</v>
       </c>
       <c r="C23" s="3">
-        <v>3006</v>
+        <v>50042</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="6">
-        <v>45077</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="C24" s="3">
-        <v>50042</v>
+        <v>1043</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="6">
-        <v>45170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="C25" s="3">
-        <v>1043</v>
+        <v>1013</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="6">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C26" s="3">
-        <v>1013</v>
+        <v>30002</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="6">
-        <v>45117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C27" s="3">
-        <v>30002</v>
+        <v>1018</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="6">
-        <v>45306</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C28" s="3">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>23</v>
@@ -4162,49 +4097,49 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C29" s="3">
-        <v>1020</v>
+        <v>1086</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="6">
-        <v>45202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="3" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C30" s="3">
-        <v>1086</v>
+        <v>40005</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="6">
-        <v>45210</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="C31" s="3">
-        <v>40005</v>
+        <v>21220</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>23</v>
@@ -4213,49 +4148,49 @@
         <v>42375</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="3" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="C32" s="3">
-        <v>21220</v>
+        <v>1036</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E32" s="6">
-        <v>42375</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C33" s="3">
-        <v>1036</v>
+        <v>21217</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E33" s="6">
-        <v>44712</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="C34" s="3">
-        <v>21217</v>
+        <v>40001</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>23</v>
@@ -4264,49 +4199,49 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="C35" s="3">
-        <v>40001</v>
+        <v>1006</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="6">
-        <v>43840</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C36" s="3">
-        <v>1006</v>
+        <v>40011</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="6">
-        <v>45351</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42737</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="C37" s="3">
-        <v>40011</v>
+        <v>21226</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>23</v>
@@ -4315,32 +4250,32 @@
         <v>42737</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="3" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C38" s="3">
-        <v>21226</v>
+        <v>1110</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="6">
-        <v>42737</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42954</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C39" s="3">
-        <v>1110</v>
+        <v>40013</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>23</v>
@@ -4349,97 +4284,97 @@
         <v>42954</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C40" s="3">
-        <v>40013</v>
+        <v>21208</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E40" s="6">
-        <v>42954</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C41" s="3">
-        <v>21208</v>
+        <v>1116</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E41" s="6">
-        <v>43007</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="3" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C42" s="3">
-        <v>1116</v>
+        <v>1087</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E42" s="6">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1117</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="6">
         <v>45471</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" s="3">
-        <v>1087</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="6">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="B44" s="3" t="s">
-        <v>152</v>
+        <v>220</v>
       </c>
       <c r="C44" s="3">
-        <v>1117</v>
+        <v>22582</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E44" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C45" s="3">
         <v>22582</v>
@@ -4451,15 +4386,15 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C46" s="3">
-        <v>22582</v>
+        <v>30001</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>23</v>
@@ -4468,12 +4403,12 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C47" s="3">
         <v>30001</v>
@@ -4482,18 +4417,18 @@
         <v>23</v>
       </c>
       <c r="E47" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="3" t="s">
-        <v>109</v>
+        <v>197</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="C48" s="3">
-        <v>30001</v>
+        <v>1125</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>23</v>
@@ -4502,15 +4437,15 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="C49" s="3">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>23</v>
@@ -4519,15 +4454,15 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>199</v>
       </c>
       <c r="C50" s="3">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>23</v>
@@ -4536,15 +4471,15 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>200</v>
       </c>
       <c r="C51" s="3">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>23</v>
@@ -4553,15 +4488,15 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="C52" s="3">
-        <v>1112</v>
+        <v>1134</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>23</v>
@@ -4570,12 +4505,12 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C53" s="3">
         <v>1113</v>
@@ -4587,12 +4522,12 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C54" s="3">
         <v>1115</v>
@@ -4604,12 +4539,12 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C55" s="3">
         <v>1114</v>
@@ -4621,12 +4556,12 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C56" s="3">
         <v>1119</v>
@@ -4638,12 +4573,12 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>217</v>
       </c>
       <c r="C57" s="3">
         <v>1046</v>
@@ -4655,12 +4590,12 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C58" s="3">
         <v>1045</v>
@@ -4672,63 +4607,63 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="3" t="s">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C59" s="3">
-        <v>1046</v>
+        <v>1133</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E59" s="6">
-        <v>44837</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="3" t="s">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C60" s="3">
-        <v>1045</v>
+        <v>1132</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E60" s="6">
-        <v>44837</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="3" t="s">
-        <v>107</v>
+        <v>229</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C61" s="3">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E61" s="13">
-        <v>45477</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C62" s="3">
         <v>1132</v>
@@ -4740,452 +4675,464 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="6"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
+      <c r="A63" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1130</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="6">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:5">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="6"/>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:5">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:5">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="6"/>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:5">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:5">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="6"/>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:5">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:5">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="6"/>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:5">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:5">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:5">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:5">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:5">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:5">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:5">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:5">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:5">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:5">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:5">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:5">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="6"/>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:5">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:5">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="6"/>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:5">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:5">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="6"/>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:5">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="6"/>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:5">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="6"/>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:5">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="6"/>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:5">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="6"/>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:5">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="6"/>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:5">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="6"/>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:5">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:5">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="6"/>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:5">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="6"/>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:5">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="6"/>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:5">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="6"/>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:5">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="6"/>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:5">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="6"/>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:5">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="6"/>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:5">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="6"/>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:5">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="6"/>
     </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:5">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:5">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="6"/>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:5">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="6"/>
     </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:5">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="6"/>
     </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:5">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="6"/>
     </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:5">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="6"/>
     </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:5">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:5">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="6"/>
     </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:5">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="6"/>
     </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:5">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="6"/>
     </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:5">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="6"/>
     </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:5">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="6"/>
     </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:5">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:5">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="6"/>
     </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:5">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:5">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="6"/>
     </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:5">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="6"/>
     </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:5">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="6"/>
     </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:5">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="6"/>
     </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:5">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="6"/>
     </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:5">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="6"/>
     </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:5">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="6"/>
     </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:5">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="6"/>
     </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:5">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="6"/>
     </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:5">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="6"/>
     </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:5">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="6"/>
     </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:5">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="6"/>
     </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:5">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="6"/>
     </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:5">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="6"/>
     </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:5">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="6"/>
     </row>
-    <row r="134" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:5">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="6"/>
     </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:5">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="6"/>
     </row>
-    <row r="136" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:5">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="6"/>
     </row>
-    <row r="137" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:5">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="6"/>
     </row>
-    <row r="138" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:5">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="6"/>
     </row>
-    <row r="139" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:5">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="6"/>
     </row>
-    <row r="140" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:5">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="6"/>
     </row>
-    <row r="141" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:5">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="6"/>
     </row>
-    <row r="142" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:5">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="6"/>
     </row>
-    <row r="143" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:5">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="6"/>
     </row>
-    <row r="144" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:5">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="6"/>
     </row>
-    <row r="145" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:5">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="6"/>
     </row>
-    <row r="146" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:5">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="6"/>
     </row>
-    <row r="147" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:5">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="6"/>
     </row>
-    <row r="148" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:5">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="6"/>
     </row>
-    <row r="149" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:5">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="6"/>
     </row>
-    <row r="150" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:5">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="6"/>
     </row>
-    <row r="151" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:5">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="6"/>
     </row>
-    <row r="152" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:5">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="6"/>
@@ -5198,6 +5145,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9968dc3e-a1f3-41f5-b998-9e98f3d19f76" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="685e8f7b-ce85-439b-962f-3948db74e463">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="9968dc3e-a1f3-41f5-b998-9e98f3d19f76">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="685e8f7b-ce85-439b-962f-3948db74e463" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010029DFE9A47EDBBA4C9642CECEC7AB5212" ma:contentTypeVersion="15" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="7328ff878a8f4dae18a74358abfdf779">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685e8f7b-ce85-439b-962f-3948db74e463" xmlns:ns3="9968dc3e-a1f3-41f5-b998-9e98f3d19f76" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d504a395b7aacda9b17f0d85dc998159" ns2:_="" ns3:_="">
     <xsd:import namespace="685e8f7b-ce85-439b-962f-3948db74e463"/>
@@ -5432,7 +5398,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5441,26 +5407,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9968dc3e-a1f3-41f5-b998-9e98f3d19f76" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="685e8f7b-ce85-439b-962f-3948db74e463">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="9968dc3e-a1f3-41f5-b998-9e98f3d19f76">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="685e8f7b-ce85-439b-962f-3948db74e463" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{358F526D-C9BF-4800-8675-13EA5EBEF839}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="685e8f7b-ce85-439b-962f-3948db74e463"/>
+    <ds:schemaRef ds:uri="9968dc3e-a1f3-41f5-b998-9e98f3d19f76"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13BA50B4-2830-4093-B3A1-0E01A2125F8E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5479,27 +5443,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11E769B2-782A-4CC9-89C8-BE475949AFF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{358F526D-C9BF-4800-8675-13EA5EBEF839}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9968dc3e-a1f3-41f5-b998-9e98f3d19f76"/>
-    <ds:schemaRef ds:uri="685e8f7b-ce85-439b-962f-3948db74e463"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Suporte_Relatorio.xlsx
+++ b/Suporte_Relatorio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ekhofo-my.sharepoint.com/personal/rafael_astolfi_ekhofo_com/Documents/Desktop/relatorio_mensal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="868" documentId="8_{96E81CA7-990A-4452-BFD6-B12F48A36CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20D2139E-AD29-4ECB-BD0F-853BB8C0BD65}"/>
+  <xr:revisionPtr revIDLastSave="1287" documentId="8_{96E81CA7-990A-4452-BFD6-B12F48A36CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03C799D8-9918-4E72-9873-9000758E7954}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="7" xr2:uid="{D83840C6-8BB1-4146-989F-64A28F905889}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{D83840C6-8BB1-4146-989F-64A28F905889}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">classes!$A$1:$E$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">clients_on_off!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'clients_on_off (2)'!$A$1:$D$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'clients_on_off (2)'!$A$1:$D$71</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">clients_onshore!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'clients_onshore (2)'!$A$1:$C$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'clients_onshore (2)'!$A$1:$F$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="289">
   <si>
     <t>Alternativos</t>
   </si>
@@ -190,15 +190,9 @@
     <t>SERGIO TUFIK</t>
   </si>
   <si>
-    <t>ANA CRISTINA DANTAS ROCHA</t>
-  </si>
-  <si>
     <t>FERNANDO ANTONIO IPPOLITO CARBONELL</t>
   </si>
   <si>
-    <t>JOSE CARLOS GIROTTI FURLAN</t>
-  </si>
-  <si>
     <t>CYNTHIA PATRICIA DORES</t>
   </si>
   <si>
@@ -211,9 +205,6 @@
     <t>RICARDO LUIZ DE MACEDO COSTA</t>
   </si>
   <si>
-    <t>RENATA MACHADO VITTI DE OLIVEIRA</t>
-  </si>
-  <si>
     <t>GUSTAVO DORNELLAS TABBAL CHAMATI</t>
   </si>
   <si>
@@ -334,9 +325,6 @@
     <t>BBG Bonds</t>
   </si>
   <si>
-    <t>CARLOS EDUARDO DE ALMEIDA MOYSES_ESPECIAL</t>
-  </si>
-  <si>
     <t>DIOGO LOPES VILELA BERBEL</t>
   </si>
   <si>
@@ -361,9 +349,6 @@
     <t>SERGIO TUFIK_FexExplodido</t>
   </si>
   <si>
-    <t>ROBERTO DAGNONI_ESPECIAL</t>
-  </si>
-  <si>
     <t>ALCEU ANTONIO FORLIN</t>
   </si>
   <si>
@@ -430,18 +415,12 @@
     <t>BERBEL</t>
   </si>
   <si>
-    <t>FURLAN</t>
-  </si>
-  <si>
     <t>GUALBERTO</t>
   </si>
   <si>
     <t>MELINA</t>
   </si>
   <si>
-    <t>VITTI</t>
-  </si>
-  <si>
     <t>TONDELA</t>
   </si>
   <si>
@@ -454,9 +433,6 @@
     <t>FORLIN</t>
   </si>
   <si>
-    <t>GUILHERME PINHO BONIFÁCIO_ESPECIAL</t>
-  </si>
-  <si>
     <t>31/06/2023</t>
   </si>
   <si>
@@ -637,9 +613,6 @@
     <t>GUSTAVO DORNELLAS TABBAL CHAMATI_Especial</t>
   </si>
   <si>
-    <t>REINALDO RABELO DE MORAIS FILHO_Especial</t>
-  </si>
-  <si>
     <t>PAULO PEREIRA CUNHA</t>
   </si>
   <si>
@@ -733,9 +706,6 @@
     <t>ATIVORE</t>
   </si>
   <si>
-    <t>DIOGO LOPES VILELA BERBEL_Especial</t>
-  </si>
-  <si>
     <t>BLUE FIT</t>
   </si>
   <si>
@@ -745,7 +715,208 @@
     <t>JOAO PAULO DE ALMEIDA CUNHA</t>
   </si>
   <si>
-    <t>LUIZ OTAVIO CABRAL PEREIRA CUNHA_GestaoEkho</t>
+    <t>CARLOS EDUARDO DE ALMEIDA MOYSES_Ekho</t>
+  </si>
+  <si>
+    <t>GUILHERME PINHO BONIFÁCIO_Ekho</t>
+  </si>
+  <si>
+    <t>NITAMAR ABDALA_Ekho</t>
+  </si>
+  <si>
+    <t>OSMAR CARDOSO RIBEIRO DO VALLE_Ekho</t>
+  </si>
+  <si>
+    <t>FERNANDO ANTONIO IPPOLITO CARBONELL_Ekho</t>
+  </si>
+  <si>
+    <t>RASEC MANAGEMENT INC - CESAR FEDERMANN_Ekho</t>
+  </si>
+  <si>
+    <t>ROBERTO DAGNONI_Ekho</t>
+  </si>
+  <si>
+    <t>GUILHERME PERES POTENZA_Ekho</t>
+  </si>
+  <si>
+    <t>JUAREZ JOSE ZORTEA_Ekho</t>
+  </si>
+  <si>
+    <t>ALEXANDRE MARCOS KISS SEGUNDO_Ekho</t>
+  </si>
+  <si>
+    <t>ANA JULIA GUIMARAES KISS_Ekho</t>
+  </si>
+  <si>
+    <t>MOACIR ANTONIO MARAFON_Ekho</t>
+  </si>
+  <si>
+    <t>ALEXANDRE PLATZECK LEONARDI_Ekho</t>
+  </si>
+  <si>
+    <t>FELIPE DORES POLLASTRINI_Ekho</t>
+  </si>
+  <si>
+    <t>REINALDO RABELO DE MORAIS FILHO_Ekho</t>
+  </si>
+  <si>
+    <t>RICARDO DIAS MIESKALO SILVA_Ekho</t>
+  </si>
+  <si>
+    <t>ILSON APARECIDO STABILE_Ekho</t>
+  </si>
+  <si>
+    <t>LIANA BARDINI ALVES_Ekho</t>
+  </si>
+  <si>
+    <t>THIAGO ANTONIO MARAFON_Ekho</t>
+  </si>
+  <si>
+    <t>DIOGO LOPES VILELA BERBEL_Ekho</t>
+  </si>
+  <si>
+    <t>ROSANA POTENZA TERNI_Ekho</t>
+  </si>
+  <si>
+    <t>FERNANDO MACHADO TERNI_Ekho</t>
+  </si>
+  <si>
+    <t>RODRIGO POTENZA TERNI_Ekho</t>
+  </si>
+  <si>
+    <t>FLAVIO POTENZA TERNI_Ekho</t>
+  </si>
+  <si>
+    <t>ANTONIO LUCIANO DE CAMARGO FILHO &amp; MARCIA MIYUKI IOSHIHARA_Ekho</t>
+  </si>
+  <si>
+    <t>CHRISTIANE DORES POLLASTRINI_Ekho</t>
+  </si>
+  <si>
+    <t>CYNTHIA PATRICIA DORES_Ekho</t>
+  </si>
+  <si>
+    <t>INGRID KARAM MOYSES_Ekho</t>
+  </si>
+  <si>
+    <t>ANDREA WILLIAM CURY FERREIRA DE AGUIAR ABDALA_Ekho</t>
+  </si>
+  <si>
+    <t>ABDALLA YOUSSEF SKAF_Ekho</t>
+  </si>
+  <si>
+    <t>JOAQUIM FAVORITO BONSI_Ekho</t>
+  </si>
+  <si>
+    <t>RAPHAEL BONSI PENTEADO_Ekho</t>
+  </si>
+  <si>
+    <t>ANA ELOISA FAGA RIBEIRO DO VALLE_Ekho</t>
+  </si>
+  <si>
+    <t>CAIO BORIA DE OLIVEIRA_Ekho</t>
+  </si>
+  <si>
+    <t>CECILIA RIBEIRO DO VALLE BORIA DE OLIVEIRA_Ekho</t>
+  </si>
+  <si>
+    <t>ISADORA RIBEIRO DO VALLE BORIA DE OLIVEIRA_Ekho</t>
+  </si>
+  <si>
+    <t>MARINA RIBEIRO DO VALLE BORIA DE OLIVEIRA_Ekho</t>
+  </si>
+  <si>
+    <t>LUIZA FAGA RIBEIRO DO VALLE_Ekho</t>
+  </si>
+  <si>
+    <t>JOAO ARAUJO E NATASHA ARAUJO_Ekho</t>
+  </si>
+  <si>
+    <t>JANINE ALVARENGA BARBOSA_Ekho</t>
+  </si>
+  <si>
+    <t>ANA HERCILIA SALES GUIMARAES KISS &amp; ALEXANDRE MARCOS KISS_Ekho</t>
+  </si>
+  <si>
+    <t>MELINA TRENTIN &amp; JOSE BORGHI_Ekho</t>
+  </si>
+  <si>
+    <t>FERNANDO MIRANDOLI_Ekho</t>
+  </si>
+  <si>
+    <t>FAMÍLIA DE ARRUDA_Ekho</t>
+  </si>
+  <si>
+    <t>GUILHERME DORES POLLASTRINI_Ekho</t>
+  </si>
+  <si>
+    <t>TONDELA INVESTIMENTOS LTDA_Ekho</t>
+  </si>
+  <si>
+    <t>LIQUIDADO</t>
+  </si>
+  <si>
+    <t>TAUFIK EL HELOU_Ekho</t>
+  </si>
+  <si>
+    <t>MICHEL YANG XIAO_Ekho</t>
+  </si>
+  <si>
+    <t>JAQUELINE LABATE GARCIA POLLASTRINI_Ekho</t>
+  </si>
+  <si>
+    <t>THIAGO GOMES HILARIO DE OLIVEIRA_Ekho</t>
+  </si>
+  <si>
+    <t>PAULO PEREIRA CUNHA_Ekho</t>
+  </si>
+  <si>
+    <t>CARLOS GILBERTO DA CUNHA_Ekho</t>
+  </si>
+  <si>
+    <t>PAULA CABRAL PEREIRA CUNHA_Ekho</t>
+  </si>
+  <si>
+    <t>LUIZ OTAVIO CABRAL PEREIRA CUNHA_Ekho</t>
+  </si>
+  <si>
+    <t>CLAUDIA CABRAL PEREIRA CUNHA DA COSTA_Ekho</t>
+  </si>
+  <si>
+    <t>YONE MARIA CABRAL CUNHA_Ekho</t>
+  </si>
+  <si>
+    <t>ISABELLA COSTA PEREIRA CUNHA_Ekho</t>
+  </si>
+  <si>
+    <t>CARLOS GILBERTO BERGAMINI DA CUNHA_Ekho</t>
+  </si>
+  <si>
+    <t>FLAVIA GAZOTI DEBESSA TERNI_Ekho</t>
+  </si>
+  <si>
+    <t>EUNICE MACHADO TERNI_Ekho</t>
+  </si>
+  <si>
+    <t>ALEXANDRE MARCOS KISS_Ekho</t>
+  </si>
+  <si>
+    <t>ANA HERCILIA SALES GUIMARAES KISS_Ekho</t>
+  </si>
+  <si>
+    <t>JOAO PAULO DE ALMEIDA CUNHA_Ekho</t>
+  </si>
+  <si>
+    <t>SOMENTE OFFSHORE</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>ZECA TRENTIN BORGHI</t>
+  </si>
+  <si>
+    <t>ZECA TRENTIN BORGHI_Ekho</t>
   </si>
 </sst>
 </file>
@@ -756,7 +927,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -794,7 +965,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -817,11 +988,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -836,6 +1018,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1176,19 +1359,19 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12:C16"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.625" customWidth="1"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -1205,7 +1388,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1222,7 +1405,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1239,7 +1422,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1256,7 +1439,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1273,7 +1456,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1281,7 +1464,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
@@ -1290,7 +1473,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1307,7 +1490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1324,7 +1507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1341,7 +1524,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -1358,7 +1541,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -1392,7 +1575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1409,7 +1592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
@@ -1426,7 +1609,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1443,7 +1626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -1460,7 +1643,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -1495,32 +1678,32 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1534,7 +1717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1548,7 +1731,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1559,10 +1742,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1570,13 +1753,13 @@
         <v>0.25</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1590,7 +1773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1617,31 +1800,31 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H6"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1652,10 +1835,10 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1666,10 +1849,10 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1680,10 +1863,10 @@
         <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1694,10 +1877,10 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1708,10 +1891,10 @@
         <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1722,10 +1905,10 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1739,7 +1922,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1750,7 +1933,7 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1765,279 +1948,277 @@
   </sheetPr>
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:B33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>166</v>
-      </c>
-      <c r="B14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>168</v>
-      </c>
-      <c r="B16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>170</v>
-      </c>
-      <c r="B18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>171</v>
-      </c>
-      <c r="B19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>172</v>
-      </c>
-      <c r="B20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>175</v>
-      </c>
-      <c r="B23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>176</v>
-      </c>
-      <c r="B24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>177</v>
-      </c>
-      <c r="B25" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B26" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B27" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B30" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B31" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B33" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2050,27 +2231,27 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C17:C18"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD7"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="49.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="40.75" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>40</v>
@@ -2085,7 +2266,75 @@
         <v>43</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>136</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2039</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="13">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3033</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4014</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6">
+        <v>45546</v>
       </c>
     </row>
   </sheetData>
@@ -2100,7 +2349,7 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2108,20 +2357,20 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
         <v>40</v>
@@ -2136,21 +2385,1528 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>229</v>
+        <v>103</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>230</v>
+        <v>41</v>
       </c>
       <c r="C2" s="3">
+        <v>1002</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6">
+        <v>45293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3055</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6">
+        <v>45293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3009</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3">
+        <v>40011</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6">
+        <v>42737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="3">
+        <v>21226</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="6">
+        <v>42737</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="3">
+        <v>40009</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="6">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="3">
+        <v>21214</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3008</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="6">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1096</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="6">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3013</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="6">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1095</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="6">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3014</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="6">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="3">
+        <v>22365</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="6">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3015</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="6">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1089</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="6">
+        <v>45202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3016</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="6">
+        <v>45202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1091</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="6">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3018</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="6">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="3">
+        <v>22368</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="6">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3020</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="6">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1090</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="6">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3017</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="6">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1092</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="6">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3019</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="6">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="3">
+        <v>40010</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="6">
+        <v>43074</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="3">
+        <v>22801</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="6">
+        <v>45294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1125</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C30" s="3">
+        <v>3030</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1126</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C32" s="3">
+        <v>3025</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1118</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3029</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1112</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C36" s="3">
+        <v>3028</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1113</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C38" s="3">
+        <v>3026</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1115</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C40" s="3">
+        <v>3031</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1114</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C42" s="3">
+        <v>3027</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1119</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C44" s="3">
+        <v>3024</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="6">
+        <v>42954</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C46" s="3">
+        <v>3032</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="6">
+        <v>42954</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="3">
+        <v>40013</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="6">
+        <v>42954</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="3">
+        <v>21208</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="6">
+        <v>43007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="3">
+        <v>40006</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="6">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="3">
+        <v>21223</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="6">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="3">
+        <v>3006</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="6">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="6">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="3">
+        <v>50042</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="6">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C54" s="3">
+        <v>3035</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="6">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C55" s="3">
         <v>1130</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="D55" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="13">
         <v>45504</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C56" s="3">
+        <v>3036</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="13">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1043</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="6">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C58" s="3">
+        <v>3038</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="6">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1133</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="6">
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C60" s="3">
+        <v>3039</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="6">
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1132</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C62" s="3">
+        <v>3041</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1013</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="6">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C64" s="3">
+        <v>3044</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="6">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1108</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="6">
+        <v>43677</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C66" s="3">
+        <v>3045</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="6">
+        <v>43677</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1116</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C68" s="3">
+        <v>3046</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1018</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="6">
+        <v>45202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1020</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="6">
+        <v>45202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C71" s="3">
+        <v>3048</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="6">
+        <v>45202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1086</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="6">
+        <v>45210</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C73" s="3">
+        <v>3050</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" s="6">
+        <v>45210</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1087</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" s="6">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C75" s="3">
+        <v>3051</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" s="6">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C76" s="3">
+        <v>22582</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="6">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C77" s="3">
+        <v>22582</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="6">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C78" s="3">
+        <v>30001</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="6">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C79" s="3">
+        <v>30001</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" s="6">
+        <v>42375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" s="3">
+        <v>40005</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" s="6">
+        <v>42375</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C81" s="3">
+        <v>21220</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" s="6">
+        <v>42375</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1046</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="6">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" s="6">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1045</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" s="6">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C86" s="3">
+        <v>1117</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C87" s="3">
+        <v>3053</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88" s="3">
+        <v>1036</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" s="6">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C89" s="3">
+        <v>3054</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" s="6">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" s="3">
+        <v>21217</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" s="6">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" s="3">
+        <v>40001</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="6">
+        <v>43840</v>
       </c>
     </row>
   </sheetData>
@@ -2163,25 +3919,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CF0191-5EAE-4B06-B5C1-13D30342DEF8}">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E79"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="40.75" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>40</v>
@@ -2196,12 +3952,12 @@
         <v>43</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>25</v>
@@ -2217,9 +3973,9 @@
       </c>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>25</v>
@@ -2235,12 +3991,12 @@
       </c>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C4" s="3">
         <v>1001</v>
@@ -2253,12 +4009,12 @@
       </c>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C5" s="3">
         <v>2000</v>
@@ -2271,12 +4027,12 @@
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="C6" s="3">
         <v>3000</v>
@@ -2289,12 +4045,12 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="C7" s="3">
         <v>4000</v>
@@ -2307,9 +4063,9 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>22</v>
@@ -2325,9 +4081,9 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>22</v>
@@ -2343,12 +4099,12 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C10" s="3">
         <v>1007</v>
@@ -2361,12 +4117,12 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C11" s="3">
         <v>2004</v>
@@ -2379,12 +4135,12 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="C12" s="3">
         <v>3001</v>
@@ -2397,12 +4153,12 @@
       </c>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="C13" s="3">
         <v>4001</v>
@@ -2415,12 +4171,12 @@
       </c>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C14" s="3">
         <v>1120</v>
@@ -2433,12 +4189,12 @@
       </c>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C15" s="3">
         <v>2032</v>
@@ -2451,1152 +4207,1924 @@
       </c>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="C16" s="3">
-        <v>1094</v>
+        <v>3010</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="6">
-        <v>45337</v>
+        <v>45492</v>
       </c>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="C17" s="3">
-        <v>2022</v>
+        <v>4008</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="6">
-        <v>45379</v>
+        <v>45443</v>
       </c>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C18" s="3">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="6">
-        <v>45036</v>
-      </c>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6">
+        <v>45337</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C19" s="3">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="6">
-        <v>45293</v>
+        <v>45379</v>
       </c>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" ht="15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>96</v>
+        <v>224</v>
       </c>
       <c r="C20" s="3">
-        <v>2030</v>
+        <v>3021</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="6">
-        <v>45293</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>45337</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>96</v>
+        <v>224</v>
       </c>
       <c r="C21" s="3">
-        <v>2030</v>
+        <v>4011</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="6">
-        <v>45292</v>
+        <v>45379</v>
       </c>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C22" s="3">
-        <v>1015</v>
+        <v>1097</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="6">
-        <v>44895</v>
+        <v>45036</v>
       </c>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C23" s="3">
-        <v>2014</v>
+        <v>2024</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>135</v>
+      <c r="E23" s="6">
+        <v>45293</v>
       </c>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="C24" s="3">
-        <v>3004</v>
+        <v>3022</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="6">
-        <v>45110</v>
+        <v>45036</v>
       </c>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="C25" s="3">
-        <v>4005</v>
+        <v>4012</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="6">
-        <v>45092</v>
+        <v>45293</v>
       </c>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="C26" s="3">
-        <v>1028</v>
+        <v>2030</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="6">
-        <v>45107</v>
-      </c>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:6">
+        <v>45293</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="C27" s="3">
-        <v>2018</v>
+        <v>2030</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="6">
-        <v>45107</v>
-      </c>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6">
+        <v>45292</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>64</v>
+        <v>226</v>
       </c>
       <c r="C28" s="3">
-        <v>1008</v>
+        <v>4013</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="6">
-        <v>44845</v>
-      </c>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:6">
+        <v>45293</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>64</v>
+        <v>226</v>
       </c>
       <c r="C29" s="3">
-        <v>2008</v>
+        <v>4013</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="6">
-        <v>45036</v>
-      </c>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="1:6">
+        <v>45292</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="C30" s="3">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="6">
-        <v>44845</v>
+        <v>44895</v>
       </c>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="C31" s="3">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="6">
-        <v>45036</v>
+      <c r="E31" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="C32" s="3">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E32" s="6">
-        <v>45169</v>
+        <v>45110</v>
       </c>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="C33" s="3">
-        <v>4004</v>
+        <v>4005</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E33" s="6">
-        <v>45036</v>
+        <v>45092</v>
       </c>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C34" s="3">
-        <v>1105</v>
+        <v>1028</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E34" s="6">
-        <v>45138</v>
+        <v>45107</v>
       </c>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C35" s="3">
-        <v>2028</v>
+        <v>2018</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="6">
-        <v>45015</v>
+        <v>45107</v>
       </c>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C36" s="3">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="6">
-        <v>45204</v>
+        <v>44845</v>
       </c>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C37" s="3">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E37" s="6">
-        <v>45236</v>
+        <v>45036</v>
       </c>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="C38" s="3">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="6">
-        <v>45198</v>
+        <v>44845</v>
       </c>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="C39" s="3">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="6">
-        <v>45383</v>
+        <v>45036</v>
       </c>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>27</v>
+        <v>227</v>
       </c>
       <c r="C40" s="3">
-        <v>1017</v>
+        <v>3003</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E40" s="6">
-        <v>45198</v>
+        <v>45169</v>
       </c>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>27</v>
+        <v>227</v>
       </c>
       <c r="C41" s="3">
-        <v>2017</v>
+        <v>4004</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E41" s="6">
-        <v>45323</v>
+        <v>45036</v>
       </c>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C42" s="3">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E42" s="6">
-        <v>45236</v>
+        <v>45138</v>
       </c>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="3">
-        <v>2025</v>
+        <v>2028</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E43" s="6">
-        <v>45275</v>
+        <v>45015</v>
       </c>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>63</v>
+        <v>228</v>
       </c>
       <c r="C44" s="3">
-        <v>1035</v>
+        <v>3034</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E44" s="6">
-        <v>45078</v>
+        <v>45138</v>
       </c>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>63</v>
+        <v>228</v>
       </c>
       <c r="C45" s="3">
-        <v>2029</v>
+        <v>4015</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E45" s="6">
-        <v>45231</v>
+        <v>45015</v>
       </c>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C46" s="3">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E46" s="6">
-        <v>44985</v>
+        <v>45204</v>
       </c>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C47" s="3">
-        <v>4003</v>
+        <v>2019</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E47" s="6">
-        <v>44987</v>
+        <v>45236</v>
       </c>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>49</v>
+        <v>229</v>
       </c>
       <c r="C48" s="3">
-        <v>1021</v>
+        <v>3037</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E48" s="6">
-        <v>44985</v>
+        <v>45204</v>
       </c>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>49</v>
+        <v>229</v>
       </c>
       <c r="C49" s="3">
-        <v>4002</v>
+        <v>4016</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E49" s="6">
-        <v>44987</v>
+        <v>45236</v>
       </c>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="C50" s="3">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E50" s="6">
-        <v>45121</v>
+        <v>45198</v>
       </c>
       <c r="F50" s="9"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="C51" s="3">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E51" s="6">
-        <v>45240</v>
+        <v>45383</v>
       </c>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="C52" s="3">
-        <v>1011</v>
+        <v>3040</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E52" s="6">
-        <v>45009</v>
+        <v>45198</v>
       </c>
       <c r="F52" s="9"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="C53" s="3">
-        <v>2011</v>
+        <v>4017</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E53" s="6">
-        <v>45069</v>
+        <v>45383</v>
       </c>
       <c r="F53" s="9"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="C54" s="3">
-        <v>3002</v>
+        <v>1017</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E54" s="6">
-        <v>45173</v>
+        <v>45198</v>
       </c>
       <c r="F54" s="9"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="C55" s="3">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E55" s="6">
-        <v>45069</v>
+        <v>45323</v>
       </c>
       <c r="F55" s="9"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="C56" s="3">
-        <v>1003</v>
+        <v>3042</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E56" s="6">
-        <v>45196</v>
+        <v>45198</v>
       </c>
       <c r="F56" s="9"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="C57" s="3">
-        <v>2003</v>
+        <v>4018</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E57" s="6">
-        <v>45344</v>
+        <v>45323</v>
       </c>
       <c r="F57" s="9"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C58" s="3">
-        <v>2031</v>
+        <v>1103</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E58" s="6">
-        <v>45385</v>
-      </c>
-      <c r="F58" s="9"/>
-    </row>
-    <row r="59" spans="1:6">
+        <v>45236</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C59" s="3">
-        <v>2031</v>
+        <v>2025</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E59" s="6">
-        <v>45385</v>
+        <v>45275</v>
       </c>
       <c r="F59" s="9"/>
     </row>
-    <row r="60" spans="1:6" ht="15">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>140</v>
+        <v>232</v>
       </c>
       <c r="C60" s="3">
-        <v>1037</v>
+        <v>1103</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E60" s="6">
-        <v>45082</v>
+        <v>45236</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>140</v>
+        <v>232</v>
       </c>
       <c r="C61" s="3">
-        <v>2036</v>
+        <v>2025</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E61" s="6">
-        <v>45471</v>
+        <v>45275</v>
       </c>
       <c r="F61" s="9"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="C62" s="3">
-        <v>50100</v>
+        <v>1035</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E62" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="C63" s="3">
-        <v>50100</v>
+        <v>2029</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E63" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>95</v>
+        <v>233</v>
       </c>
       <c r="C64" s="3">
-        <v>1040</v>
+        <v>3011</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E64" s="6">
-        <v>45443</v>
+        <v>45078</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>95</v>
+        <v>233</v>
       </c>
       <c r="C65" s="3">
-        <v>2035</v>
+        <v>4009</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E65" s="6">
-        <v>45471</v>
+        <v>45231</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="C66" s="3">
-        <v>3007</v>
+        <v>1022</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E66" s="6">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="C67" s="3">
-        <v>4007</v>
+        <v>4003</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E67" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>44987</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>213</v>
+        <v>104</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C68" s="3">
-        <v>1026</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="C68" s="3"/>
       <c r="D68" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E68" s="6">
-        <v>44837</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>213</v>
+        <v>104</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C69" s="3">
-        <v>2034</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="C69" s="3"/>
       <c r="D69" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E69" s="6">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>44987</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>213</v>
+        <v>104</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>217</v>
+        <v>47</v>
       </c>
       <c r="C70" s="3">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E70" s="6">
-        <v>44837</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>213</v>
+        <v>104</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>217</v>
+        <v>47</v>
       </c>
       <c r="C71" s="3">
-        <v>2033</v>
+        <v>4002</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E71" s="6">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>44987</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>213</v>
+        <v>104</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C72" s="3">
-        <v>1032</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="C72" s="3"/>
       <c r="D72" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E72" s="6">
-        <v>44837</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>213</v>
+        <v>104</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C73" s="3">
-        <v>2020</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="C73" s="3"/>
       <c r="D73" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E73" s="6">
-        <v>44895</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>44987</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>213</v>
+        <v>104</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c r="C74" s="3">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E74" s="6">
-        <v>44837</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>45121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>213</v>
+        <v>104</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c r="C75" s="3">
-        <v>2001</v>
+        <v>2023</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E75" s="6">
-        <v>44837</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>45240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="C76" s="3">
-        <v>1010</v>
+        <v>3049</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E76" s="6">
-        <v>45373</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>45121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="C77" s="3">
-        <v>2037</v>
+        <v>4021</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E77" s="6">
-        <v>45509</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>45240</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C78" s="3">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E78" s="6">
-        <v>45373</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C79" s="3">
-        <v>2037</v>
+        <v>2011</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E79" s="6">
+        <v>45069</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C80" s="3">
+        <v>3002</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" s="6">
+        <v>45173</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C81" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" s="6">
+        <v>45069</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1003</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="6">
+        <v>45196</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" s="3">
+        <v>2003</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="6">
+        <v>45344</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C84" s="3">
+        <v>3052</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" s="6">
+        <v>45196</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C85" s="3">
+        <v>4022</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="6">
+        <v>45344</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C86" s="3">
+        <v>2031</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" s="6">
+        <v>45385</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C87" s="3">
+        <v>2031</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="6">
+        <v>45385</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" s="6">
+        <v>45385</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E89" s="6">
+        <v>45385</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1037</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" s="6">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" s="3">
+        <v>2036</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C92" s="3">
+        <v>3043</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="6">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C93" s="3">
+        <v>4019</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C94" s="3">
+        <v>50100</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C95" s="3">
+        <v>50100</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1040</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98" s="6">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" s="3">
+        <v>2035</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C100" s="3">
+        <v>3007</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" s="6">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C101" s="3">
+        <v>4007</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1026</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" s="6">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C103" s="3">
+        <v>2034</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" s="6">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C104" s="3">
+        <v>1026</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E104" s="6">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C105" s="3">
+        <v>2034</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" s="6">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C106" s="3">
+        <v>1027</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E106" s="6">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C107" s="3">
+        <v>2033</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="6">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E108" s="6">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" s="6">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C110" s="3">
+        <v>1032</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E110" s="6">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C111" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E111" s="6">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E112" s="6">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E113" s="6">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1030</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E114" s="6">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C115" s="3">
+        <v>2001</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E115" s="6">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E116" s="6">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E117" s="6">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C118" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E118" s="6">
+        <v>45373</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C119" s="3">
+        <v>2037</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E119" s="6">
         <v>45509</v>
       </c>
     </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C120" s="3">
+        <v>3012</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E120" s="6">
+        <v>45373</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C121" s="3">
+        <v>4010</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E121" s="6">
+        <v>45509</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C122" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E122" s="6">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C123" s="3">
+        <v>2039</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E123" s="13">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C124" s="3">
+        <v>3033</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E124" s="6">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C125" s="3">
+        <v>4014</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E125" s="6">
+        <v>45546</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D49" xr:uid="{FDD9564B-AAE5-4B8B-854B-0D27C6086BCC}"/>
+  <autoFilter ref="A1:D71" xr:uid="{FDD9564B-AAE5-4B8B-854B-0D27C6086BCC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3604,26 +6132,26 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B548D8A-88F4-48BF-8DA9-473567F1EB6D}">
-  <dimension ref="A1:E152"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E63"/>
+      <selection pane="bottomLeft" activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
         <v>40</v>
@@ -3638,9 +6166,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>41</v>
@@ -3655,236 +6183,242 @@
         <v>45293</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="C3" s="3">
+        <v>3055</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6">
+        <v>45293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="3">
         <v>1111</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6">
         <v>44743</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3009</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3">
+        <v>40011</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6">
+        <v>42737</v>
+      </c>
+      <c r="F6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="3">
+        <v>21226</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="6">
+        <v>42737</v>
+      </c>
+      <c r="F7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="3">
         <v>40009</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="6">
         <v>44928</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="3">
         <v>21214</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6">
         <v>44928</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1034</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="6">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1040</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="6">
-        <v>45435</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3008</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="6">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="3">
         <v>1096</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="6">
         <v>44942</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3013</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="6">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="3">
         <v>1095</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="6">
         <v>44949</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3014</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="6">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="3">
         <v>22365</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="6">
         <v>45195</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1089</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="6">
-        <v>45202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="3">
-        <v>30022</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="6">
-        <v>45392</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1091</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="6">
-        <v>45392</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="3">
-        <v>22368</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="6">
-        <v>45195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1090</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="6">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>72</v>
+        <v>253</v>
       </c>
       <c r="C16" s="3">
-        <v>22353</v>
+        <v>3015</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>23</v>
@@ -3893,134 +6427,134 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C17" s="3">
-        <v>40010</v>
+        <v>1089</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="6">
-        <v>43074</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>45202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>84</v>
+        <v>254</v>
       </c>
       <c r="C18" s="3">
-        <v>22801</v>
+        <v>3016</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="6">
-        <v>45294</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>45202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="C19" s="3">
-        <v>40006</v>
+        <v>1091</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="6">
-        <v>43069</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>105</v>
+        <v>256</v>
       </c>
       <c r="C20" s="3">
-        <v>21223</v>
+        <v>3018</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="6">
-        <v>43069</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C21" s="3">
-        <v>50007</v>
+        <v>22368</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="6">
-        <v>45200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>97</v>
+        <v>257</v>
       </c>
       <c r="C22" s="3">
-        <v>3006</v>
+        <v>3020</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="6">
-        <v>45077</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C23" s="3">
-        <v>50042</v>
+        <v>1090</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="6">
-        <v>45170</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="C24" s="3">
-        <v>1043</v>
+        <v>3017</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>23</v>
@@ -4029,287 +6563,287 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C25" s="3">
-        <v>1013</v>
+        <v>1092</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="6">
-        <v>45117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>57</v>
+        <v>258</v>
       </c>
       <c r="C26" s="3">
-        <v>30002</v>
+        <v>3019</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="6">
-        <v>45306</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="3">
-        <v>1018</v>
+        <v>40010</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="6">
-        <v>45202</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>43074</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>1020</v>
+        <v>22801</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="6">
-        <v>45202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>45294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>67</v>
+        <v>187</v>
       </c>
       <c r="C29" s="3">
-        <v>1086</v>
+        <v>1125</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="6">
-        <v>45210</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>52</v>
+        <v>272</v>
       </c>
       <c r="C30" s="3">
-        <v>40005</v>
+        <v>3030</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="6">
-        <v>42375</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="C31" s="3">
-        <v>21220</v>
+        <v>1126</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E31" s="6">
-        <v>42375</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>29</v>
+        <v>273</v>
       </c>
       <c r="C32" s="3">
-        <v>1036</v>
+        <v>3025</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E32" s="6">
-        <v>44712</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="C33" s="3">
-        <v>21217</v>
+        <v>1118</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E33" s="6">
-        <v>43840</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>102</v>
+        <v>274</v>
       </c>
       <c r="C34" s="3">
-        <v>40001</v>
+        <v>3029</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E34" s="6">
-        <v>43840</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>53</v>
+        <v>191</v>
       </c>
       <c r="C35" s="3">
-        <v>1006</v>
+        <v>1112</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="6">
-        <v>45351</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="C36" s="3">
-        <v>40011</v>
+        <v>3028</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="6">
-        <v>42737</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="C37" s="3">
-        <v>21226</v>
+        <v>1113</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="6">
-        <v>42737</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>145</v>
+        <v>276</v>
       </c>
       <c r="C38" s="3">
-        <v>1110</v>
+        <v>3026</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="6">
-        <v>42954</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="C39" s="3">
-        <v>40013</v>
+        <v>1115</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E39" s="6">
-        <v>42954</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>147</v>
+        <v>277</v>
       </c>
       <c r="C40" s="3">
-        <v>21208</v>
+        <v>3031</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E40" s="6">
-        <v>43007</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="C41" s="3">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>23</v>
@@ -4318,32 +6852,32 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>150</v>
+        <v>278</v>
       </c>
       <c r="C42" s="3">
-        <v>1087</v>
+        <v>3027</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E42" s="6">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="C43" s="3">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>23</v>
@@ -4352,267 +6886,267 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C44" s="3">
+        <v>3024</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="6">
+        <v>42954</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C46" s="3">
+        <v>3032</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="6">
+        <v>42954</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="3">
+        <v>40013</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="6">
+        <v>42954</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="3">
+        <v>21208</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="6">
+        <v>43007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="3">
+        <v>40006</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="6">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="3">
+        <v>21223</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="6">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="3">
+        <v>3006</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="6">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="6">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="3">
+        <v>50042</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="6">
+        <v>45170</v>
+      </c>
+      <c r="F53" s="14"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C54" s="3">
+        <v>3035</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="6">
+        <v>45170</v>
+      </c>
+      <c r="F54" s="14"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C44" s="3">
-        <v>22582</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="6">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="3">
-        <v>22582</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="6">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C46" s="3">
-        <v>30001</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="6">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="3">
-        <v>30001</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="6">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C48" s="3">
-        <v>1125</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C49" s="3">
-        <v>1126</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C50" s="3">
-        <v>1118</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C51" s="3">
-        <v>1112</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C52" s="3">
-        <v>1134</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C53" s="3">
-        <v>1113</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C54" s="3">
-        <v>1115</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E54" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="C55" s="3">
-        <v>1114</v>
+        <v>1130</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E55" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="E55" s="13">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>212</v>
+        <v>219</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>284</v>
       </c>
       <c r="C56" s="3">
-        <v>1119</v>
+        <v>3036</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E56" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="E56" s="13">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B57" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1043</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="6">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C58" s="3">
+        <v>3038</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="6">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="C57" s="3">
-        <v>1046</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" s="6">
-        <v>44837</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C58" s="3">
-        <v>1045</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E58" s="6">
-        <v>44837</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="C59" s="3">
         <v>1133</v>
@@ -4624,49 +7158,49 @@
         <v>45477</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="C60" s="3">
+        <v>3039</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="6">
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C61" s="3">
         <v>1132</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E60" s="6">
+      <c r="D61" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="6">
         <v>45471</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C61" s="3">
-        <v>1130</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" s="13">
-        <v>45504</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="C62" s="3">
-        <v>1132</v>
+        <v>3041</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>23</v>
@@ -4675,495 +7209,503 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>229</v>
+        <v>122</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>230</v>
+        <v>72</v>
       </c>
       <c r="C63" s="3">
-        <v>1130</v>
+        <v>1013</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E63" s="6">
-        <v>45504</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="6"/>
-    </row>
-    <row r="65" spans="3:5">
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="6"/>
-    </row>
-    <row r="66" spans="3:5">
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="6"/>
-    </row>
-    <row r="67" spans="3:5">
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="6"/>
-    </row>
-    <row r="68" spans="3:5">
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="6"/>
-    </row>
-    <row r="69" spans="3:5">
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="6"/>
-    </row>
-    <row r="70" spans="3:5">
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="6"/>
-    </row>
-    <row r="71" spans="3:5">
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="6"/>
-    </row>
-    <row r="72" spans="3:5">
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="6"/>
-    </row>
-    <row r="73" spans="3:5">
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="6"/>
-    </row>
-    <row r="74" spans="3:5">
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="6"/>
-    </row>
-    <row r="75" spans="3:5">
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="6"/>
-    </row>
-    <row r="76" spans="3:5">
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="6"/>
-    </row>
-    <row r="77" spans="3:5">
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="6"/>
-    </row>
-    <row r="78" spans="3:5">
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="6"/>
-    </row>
-    <row r="79" spans="3:5">
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="6"/>
-    </row>
-    <row r="80" spans="3:5">
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="6"/>
-    </row>
-    <row r="81" spans="3:5">
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="6"/>
-    </row>
-    <row r="82" spans="3:5">
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="6"/>
-    </row>
-    <row r="83" spans="3:5">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C64" s="3">
+        <v>3044</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="6">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1108</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="6">
+        <v>43677</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C66" s="3">
+        <v>3045</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="6">
+        <v>43677</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1116</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C68" s="3">
+        <v>3046</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1018</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="6">
+        <v>45202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1020</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="6">
+        <v>45202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C71" s="3">
+        <v>3048</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="6">
+        <v>45202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1086</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="6">
+        <v>45210</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C73" s="3">
+        <v>3050</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" s="6">
+        <v>45210</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1087</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" s="6">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C75" s="3">
+        <v>3051</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" s="6">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C76" s="3">
+        <v>22582</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="6">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C77" s="3">
+        <v>22582</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="6">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C78" s="3">
+        <v>30001</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="6">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C79" s="3">
+        <v>30001</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" s="6">
+        <v>42375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" s="3">
+        <v>40005</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" s="6">
+        <v>42375</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C81" s="3">
+        <v>21220</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" s="6">
+        <v>42375</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1046</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="6">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>280</v>
+      </c>
       <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="6"/>
-    </row>
-    <row r="84" spans="3:5">
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="6"/>
-    </row>
-    <row r="85" spans="3:5">
+      <c r="D83" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" s="6">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1045</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" s="6">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>281</v>
+      </c>
       <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="6"/>
-    </row>
-    <row r="86" spans="3:5">
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="6"/>
-    </row>
-    <row r="87" spans="3:5">
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="6"/>
-    </row>
-    <row r="88" spans="3:5">
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="6"/>
-    </row>
-    <row r="89" spans="3:5">
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="6"/>
-    </row>
-    <row r="90" spans="3:5">
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="6"/>
-    </row>
-    <row r="91" spans="3:5">
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="6"/>
-    </row>
-    <row r="92" spans="3:5">
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="6"/>
-    </row>
-    <row r="93" spans="3:5">
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="6"/>
-    </row>
-    <row r="94" spans="3:5">
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="6"/>
-    </row>
-    <row r="95" spans="3:5">
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="6"/>
-    </row>
-    <row r="96" spans="3:5">
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="6"/>
-    </row>
-    <row r="97" spans="3:5">
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="6"/>
-    </row>
-    <row r="98" spans="3:5">
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="6"/>
-    </row>
-    <row r="99" spans="3:5">
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="6"/>
-    </row>
-    <row r="100" spans="3:5">
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="6"/>
-    </row>
-    <row r="101" spans="3:5">
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="6"/>
-    </row>
-    <row r="102" spans="3:5">
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="6"/>
-    </row>
-    <row r="103" spans="3:5">
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="6"/>
-    </row>
-    <row r="104" spans="3:5">
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="6"/>
-    </row>
-    <row r="105" spans="3:5">
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="6"/>
-    </row>
-    <row r="106" spans="3:5">
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="6"/>
-    </row>
-    <row r="107" spans="3:5">
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="6"/>
-    </row>
-    <row r="108" spans="3:5">
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="6"/>
-    </row>
-    <row r="109" spans="3:5">
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="6"/>
-    </row>
-    <row r="110" spans="3:5">
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="6"/>
-    </row>
-    <row r="111" spans="3:5">
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="6"/>
-    </row>
-    <row r="112" spans="3:5">
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="6"/>
-    </row>
-    <row r="113" spans="3:5">
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="6"/>
-    </row>
-    <row r="114" spans="3:5">
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="6"/>
-    </row>
-    <row r="115" spans="3:5">
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="6"/>
-    </row>
-    <row r="116" spans="3:5">
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="6"/>
-    </row>
-    <row r="117" spans="3:5">
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="6"/>
-    </row>
-    <row r="118" spans="3:5">
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="6"/>
-    </row>
-    <row r="119" spans="3:5">
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="6"/>
-    </row>
-    <row r="120" spans="3:5">
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="6"/>
-    </row>
-    <row r="121" spans="3:5">
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="6"/>
-    </row>
-    <row r="122" spans="3:5">
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="6"/>
-    </row>
-    <row r="123" spans="3:5">
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="6"/>
-    </row>
-    <row r="124" spans="3:5">
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="6"/>
-    </row>
-    <row r="125" spans="3:5">
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="6"/>
-    </row>
-    <row r="126" spans="3:5">
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="6"/>
-    </row>
-    <row r="127" spans="3:5">
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="6"/>
-    </row>
-    <row r="128" spans="3:5">
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="6"/>
-    </row>
-    <row r="129" spans="3:5">
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="6"/>
-    </row>
-    <row r="130" spans="3:5">
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="6"/>
-    </row>
-    <row r="131" spans="3:5">
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="6"/>
-    </row>
-    <row r="132" spans="3:5">
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="6"/>
-    </row>
-    <row r="133" spans="3:5">
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="6"/>
-    </row>
-    <row r="134" spans="3:5">
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="6"/>
-    </row>
-    <row r="135" spans="3:5">
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="6"/>
-    </row>
-    <row r="136" spans="3:5">
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="6"/>
-    </row>
-    <row r="137" spans="3:5">
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="6"/>
-    </row>
-    <row r="138" spans="3:5">
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="6"/>
-    </row>
-    <row r="139" spans="3:5">
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="6"/>
-    </row>
-    <row r="140" spans="3:5">
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="6"/>
-    </row>
-    <row r="141" spans="3:5">
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="6"/>
-    </row>
-    <row r="142" spans="3:5">
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="6"/>
-    </row>
-    <row r="143" spans="3:5">
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="6"/>
-    </row>
-    <row r="144" spans="3:5">
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="6"/>
-    </row>
-    <row r="145" spans="3:5">
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="6"/>
-    </row>
-    <row r="146" spans="3:5">
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="6"/>
-    </row>
-    <row r="147" spans="3:5">
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="6"/>
-    </row>
-    <row r="148" spans="3:5">
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="6"/>
-    </row>
-    <row r="149" spans="3:5">
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="6"/>
-    </row>
-    <row r="150" spans="3:5">
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="6"/>
-    </row>
-    <row r="151" spans="3:5">
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="6"/>
-    </row>
-    <row r="152" spans="3:5">
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="6"/>
+      <c r="D85" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C86" s="3">
+        <v>1117</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C87" s="3">
+        <v>3053</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88" s="3">
+        <v>1036</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" s="6">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C89" s="3">
+        <v>3054</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" s="6">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" s="3">
+        <v>21217</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" s="6">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" s="3">
+        <v>40001</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="6">
+        <v>43840</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C58" xr:uid="{A787322A-5B17-4E1F-B960-30BFFEBBD83A}"/>
+  <autoFilter ref="A1:F91" xr:uid="{5B548D8A-88F4-48BF-8DA9-473567F1EB6D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9968dc3e-a1f3-41f5-b998-9e98f3d19f76" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="685e8f7b-ce85-439b-962f-3948db74e463">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="9968dc3e-a1f3-41f5-b998-9e98f3d19f76">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="685e8f7b-ce85-439b-962f-3948db74e463" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010029DFE9A47EDBBA4C9642CECEC7AB5212" ma:contentTypeVersion="15" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="7328ff878a8f4dae18a74358abfdf779">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685e8f7b-ce85-439b-962f-3948db74e463" xmlns:ns3="9968dc3e-a1f3-41f5-b998-9e98f3d19f76" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d504a395b7aacda9b17f0d85dc998159" ns2:_="" ns3:_="">
     <xsd:import namespace="685e8f7b-ce85-439b-962f-3948db74e463"/>
@@ -5398,6 +7940,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9968dc3e-a1f3-41f5-b998-9e98f3d19f76" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="685e8f7b-ce85-439b-962f-3948db74e463">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="9968dc3e-a1f3-41f5-b998-9e98f3d19f76">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="685e8f7b-ce85-439b-962f-3948db74e463" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5408,23 +7969,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{358F526D-C9BF-4800-8675-13EA5EBEF839}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="685e8f7b-ce85-439b-962f-3948db74e463"/>
-    <ds:schemaRef ds:uri="9968dc3e-a1f3-41f5-b998-9e98f3d19f76"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13BA50B4-2830-4093-B3A1-0E01A2125F8E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5443,6 +7987,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{358F526D-C9BF-4800-8675-13EA5EBEF839}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="685e8f7b-ce85-439b-962f-3948db74e463"/>
+    <ds:schemaRef ds:uri="9968dc3e-a1f3-41f5-b998-9e98f3d19f76"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11E769B2-782A-4CC9-89C8-BE475949AFF9}">
   <ds:schemaRefs>

--- a/Suporte_Relatorio.xlsx
+++ b/Suporte_Relatorio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ekhofo-my.sharepoint.com/personal/rafael_astolfi_ekhofo_com/Documents/Desktop/relatorio_mensal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1287" documentId="8_{96E81CA7-990A-4452-BFD6-B12F48A36CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03C799D8-9918-4E72-9873-9000758E7954}"/>
+  <xr:revisionPtr revIDLastSave="1308" documentId="8_{96E81CA7-990A-4452-BFD6-B12F48A36CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{144E4F79-71CF-45AE-809F-D3DAD3058A84}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{D83840C6-8BB1-4146-989F-64A28F905889}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="7" xr2:uid="{D83840C6-8BB1-4146-989F-64A28F905889}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="292">
   <si>
     <t>Alternativos</t>
   </si>
@@ -917,6 +917,15 @@
   </si>
   <si>
     <t>ZECA TRENTIN BORGHI_Ekho</t>
+  </si>
+  <si>
+    <t>TARIK FERREIRA DE AGUIAR ABDALA</t>
+  </si>
+  <si>
+    <t>ALEK FERREIRA DE AGUIAR ABDALA</t>
+  </si>
+  <si>
+    <t>MARK FERREIRA DE AGUIAR ABDALA</t>
   </si>
 </sst>
 </file>
@@ -2233,7 +2242,7 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C17:C18"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
@@ -3922,9 +3931,9 @@
   <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5836,7 +5845,9 @@
       <c r="B108" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C108" s="3"/>
+      <c r="C108" s="3">
+        <v>3058</v>
+      </c>
       <c r="D108" s="3" t="s">
         <v>23</v>
       </c>
@@ -5851,7 +5862,9 @@
       <c r="B109" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C109" s="3"/>
+      <c r="C109" s="3">
+        <v>4025</v>
+      </c>
       <c r="D109" s="3" t="s">
         <v>24</v>
       </c>
@@ -5900,7 +5913,9 @@
       <c r="B112" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C112" s="3"/>
+      <c r="C112" s="3">
+        <v>3057</v>
+      </c>
       <c r="D112" s="3" t="s">
         <v>23</v>
       </c>
@@ -5915,7 +5930,9 @@
       <c r="B113" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C113" s="3"/>
+      <c r="C113" s="3">
+        <v>4024</v>
+      </c>
       <c r="D113" s="3" t="s">
         <v>24</v>
       </c>
@@ -5964,7 +5981,9 @@
       <c r="B116" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C116" s="3"/>
+      <c r="C116" s="3">
+        <v>3056</v>
+      </c>
       <c r="D116" s="3" t="s">
         <v>23</v>
       </c>
@@ -5979,7 +5998,9 @@
       <c r="B117" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C117" s="3"/>
+      <c r="C117" s="3">
+        <v>4023</v>
+      </c>
       <c r="D117" s="3" t="s">
         <v>24</v>
       </c>
@@ -6132,12 +6153,12 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B548D8A-88F4-48BF-8DA9-473567F1EB6D}">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft" activeCell="A91" sqref="A91"/>
+      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7556,7 +7577,9 @@
       <c r="B83" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C83" s="3"/>
+      <c r="C83" s="3">
+        <v>3060</v>
+      </c>
       <c r="D83" s="3" t="s">
         <v>23</v>
       </c>
@@ -7588,7 +7611,9 @@
       <c r="B85" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C85" s="3"/>
+      <c r="C85" s="3">
+        <v>3059</v>
+      </c>
       <c r="D85" s="3" t="s">
         <v>23</v>
       </c>
@@ -7697,6 +7722,78 @@
       <c r="E91" s="6">
         <v>43840</v>
       </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1148</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="6">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1147</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="6">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C94" s="3">
+        <v>1146</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="6">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="6"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="6"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F91" xr:uid="{5B548D8A-88F4-48BF-8DA9-473567F1EB6D}"/>
@@ -7706,6 +7803,34 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9968dc3e-a1f3-41f5-b998-9e98f3d19f76" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="685e8f7b-ce85-439b-962f-3948db74e463">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="9968dc3e-a1f3-41f5-b998-9e98f3d19f76">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="685e8f7b-ce85-439b-962f-3948db74e463" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010029DFE9A47EDBBA4C9642CECEC7AB5212" ma:contentTypeVersion="15" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="7328ff878a8f4dae18a74358abfdf779">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685e8f7b-ce85-439b-962f-3948db74e463" xmlns:ns3="9968dc3e-a1f3-41f5-b998-9e98f3d19f76" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d504a395b7aacda9b17f0d85dc998159" ns2:_="" ns3:_="">
     <xsd:import namespace="685e8f7b-ce85-439b-962f-3948db74e463"/>
@@ -7940,49 +8065,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9968dc3e-a1f3-41f5-b998-9e98f3d19f76" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="685e8f7b-ce85-439b-962f-3948db74e463">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="9968dc3e-a1f3-41f5-b998-9e98f3d19f76">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="685e8f7b-ce85-439b-962f-3948db74e463" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13BA50B4-2830-4093-B3A1-0E01A2125F8E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11E769B2-782A-4CC9-89C8-BE475949AFF9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="685e8f7b-ce85-439b-962f-3948db74e463"/>
-    <ds:schemaRef ds:uri="9968dc3e-a1f3-41f5-b998-9e98f3d19f76"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8005,9 +8091,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11E769B2-782A-4CC9-89C8-BE475949AFF9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13BA50B4-2830-4093-B3A1-0E01A2125F8E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="685e8f7b-ce85-439b-962f-3948db74e463"/>
+    <ds:schemaRef ds:uri="9968dc3e-a1f3-41f5-b998-9e98f3d19f76"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Suporte_Relatorio.xlsx
+++ b/Suporte_Relatorio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ekhofo-my.sharepoint.com/personal/rafael_astolfi_ekhofo_com/Documents/Desktop/relatorio_mensal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1308" documentId="8_{96E81CA7-990A-4452-BFD6-B12F48A36CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{144E4F79-71CF-45AE-809F-D3DAD3058A84}"/>
+  <xr:revisionPtr revIDLastSave="1355" documentId="8_{96E81CA7-990A-4452-BFD6-B12F48A36CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CD4E950-DB0B-4A5F-8377-E10D36E40696}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="7" xr2:uid="{D83840C6-8BB1-4146-989F-64A28F905889}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{D83840C6-8BB1-4146-989F-64A28F905889}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="292">
   <si>
     <t>Alternativos</t>
   </si>
@@ -1012,7 +1012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1028,6 +1028,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2240,12 +2242,12 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C18" sqref="C17:C18"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection activeCell="B71" sqref="A70:XFD71"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2255,10 +2257,10 @@
     <col min="5" max="5" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>101</v>
       </c>
@@ -2278,72 +2280,111 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3">
-        <v>1100</v>
+        <v>1022</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="6">
-        <v>45306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C3" s="3">
-        <v>2039</v>
+        <v>4003</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="13">
-        <v>45546</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="6">
+        <v>44987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>263</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3">
-        <v>3033</v>
+        <v>1021</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="6">
-        <v>45306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>263</v>
+        <v>47</v>
       </c>
       <c r="C5" s="3">
-        <v>4014</v>
+        <v>4002</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="6">
-        <v>45546</v>
+        <v>44987</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1023</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6">
+        <v>45121</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="6">
+        <v>45240</v>
       </c>
     </row>
   </sheetData>
@@ -2358,12 +2399,12 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C18" sqref="C17:C18"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection activeCell="B71" sqref="A70:XFD71"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2375,9 +2416,10 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -2394,1532 +2436,60 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>212</v>
       </c>
       <c r="C2" s="3">
-        <v>1002</v>
+        <v>22582</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="6">
-        <v>45293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="C3" s="3">
-        <v>3055</v>
+        <v>30001</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="6">
-        <v>45293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45443</v>
+      </c>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="C4" s="3">
-        <v>1111</v>
+        <v>30001</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="6">
-        <v>44743</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3009</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="6">
-        <v>44743</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="3">
-        <v>40011</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="6">
-        <v>42737</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="3">
-        <v>21226</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="6">
-        <v>42737</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="3">
-        <v>40009</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="6">
-        <v>44928</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="3">
-        <v>21214</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6">
-        <v>44928</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3008</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="6">
-        <v>44928</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1096</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="6">
-        <v>44942</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C12" s="3">
-        <v>3013</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="6">
-        <v>44942</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1095</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="6">
-        <v>44949</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C14" s="3">
-        <v>3014</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="6">
-        <v>44949</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="3">
-        <v>22365</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="6">
-        <v>45195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C16" s="3">
-        <v>3015</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="6">
-        <v>45195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1089</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="6">
-        <v>45202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C18" s="3">
-        <v>3016</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="6">
-        <v>45202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1091</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="6">
-        <v>45392</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C20" s="3">
-        <v>3018</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="6">
-        <v>45392</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="3">
-        <v>22368</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="6">
-        <v>45195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C22" s="3">
-        <v>3020</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="6">
-        <v>45195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1090</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="6">
         <v>45443</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C24" s="3">
-        <v>3017</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="6">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1092</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="6">
-        <v>45195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C26" s="3">
-        <v>3019</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="6">
-        <v>45195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="3">
-        <v>40010</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="6">
-        <v>43074</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="3">
-        <v>22801</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="6">
-        <v>45294</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1125</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C30" s="3">
-        <v>3030</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1126</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C32" s="3">
-        <v>3025</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1118</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C34" s="3">
-        <v>3029</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1112</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C36" s="3">
-        <v>3028</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C37" s="3">
-        <v>1113</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C38" s="3">
-        <v>3026</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C39" s="3">
-        <v>1115</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C40" s="3">
-        <v>3031</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1114</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C42" s="3">
-        <v>3027</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C43" s="3">
-        <v>1119</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C44" s="3">
-        <v>3024</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1110</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="6">
-        <v>42954</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C46" s="3">
-        <v>3032</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="6">
-        <v>42954</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C47" s="3">
-        <v>40013</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="6">
-        <v>42954</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C48" s="3">
-        <v>21208</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="6">
-        <v>43007</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="3">
-        <v>40006</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="6">
-        <v>43069</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" s="3">
-        <v>21223</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="6">
-        <v>43069</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="3">
-        <v>3006</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" s="6">
-        <v>45077</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" s="6">
-        <v>45077</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" s="3">
-        <v>50042</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="6">
-        <v>45170</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C54" s="3">
-        <v>3035</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E54" s="6">
-        <v>45170</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C55" s="3">
-        <v>1130</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E55" s="13">
-        <v>45504</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="C56" s="3">
-        <v>3036</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E56" s="13">
-        <v>45504</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C57" s="3">
-        <v>1043</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" s="6">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C58" s="3">
-        <v>3038</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E58" s="6">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C59" s="3">
-        <v>1133</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E59" s="6">
-        <v>45477</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C60" s="3">
-        <v>3039</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E60" s="6">
-        <v>45477</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C61" s="3">
-        <v>1132</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C62" s="3">
-        <v>3041</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E62" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="3">
-        <v>1013</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" s="6">
-        <v>45117</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C64" s="3">
-        <v>3044</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E64" s="6">
-        <v>45117</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C65" s="3">
-        <v>1108</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E65" s="6">
-        <v>43677</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C66" s="3">
-        <v>3045</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E66" s="6">
-        <v>43677</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C67" s="3">
-        <v>1116</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E67" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C68" s="3">
-        <v>3046</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E68" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C69" s="3">
-        <v>1018</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E69" s="6">
-        <v>45202</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C70" s="3">
-        <v>1020</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E70" s="6">
-        <v>45202</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C71" s="3">
-        <v>3048</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E71" s="6">
-        <v>45202</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C72" s="3">
-        <v>1086</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E72" s="6">
-        <v>45210</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C73" s="3">
-        <v>3050</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E73" s="6">
-        <v>45210</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C74" s="3">
-        <v>1087</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E74" s="6">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C75" s="3">
-        <v>3051</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E75" s="6">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C76" s="3">
-        <v>22582</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E76" s="6">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C77" s="3">
-        <v>22582</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E77" s="6">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C78" s="3">
-        <v>30001</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E78" s="6">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C79" s="3">
-        <v>30001</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E79" s="6">
-        <v>42375</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C80" s="3">
-        <v>40005</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E80" s="6">
-        <v>42375</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C81" s="3">
-        <v>21220</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E81" s="6">
-        <v>42375</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C82" s="3">
-        <v>1046</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E82" s="6">
-        <v>44837</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E83" s="6">
-        <v>44837</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C84" s="3">
-        <v>1045</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E84" s="6">
-        <v>44837</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E85" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C86" s="3">
-        <v>1117</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E86" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C87" s="3">
-        <v>3053</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E87" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C88" s="3">
-        <v>1036</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E88" s="6">
-        <v>44712</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C89" s="3">
-        <v>3054</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E89" s="6">
-        <v>44712</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C90" s="3">
-        <v>21217</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E90" s="6">
-        <v>43840</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C91" s="3">
-        <v>40001</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E91" s="6">
-        <v>43840</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E2" xr:uid="{6EEBEAB0-4E16-4581-8A08-39CF6708FA50}"/>
+  <autoFilter ref="A1:E1" xr:uid="{6EEBEAB0-4E16-4581-8A08-39CF6708FA50}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3931,9 +2501,9 @@
   <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6155,10 +4725,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B548D8A-88F4-48BF-8DA9-473567F1EB6D}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Suporte_Relatorio.xlsx
+++ b/Suporte_Relatorio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ekhofo-my.sharepoint.com/personal/rafael_astolfi_ekhofo_com/Documents/Desktop/relatorio_mensal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="868" documentId="8_{96E81CA7-990A-4452-BFD6-B12F48A36CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20D2139E-AD29-4ECB-BD0F-853BB8C0BD65}"/>
+  <xr:revisionPtr revIDLastSave="1726" documentId="8_{96E81CA7-990A-4452-BFD6-B12F48A36CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{530C10F3-5A4D-46F3-B556-DD846CB33E63}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="7" xr2:uid="{D83840C6-8BB1-4146-989F-64A28F905889}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{D83840C6-8BB1-4146-989F-64A28F905889}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="228">
   <si>
     <t>Alternativos</t>
   </si>
@@ -211,9 +211,6 @@
     <t>RICARDO LUIZ DE MACEDO COSTA</t>
   </si>
   <si>
-    <t>RENATA MACHADO VITTI DE OLIVEIRA</t>
-  </si>
-  <si>
     <t>GUSTAVO DORNELLAS TABBAL CHAMATI</t>
   </si>
   <si>
@@ -355,9 +352,6 @@
     <t>ABDALLA YOUSSEF SKAF_FexExplodido</t>
   </si>
   <si>
-    <t>RICARDO LUIZ DE MACEDO COSTA_FexExplodido</t>
-  </si>
-  <si>
     <t>SERGIO TUFIK_FexExplodido</t>
   </si>
   <si>
@@ -439,9 +433,6 @@
     <t>MELINA</t>
   </si>
   <si>
-    <t>VITTI</t>
-  </si>
-  <si>
     <t>TONDELA</t>
   </si>
   <si>
@@ -457,15 +448,9 @@
     <t>GUILHERME PINHO BONIFÁCIO_ESPECIAL</t>
   </si>
   <si>
-    <t>31/06/2023</t>
-  </si>
-  <si>
     <t>OBS</t>
   </si>
   <si>
-    <t>APAGAR do SLIDE</t>
-  </si>
-  <si>
     <t>ILSON APARECIDO STABILE S/GRUPO_</t>
   </si>
   <si>
@@ -631,9 +616,6 @@
     <t>BB</t>
   </si>
   <si>
-    <t>NÃO TEM CARTEIRA</t>
-  </si>
-  <si>
     <t>GUSTAVO DORNELLAS TABBAL CHAMATI_Especial</t>
   </si>
   <si>
@@ -718,9 +700,6 @@
     <t>CYNTHIA PATRICIA DORES_MB</t>
   </si>
   <si>
-    <t>CHRISTIANE DORES POLLASTRINI_JIVE</t>
-  </si>
-  <si>
     <t>CYNTHIA PATRICIA DORES_JIVE</t>
   </si>
   <si>
@@ -745,7 +724,16 @@
     <t>JOAO PAULO DE ALMEIDA CUNHA</t>
   </si>
   <si>
-    <t>LUIZ OTAVIO CABRAL PEREIRA CUNHA_GestaoEkho</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>DARWIN STARTUP</t>
+  </si>
+  <si>
+    <t>DARWIN</t>
+  </si>
+  <si>
+    <t>HEDGE PALADIN</t>
   </si>
 </sst>
 </file>
@@ -756,7 +744,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -821,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -831,9 +819,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
@@ -1176,19 +1162,19 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12:C16"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.625" customWidth="1"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -1205,7 +1191,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1222,7 +1208,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1239,7 +1225,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1256,7 +1242,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1273,7 +1259,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1281,7 +1267,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
@@ -1290,7 +1276,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1307,7 +1293,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1324,7 +1310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1341,7 +1327,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -1358,7 +1344,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -1392,7 +1378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1409,7 +1395,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
@@ -1426,7 +1412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1443,7 +1429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -1460,7 +1446,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -1498,29 +1484,29 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1534,7 +1520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1548,7 +1534,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1559,10 +1545,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1570,13 +1556,13 @@
         <v>0.25</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1590,7 +1576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1617,31 +1603,31 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1652,10 +1638,10 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1666,10 +1652,10 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1680,10 +1666,10 @@
         <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1694,10 +1680,10 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1708,10 +1694,10 @@
         <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1722,10 +1708,10 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1739,7 +1725,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1750,7 +1736,7 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1763,281 +1749,300 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:B33"/>
+      <selection activeCell="B29" sqref="B28:B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" t="s">
+        <v>166</v>
+      </c>
+      <c r="L19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>166</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B24" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>168</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>170</v>
-      </c>
-      <c r="B18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>171</v>
-      </c>
-      <c r="B19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>172</v>
-      </c>
-      <c r="B20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>175</v>
-      </c>
-      <c r="B23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>176</v>
-      </c>
-      <c r="B24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>177</v>
-      </c>
-      <c r="B25" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>201</v>
+      </c>
+      <c r="B29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>203</v>
+      </c>
+      <c r="B30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>204</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B31" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>205</v>
-      </c>
-      <c r="B27" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>206</v>
-      </c>
-      <c r="B28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>207</v>
-      </c>
-      <c r="B29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>209</v>
-      </c>
-      <c r="B30" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>210</v>
-      </c>
-      <c r="B31" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="12" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>225</v>
+      </c>
+      <c r="B34" t="s">
         <v>226</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>228</v>
-      </c>
-      <c r="B33" t="s">
-        <v>228</v>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>227</v>
+      </c>
+      <c r="B35" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2050,27 +2055,25 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C17:C18"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD7"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="49.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="40.75" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>40</v>
@@ -2084,12 +2087,1308 @@
       <c r="E1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1120</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6">
+        <v>45222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2032</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="6">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6">
+        <v>45222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2037</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1040</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6">
+        <v>45293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2035</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="6">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3007</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="6">
+        <v>45239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4007</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="6">
+        <v>45264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1004</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="6">
+        <v>45239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2004</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="6">
+        <v>45264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1007</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="6">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2004</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="6">
+        <v>45264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3001</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="6">
+        <v>45492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4001</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="6">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1094</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="6">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="6">
+        <v>45379</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1097</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="6">
+        <v>45036</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="6">
+        <v>45293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2030</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="6">
+        <v>45293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2030</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="6">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1015</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="6">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3004</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="6">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="3">
+        <v>4005</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="6">
+        <v>45092</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1028</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1008</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="6">
+        <v>44845</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2008</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="6">
+        <v>45036</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1009</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="6">
+        <v>44845</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2008</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="6">
+        <v>45036</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="3">
+        <v>3003</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="6">
+        <v>45169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4004</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="6">
+        <v>45036</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1105</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="6">
+        <v>45138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2028</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="6">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2031</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="6">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2031</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="6">
+        <v>45236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1019</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="6">
+        <v>45198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="6">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1016</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="6">
+        <v>45198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2016</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="6">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1017</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="6">
+        <v>45236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="6">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1037</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="6">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="3">
+        <v>2036</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="6">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1103</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="6">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="3">
+        <v>2025</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="6">
+        <v>44987</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="C48" s="3">
+        <v>50100</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="6">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="3">
+        <v>50100</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="6">
+        <v>44987</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="6">
+        <v>45121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="6">
+        <v>45240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1001</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="6">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="6">
+        <v>45069</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="6">
+        <v>45173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="3">
+        <v>4000</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="6">
+        <v>45069</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1035</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="6">
+        <v>45196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="3">
+        <v>2029</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="6">
+        <v>45344</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1022</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="6">
+        <v>45385</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" s="3">
+        <v>4003</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="6">
+        <v>45385</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1021</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="6">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="3">
+        <v>4002</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1023</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1011</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C66" s="3">
+        <v>3002</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C67" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1003</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="6">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="3">
+        <v>2003</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="6">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1026</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="6">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" s="3">
+        <v>2034</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="6">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1027</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="6">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C73" s="3">
+        <v>2033</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="6">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1032</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" s="6">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C75" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" s="6">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1030</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="6">
+        <v>45373</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C77" s="3">
+        <v>2001</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="6">
+        <v>45509</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{492A2C00-84DF-4782-A4AE-C9B5D9D242D2}"/>
+  <autoFilter ref="A1:E1" xr:uid="{492A2C00-84DF-4782-A4AE-C9B5D9D242D2}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E77">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2100,7 +3399,7 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2108,53 +3407,1060 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6">
+        <v>45293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="3">
+        <v>40011</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="3">
+        <v>21226</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="3">
+        <v>40009</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="3">
+        <v>21214</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1034</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="6">
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1040</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="6">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1096</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1095</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="6">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="3">
+        <v>22365</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="6">
+        <v>45202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1089</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="6">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="3">
+        <v>30022</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="6">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1091</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="6">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="3">
+        <v>22368</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="6">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1090</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="6">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="3">
+        <v>22353</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="6">
+        <v>43074</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="3">
+        <v>40010</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="6">
+        <v>45294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="3">
+        <v>22801</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="6">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1125</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="6">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1126</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="6">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1118</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="6">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1112</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="6">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1113</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="6">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1115</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="6">
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1114</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1119</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="6">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="6">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="3">
+        <v>40013</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="6">
+        <v>45202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="3">
+        <v>21208</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="6">
+        <v>45202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="3">
+        <v>40006</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="6">
+        <v>45210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="3">
+        <v>21223</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="6">
+        <v>42398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="3">
+        <v>50007</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="6">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3006</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="6">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1107</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="6">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1130</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="6">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1130</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="6">
+        <v>42737</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1043</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="6">
+        <v>42737</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1133</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="6">
+        <v>42954</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1132</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="6">
+        <v>42954</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1133</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="6">
+        <v>43007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1132</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1013</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="6">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1116</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="3">
+        <v>30002</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="6">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1130</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="B46" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1002</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="6">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1018</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="6">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1020</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1086</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1087</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C51" s="3">
+        <v>22582</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C52" s="3">
+        <v>22582</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C53" s="3">
+        <v>30001</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1098</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1046</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1045</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="6">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1045</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="6">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1117</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="11">
         <v>45504</v>
       </c>
     </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1036</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="6">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="3">
+        <v>21217</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="6">
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="3">
+        <v>40001</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="6">
+        <v>45471</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E2" xr:uid="{6EEBEAB0-4E16-4581-8A08-39CF6708FA50}"/>
+  <autoFilter ref="A1:E1" xr:uid="{6EEBEAB0-4E16-4581-8A08-39CF6708FA50}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E62">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2163,25 +4469,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CF0191-5EAE-4B06-B5C1-13D30342DEF8}">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E79"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="40.75" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>40</v>
@@ -2195,19 +4501,16 @@
       <c r="E1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="C2" s="3">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>23</v>
@@ -2215,17 +4518,16 @@
       <c r="E2" s="6">
         <v>45222</v>
       </c>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="C3" s="3">
-        <v>2000</v>
+        <v>2032</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>24</v>
@@ -2233,17 +4535,16 @@
       <c r="E3" s="6">
         <v>45275</v>
       </c>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C4" s="3">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>23</v>
@@ -2251,17 +4552,16 @@
       <c r="E4" s="6">
         <v>45222</v>
       </c>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C5" s="3">
-        <v>2000</v>
+        <v>2037</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>24</v>
@@ -2269,17 +4569,16 @@
       <c r="E5" s="6">
         <v>45275</v>
       </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C6" s="3">
-        <v>3000</v>
+        <v>1040</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>23</v>
@@ -2287,17 +4586,16 @@
       <c r="E6" s="6">
         <v>45293</v>
       </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C7" s="3">
-        <v>4000</v>
+        <v>2035</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>24</v>
@@ -2305,17 +4603,16 @@
       <c r="E7" s="6">
         <v>45275</v>
       </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="C8" s="3">
-        <v>1004</v>
+        <v>3007</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>23</v>
@@ -2323,17 +4620,16 @@
       <c r="E8" s="6">
         <v>45239</v>
       </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="C9" s="3">
-        <v>2004</v>
+        <v>4007</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>24</v>
@@ -2341,17 +4637,16 @@
       <c r="E9" s="6">
         <v>45264</v>
       </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
@@ -2359,14 +4654,13 @@
       <c r="E10" s="6">
         <v>45239</v>
       </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3">
         <v>2004</v>
@@ -2377,17 +4671,16 @@
       <c r="E11" s="6">
         <v>45264</v>
       </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="C12" s="3">
-        <v>3001</v>
+        <v>1007</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>23</v>
@@ -2395,17 +4688,16 @@
       <c r="E12" s="6">
         <v>45170</v>
       </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3">
-        <v>4001</v>
+        <v>2004</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>24</v>
@@ -2413,17 +4705,16 @@
       <c r="E13" s="6">
         <v>45264</v>
       </c>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="C14" s="3">
-        <v>1120</v>
+        <v>3001</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>23</v>
@@ -2431,17 +4722,16 @@
       <c r="E14" s="6">
         <v>45492</v>
       </c>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="C15" s="3">
-        <v>2032</v>
+        <v>4001</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>24</v>
@@ -2449,14 +4739,13 @@
       <c r="E15" s="6">
         <v>45443</v>
       </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="3">
         <v>1094</v>
@@ -2467,14 +4756,13 @@
       <c r="E16" s="6">
         <v>45337</v>
       </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="3">
         <v>2022</v>
@@ -2485,11 +4773,10 @@
       <c r="E17" s="6">
         <v>45379</v>
       </c>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>47</v>
@@ -2503,11 +4790,10 @@
       <c r="E18" s="6">
         <v>45036</v>
       </c>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>47</v>
@@ -2521,14 +4807,13 @@
       <c r="E19" s="6">
         <v>45293</v>
       </c>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" ht="15">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="3">
         <v>2030</v>
@@ -2539,16 +4824,13 @@
       <c r="E20" s="6">
         <v>45293</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="3">
         <v>2030</v>
@@ -2559,14 +4841,13 @@
       <c r="E21" s="6">
         <v>45292</v>
       </c>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="3">
         <v>1015</v>
@@ -2577,14 +4858,13 @@
       <c r="E22" s="6">
         <v>44895</v>
       </c>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="3">
         <v>2014</v>
@@ -2592,17 +4872,16 @@
       <c r="D23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="E23" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C24" s="3">
         <v>3004</v>
@@ -2613,14 +4892,13 @@
       <c r="E24" s="6">
         <v>45110</v>
       </c>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C25" s="3">
         <v>4005</v>
@@ -2631,11 +4909,10 @@
       <c r="E25" s="6">
         <v>45092</v>
       </c>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:6">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>28</v>
@@ -2647,13 +4924,12 @@
         <v>23</v>
       </c>
       <c r="E26" s="6">
-        <v>45107</v>
-      </c>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>28</v>
@@ -2665,16 +4941,15 @@
         <v>24</v>
       </c>
       <c r="E27" s="6">
-        <v>45107</v>
-      </c>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="3">
         <v>1008</v>
@@ -2685,14 +4960,13 @@
       <c r="E28" s="6">
         <v>44845</v>
       </c>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:6">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="3">
         <v>2008</v>
@@ -2703,14 +4977,13 @@
       <c r="E29" s="6">
         <v>45036</v>
       </c>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="1:6">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C30" s="3">
         <v>1009</v>
@@ -2721,14 +4994,13 @@
       <c r="E30" s="6">
         <v>44845</v>
       </c>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="1:6">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="3">
         <v>2008</v>
@@ -2739,14 +5011,13 @@
       <c r="E31" s="6">
         <v>45036</v>
       </c>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:6">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C32" s="3">
         <v>3003</v>
@@ -2757,14 +5028,13 @@
       <c r="E32" s="6">
         <v>45169</v>
       </c>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="1:6">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C33" s="3">
         <v>4004</v>
@@ -2775,14 +5045,13 @@
       <c r="E33" s="6">
         <v>45036</v>
       </c>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="1:6">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C34" s="3">
         <v>1105</v>
@@ -2793,14 +5062,13 @@
       <c r="E34" s="6">
         <v>45138</v>
       </c>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="1:6">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" s="3">
         <v>2028</v>
@@ -2811,17 +5079,16 @@
       <c r="E35" s="6">
         <v>45015</v>
       </c>
-      <c r="F35" s="9"/>
-    </row>
-    <row r="36" spans="1:6">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C36" s="3">
-        <v>1019</v>
+        <v>2031</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>23</v>
@@ -2829,17 +5096,16 @@
       <c r="E36" s="6">
         <v>45204</v>
       </c>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="1:6">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C37" s="3">
-        <v>2019</v>
+        <v>2031</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>24</v>
@@ -2847,17 +5113,16 @@
       <c r="E37" s="6">
         <v>45236</v>
       </c>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="1:6">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C38" s="3">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>23</v>
@@ -2865,17 +5130,16 @@
       <c r="E38" s="6">
         <v>45198</v>
       </c>
-      <c r="F38" s="9"/>
-    </row>
-    <row r="39" spans="1:6">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C39" s="3">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>24</v>
@@ -2883,17 +5147,16 @@
       <c r="E39" s="6">
         <v>45383</v>
       </c>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" spans="1:6">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40" s="3">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>23</v>
@@ -2901,17 +5164,16 @@
       <c r="E40" s="6">
         <v>45198</v>
       </c>
-      <c r="F40" s="9"/>
-    </row>
-    <row r="41" spans="1:6">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>24</v>
@@ -2919,17 +5181,16 @@
       <c r="E41" s="6">
         <v>45323</v>
       </c>
-      <c r="F41" s="9"/>
-    </row>
-    <row r="42" spans="1:6">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C42" s="3">
-        <v>1103</v>
+        <v>1017</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>23</v>
@@ -2937,17 +5198,16 @@
       <c r="E42" s="6">
         <v>45236</v>
       </c>
-      <c r="F42" s="9"/>
-    </row>
-    <row r="43" spans="1:6">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C43" s="3">
-        <v>2025</v>
+        <v>2017</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>24</v>
@@ -2955,17 +5215,16 @@
       <c r="E43" s="6">
         <v>45275</v>
       </c>
-      <c r="F43" s="9"/>
-    </row>
-    <row r="44" spans="1:6">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="C44" s="3">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>23</v>
@@ -2973,17 +5232,16 @@
       <c r="E44" s="6">
         <v>45078</v>
       </c>
-      <c r="F44" s="9"/>
-    </row>
-    <row r="45" spans="1:6">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="C45" s="3">
-        <v>2029</v>
+        <v>2036</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>24</v>
@@ -2991,17 +5249,16 @@
       <c r="E45" s="6">
         <v>45231</v>
       </c>
-      <c r="F45" s="9"/>
-    </row>
-    <row r="46" spans="1:6">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C46" s="3">
-        <v>1022</v>
+        <v>1103</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>23</v>
@@ -3009,17 +5266,16 @@
       <c r="E46" s="6">
         <v>44985</v>
       </c>
-      <c r="F46" s="9"/>
-    </row>
-    <row r="47" spans="1:6">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C47" s="3">
-        <v>4003</v>
+        <v>2025</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>24</v>
@@ -3027,17 +5283,16 @@
       <c r="E47" s="6">
         <v>44987</v>
       </c>
-      <c r="F47" s="9"/>
-    </row>
-    <row r="48" spans="1:6">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="C48" s="3">
-        <v>1021</v>
+        <v>50100</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>23</v>
@@ -3045,17 +5300,16 @@
       <c r="E48" s="6">
         <v>44985</v>
       </c>
-      <c r="F48" s="9"/>
-    </row>
-    <row r="49" spans="1:6">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="C49" s="3">
-        <v>4002</v>
+        <v>50100</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>24</v>
@@ -3063,17 +5317,16 @@
       <c r="E49" s="6">
         <v>44987</v>
       </c>
-      <c r="F49" s="9"/>
-    </row>
-    <row r="50" spans="1:6">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C50" s="3">
-        <v>1023</v>
+        <v>1000</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>23</v>
@@ -3081,17 +5334,16 @@
       <c r="E50" s="6">
         <v>45121</v>
       </c>
-      <c r="F50" s="9"/>
-    </row>
-    <row r="51" spans="1:6">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C51" s="3">
-        <v>2023</v>
+        <v>2000</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>24</v>
@@ -3099,17 +5351,16 @@
       <c r="E51" s="6">
         <v>45240</v>
       </c>
-      <c r="F51" s="9"/>
-    </row>
-    <row r="52" spans="1:6">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C52" s="3">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>23</v>
@@ -3117,17 +5368,16 @@
       <c r="E52" s="6">
         <v>45009</v>
       </c>
-      <c r="F52" s="9"/>
-    </row>
-    <row r="53" spans="1:6">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C53" s="3">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>24</v>
@@ -3135,17 +5385,16 @@
       <c r="E53" s="6">
         <v>45069</v>
       </c>
-      <c r="F53" s="9"/>
-    </row>
-    <row r="54" spans="1:6">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>195</v>
+        <v>93</v>
       </c>
       <c r="C54" s="3">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>23</v>
@@ -3153,17 +5402,16 @@
       <c r="E54" s="6">
         <v>45173</v>
       </c>
-      <c r="F54" s="9"/>
-    </row>
-    <row r="55" spans="1:6">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>195</v>
+        <v>93</v>
       </c>
       <c r="C55" s="3">
-        <v>2011</v>
+        <v>4000</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>24</v>
@@ -3171,17 +5419,16 @@
       <c r="E55" s="6">
         <v>45069</v>
       </c>
-      <c r="F55" s="9"/>
-    </row>
-    <row r="56" spans="1:6">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C56" s="3">
-        <v>1003</v>
+        <v>1035</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>23</v>
@@ -3189,17 +5436,16 @@
       <c r="E56" s="6">
         <v>45196</v>
       </c>
-      <c r="F56" s="9"/>
-    </row>
-    <row r="57" spans="1:6">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C57" s="3">
-        <v>2003</v>
+        <v>2029</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>24</v>
@@ -3207,17 +5453,16 @@
       <c r="E57" s="6">
         <v>45344</v>
       </c>
-      <c r="F57" s="9"/>
-    </row>
-    <row r="58" spans="1:6">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C58" s="3">
-        <v>2031</v>
+        <v>1022</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>23</v>
@@ -3225,17 +5470,16 @@
       <c r="E58" s="6">
         <v>45385</v>
       </c>
-      <c r="F58" s="9"/>
-    </row>
-    <row r="59" spans="1:6">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C59" s="3">
-        <v>2031</v>
+        <v>4003</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>24</v>
@@ -3243,17 +5487,16 @@
       <c r="E59" s="6">
         <v>45385</v>
       </c>
-      <c r="F59" s="9"/>
-    </row>
-    <row r="60" spans="1:6" ht="15">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="C60" s="3">
-        <v>1037</v>
+        <v>1021</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>23</v>
@@ -3261,19 +5504,16 @@
       <c r="E60" s="6">
         <v>45082</v>
       </c>
-      <c r="F60" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="C61" s="3">
-        <v>2036</v>
+        <v>4002</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>24</v>
@@ -3281,17 +5521,16 @@
       <c r="E61" s="6">
         <v>45471</v>
       </c>
-      <c r="F61" s="9"/>
-    </row>
-    <row r="62" spans="1:6">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="C62" s="3">
-        <v>50100</v>
+        <v>1023</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>23</v>
@@ -3300,15 +5539,15 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="C63" s="3">
-        <v>50100</v>
+        <v>2023</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>24</v>
@@ -3317,35 +5556,32 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="C64" s="3">
-        <v>1040</v>
+        <v>1011</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E64" s="6">
-        <v>45443</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="C65" s="3">
-        <v>2035</v>
+        <v>2011</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>24</v>
@@ -3353,36 +5589,33 @@
       <c r="E65" s="6">
         <v>45471</v>
       </c>
-      <c r="F65" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="C66" s="3">
-        <v>3007</v>
+        <v>3002</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E66" s="6">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="C67" s="3">
-        <v>4007</v>
+        <v>2011</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>24</v>
@@ -3391,15 +5624,15 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>214</v>
+        <v>44</v>
       </c>
       <c r="C68" s="3">
-        <v>1026</v>
+        <v>1003</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>23</v>
@@ -3408,15 +5641,15 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>214</v>
+        <v>44</v>
       </c>
       <c r="C69" s="3">
-        <v>2034</v>
+        <v>2003</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>24</v>
@@ -3425,15 +5658,15 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C70" s="3">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>23</v>
@@ -3442,15 +5675,15 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C71" s="3">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>24</v>
@@ -3459,15 +5692,15 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C72" s="3">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>23</v>
@@ -3476,15 +5709,15 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C73" s="3">
-        <v>2020</v>
+        <v>2033</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>24</v>
@@ -3493,15 +5726,15 @@
         <v>44895</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C74" s="3">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>23</v>
@@ -3510,15 +5743,15 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C75" s="3">
-        <v>2001</v>
+        <v>2020</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>24</v>
@@ -3527,15 +5760,15 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="C76" s="3">
-        <v>1010</v>
+        <v>1030</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>23</v>
@@ -3544,15 +5777,15 @@
         <v>45373</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="C77" s="3">
-        <v>2037</v>
+        <v>2001</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>24</v>
@@ -3561,42 +5794,12 @@
         <v>45509</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C78" s="3">
-        <v>1010</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E78" s="6">
-        <v>45373</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C79" s="3">
-        <v>2037</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E79" s="6">
-        <v>45509</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D49" xr:uid="{FDD9564B-AAE5-4B8B-854B-0D27C6086BCC}"/>
+  <autoFilter ref="A1:D49" xr:uid="{FDD9564B-AAE5-4B8B-854B-0D27C6086BCC}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D77">
+      <sortCondition ref="A1:A49"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3604,49 +5807,49 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B548D8A-88F4-48BF-8DA9-473567F1EB6D}">
-  <dimension ref="A1:E152"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E63"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62:XFD62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="C2" s="3">
-        <v>1002</v>
+        <v>1111</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>23</v>
@@ -3655,15 +5858,15 @@
         <v>45293</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3">
-        <v>1111</v>
+        <v>40011</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>23</v>
@@ -3672,15 +5875,15 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="C4" s="3">
-        <v>40009</v>
+        <v>21226</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>23</v>
@@ -3689,15 +5892,15 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3">
-        <v>21214</v>
+        <v>40009</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>23</v>
@@ -3706,15 +5909,15 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="C6" s="3">
-        <v>1034</v>
+        <v>21214</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>23</v>
@@ -3723,15 +5926,15 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>23</v>
@@ -3740,15 +5943,15 @@
         <v>45435</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C8" s="3">
-        <v>1096</v>
+        <v>1040</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>23</v>
@@ -3757,15 +5960,15 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C9" s="3">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>23</v>
@@ -3774,15 +5977,15 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C10" s="3">
-        <v>22365</v>
+        <v>1095</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
@@ -3791,15 +5994,15 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C11" s="3">
-        <v>1089</v>
+        <v>22365</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -3808,15 +6011,15 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C12" s="3">
-        <v>30022</v>
+        <v>1089</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>23</v>
@@ -3825,15 +6028,15 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3">
-        <v>1091</v>
+        <v>30022</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>23</v>
@@ -3842,15 +6045,15 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C14" s="3">
-        <v>22368</v>
+        <v>1091</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>23</v>
@@ -3859,15 +6062,15 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C15" s="3">
-        <v>1090</v>
+        <v>22368</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>23</v>
@@ -3876,15 +6079,15 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C16" s="3">
-        <v>22353</v>
+        <v>1090</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>23</v>
@@ -3893,15 +6096,15 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C17" s="3">
-        <v>40010</v>
+        <v>22353</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>23</v>
@@ -3910,15 +6113,15 @@
         <v>43074</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C18" s="3">
-        <v>22801</v>
+        <v>40010</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>23</v>
@@ -3927,15 +6130,15 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C19" s="3">
-        <v>40006</v>
+        <v>22801</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>23</v>
@@ -3944,15 +6147,15 @@
         <v>43069</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="C20" s="3">
-        <v>21223</v>
+        <v>1125</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>23</v>
@@ -3961,15 +6164,15 @@
         <v>43069</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>126</v>
+        <v>191</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="C21" s="3">
-        <v>50007</v>
+        <v>1126</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>23</v>
@@ -3978,15 +6181,15 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>127</v>
+        <v>191</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>97</v>
+        <v>193</v>
       </c>
       <c r="C22" s="3">
-        <v>3006</v>
+        <v>1118</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>23</v>
@@ -3995,15 +6198,15 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="C23" s="3">
-        <v>50042</v>
+        <v>1112</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>23</v>
@@ -4012,15 +6215,15 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c r="C24" s="3">
-        <v>1043</v>
+        <v>1113</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>23</v>
@@ -4029,168 +6232,168 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="C25" s="3">
-        <v>1013</v>
+        <v>1115</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="6">
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1114</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1119</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="6">
         <v>45117</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="3">
-        <v>30002</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="6">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="6">
         <v>45306</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1018</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="6">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="3">
+        <v>40013</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="6">
         <v>45202</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1020</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="6">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="3">
+        <v>21208</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="6">
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1086</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="6">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="3">
+        <v>40006</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="6">
         <v>45210</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="3">
-        <v>40005</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="6">
-        <v>42375</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="3">
-        <v>21220</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="6">
-        <v>42375</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="C32" s="3">
-        <v>1036</v>
+        <v>21223</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E32" s="6">
+        <v>42398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="3">
+        <v>50007</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="6">
         <v>44712</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="3">
-        <v>21217</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="6">
-        <v>43840</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C34" s="3">
-        <v>40001</v>
+        <v>3006</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>23</v>
@@ -4199,49 +6402,49 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C35" s="3">
-        <v>1006</v>
+        <v>1107</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="6">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1130</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="6">
         <v>45351</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="3">
-        <v>40011</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="6">
-        <v>42737</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>143</v>
+        <v>222</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="C37" s="3">
-        <v>21226</v>
+        <v>1130</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>23</v>
@@ -4250,32 +6453,32 @@
         <v>42737</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C38" s="3">
-        <v>1110</v>
+        <v>1043</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="6">
-        <v>42954</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>42737</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>146</v>
+        <v>105</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="C39" s="3">
-        <v>40013</v>
+        <v>1133</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>23</v>
@@ -4284,100 +6487,100 @@
         <v>42954</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1132</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="6">
+        <v>42954</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1133</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="6">
+        <v>43007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1132</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="6">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1013</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="6">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" s="3">
-        <v>21208</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="6">
-        <v>43007</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C41" s="3">
+      <c r="C44" s="3">
         <v>1116</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="6">
+      <c r="D44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="6">
         <v>45471</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1087</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="6">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C43" s="3">
-        <v>1117</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C44" s="3">
-        <v>22582</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="6">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>221</v>
+        <v>56</v>
       </c>
       <c r="C45" s="3">
-        <v>22582</v>
+        <v>30002</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>23</v>
@@ -4386,15 +6589,15 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>222</v>
+        <v>41</v>
       </c>
       <c r="C46" s="3">
-        <v>30001</v>
+        <v>1002</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>23</v>
@@ -4403,15 +6606,15 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="C47" s="3">
-        <v>30001</v>
+        <v>1018</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>23</v>
@@ -4420,15 +6623,15 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="C48" s="3">
-        <v>1125</v>
+        <v>1020</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>23</v>
@@ -4437,15 +6640,15 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>198</v>
+        <v>66</v>
       </c>
       <c r="C49" s="3">
-        <v>1126</v>
+        <v>1086</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>23</v>
@@ -4454,15 +6657,15 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="C50" s="3">
-        <v>1118</v>
+        <v>1087</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>23</v>
@@ -4471,15 +6674,15 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="C51" s="3">
-        <v>1112</v>
+        <v>22582</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>23</v>
@@ -4488,15 +6691,15 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="C52" s="3">
-        <v>1134</v>
+        <v>22582</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>23</v>
@@ -4505,15 +6708,15 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="C53" s="3">
-        <v>1113</v>
+        <v>30001</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>23</v>
@@ -4522,15 +6725,15 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>197</v>
+        <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="C54" s="3">
-        <v>1115</v>
+        <v>1098</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>23</v>
@@ -4539,15 +6742,15 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="C55" s="3">
-        <v>1114</v>
+        <v>1046</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>23</v>
@@ -4556,32 +6759,32 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="C56" s="3">
-        <v>1119</v>
+        <v>1045</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E56" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C57" s="3">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>23</v>
@@ -4590,561 +6793,520 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>216</v>
+        <v>146</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="C58" s="3">
-        <v>1045</v>
+        <v>1117</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="11">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1036</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="6">
         <v>44837</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C59" s="3">
-        <v>1133</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E59" s="6">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="3">
+        <v>21217</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="6">
         <v>45477</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C60" s="3">
-        <v>1132</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E60" s="6">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="3">
+        <v>40001</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="6">
         <v>45471</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C61" s="3">
-        <v>1130</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" s="13">
-        <v>45504</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C62" s="3">
-        <v>1132</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E62" s="6">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C63" s="3">
-        <v>1130</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" s="6">
-        <v>45504</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="3:5">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="6"/>
     </row>
-    <row r="66" spans="3:5">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="3:5">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="6"/>
     </row>
-    <row r="68" spans="3:5">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="3:5">
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="6"/>
     </row>
-    <row r="70" spans="3:5">
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="3:5">
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="6"/>
     </row>
-    <row r="72" spans="3:5">
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="3:5">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" spans="3:5">
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="3:5">
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="3:5">
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="3:5">
+    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="3:5">
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="3:5">
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="3:5">
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="3:5">
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="3:5">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="3:5">
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="6"/>
     </row>
-    <row r="84" spans="3:5">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="3:5">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="6"/>
     </row>
-    <row r="86" spans="3:5">
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="3:5">
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="6"/>
     </row>
-    <row r="88" spans="3:5">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="6"/>
     </row>
-    <row r="89" spans="3:5">
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="6"/>
     </row>
-    <row r="90" spans="3:5">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="6"/>
     </row>
-    <row r="91" spans="3:5">
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="6"/>
     </row>
-    <row r="92" spans="3:5">
+    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="6"/>
     </row>
-    <row r="93" spans="3:5">
+    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="6"/>
     </row>
-    <row r="94" spans="3:5">
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" spans="3:5">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="6"/>
     </row>
-    <row r="96" spans="3:5">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="6"/>
     </row>
-    <row r="97" spans="3:5">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="6"/>
     </row>
-    <row r="98" spans="3:5">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="6"/>
     </row>
-    <row r="99" spans="3:5">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="6"/>
     </row>
-    <row r="100" spans="3:5">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="6"/>
     </row>
-    <row r="101" spans="3:5">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="6"/>
     </row>
-    <row r="102" spans="3:5">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="6"/>
     </row>
-    <row r="103" spans="3:5">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="6"/>
     </row>
-    <row r="104" spans="3:5">
+    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" spans="3:5">
+    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="6"/>
     </row>
-    <row r="106" spans="3:5">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="6"/>
     </row>
-    <row r="107" spans="3:5">
+    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="6"/>
     </row>
-    <row r="108" spans="3:5">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="6"/>
     </row>
-    <row r="109" spans="3:5">
+    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="6"/>
     </row>
-    <row r="110" spans="3:5">
+    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" spans="3:5">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="6"/>
     </row>
-    <row r="112" spans="3:5">
+    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="6"/>
     </row>
-    <row r="113" spans="3:5">
+    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="6"/>
     </row>
-    <row r="114" spans="3:5">
+    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="6"/>
     </row>
-    <row r="115" spans="3:5">
+    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="6"/>
     </row>
-    <row r="116" spans="3:5">
+    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="3:5">
+    <row r="117" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="6"/>
     </row>
-    <row r="118" spans="3:5">
+    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" spans="3:5">
+    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="6"/>
     </row>
-    <row r="120" spans="3:5">
+    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="6"/>
     </row>
-    <row r="121" spans="3:5">
+    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="6"/>
     </row>
-    <row r="122" spans="3:5">
+    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="6"/>
     </row>
-    <row r="123" spans="3:5">
+    <row r="123" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="6"/>
     </row>
-    <row r="124" spans="3:5">
+    <row r="124" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="6"/>
     </row>
-    <row r="125" spans="3:5">
+    <row r="125" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="6"/>
     </row>
-    <row r="126" spans="3:5">
+    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="6"/>
     </row>
-    <row r="127" spans="3:5">
+    <row r="127" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="6"/>
     </row>
-    <row r="128" spans="3:5">
+    <row r="128" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="6"/>
     </row>
-    <row r="129" spans="3:5">
+    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="6"/>
     </row>
-    <row r="130" spans="3:5">
+    <row r="130" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="6"/>
     </row>
-    <row r="131" spans="3:5">
+    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="6"/>
     </row>
-    <row r="132" spans="3:5">
+    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="6"/>
     </row>
-    <row r="133" spans="3:5">
+    <row r="133" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="6"/>
     </row>
-    <row r="134" spans="3:5">
+    <row r="134" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="6"/>
     </row>
-    <row r="135" spans="3:5">
+    <row r="135" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="6"/>
     </row>
-    <row r="136" spans="3:5">
+    <row r="136" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="6"/>
     </row>
-    <row r="137" spans="3:5">
+    <row r="137" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="6"/>
     </row>
-    <row r="138" spans="3:5">
+    <row r="138" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="6"/>
     </row>
-    <row r="139" spans="3:5">
+    <row r="139" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="6"/>
     </row>
-    <row r="140" spans="3:5">
+    <row r="140" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="6"/>
     </row>
-    <row r="141" spans="3:5">
+    <row r="141" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="6"/>
     </row>
-    <row r="142" spans="3:5">
+    <row r="142" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="6"/>
     </row>
-    <row r="143" spans="3:5">
+    <row r="143" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="6"/>
     </row>
-    <row r="144" spans="3:5">
+    <row r="144" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="6"/>
     </row>
-    <row r="145" spans="3:5">
+    <row r="145" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="6"/>
     </row>
-    <row r="146" spans="3:5">
+    <row r="146" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="6"/>
     </row>
-    <row r="147" spans="3:5">
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="6"/>
-    </row>
-    <row r="148" spans="3:5">
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="6"/>
-    </row>
-    <row r="149" spans="3:5">
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="6"/>
-    </row>
-    <row r="150" spans="3:5">
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="6"/>
-    </row>
-    <row r="151" spans="3:5">
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="6"/>
-    </row>
-    <row r="152" spans="3:5">
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="6"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C58" xr:uid="{A787322A-5B17-4E1F-B960-30BFFEBBD83A}"/>
+  <autoFilter ref="A1:C57" xr:uid="{A787322A-5B17-4E1F-B960-30BFFEBBD83A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C62">
+      <sortCondition ref="A1:A57"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="9968dc3e-a1f3-41f5-b998-9e98f3d19f76" xsi:nil="true"/>
@@ -5163,7 +7325,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010029DFE9A47EDBBA4C9642CECEC7AB5212" ma:contentTypeVersion="15" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="7328ff878a8f4dae18a74358abfdf779">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685e8f7b-ce85-439b-962f-3948db74e463" xmlns:ns3="9968dc3e-a1f3-41f5-b998-9e98f3d19f76" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d504a395b7aacda9b17f0d85dc998159" ns2:_="" ns3:_="">
     <xsd:import namespace="685e8f7b-ce85-439b-962f-3948db74e463"/>
@@ -5398,16 +7560,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11E769B2-782A-4CC9-89C8-BE475949AFF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{358F526D-C9BF-4800-8675-13EA5EBEF839}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -5424,7 +7585,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13BA50B4-2830-4093-B3A1-0E01A2125F8E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5441,12 +7602,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11E769B2-782A-4CC9-89C8-BE475949AFF9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>